--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244992</v>
+        <v>0.251005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226533</v>
+        <v>0.190801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1962</v>
+        <v>0.19898</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192048</v>
+        <v>0.203484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.230779</v>
+        <v>0.190583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198316</v>
+        <v>0.19848</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.202005</v>
+        <v>0.203624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236882</v>
+        <v>0.196613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204798</v>
+        <v>0.204635</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.209958</v>
+        <v>0.210489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.24438</v>
+        <v>0.201793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210883</v>
+        <v>0.21028</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.213445</v>
+        <v>0.215997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.248935</v>
+        <v>0.204097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216382</v>
+        <v>0.214989</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216069</v>
+        <v>0.219354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207274</v>
+        <v>0.171407</v>
       </c>
       <c r="D7" t="n">
-        <v>0.181351</v>
+        <v>0.182734</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223639</v>
+        <v>0.22529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.213298</v>
+        <v>0.174365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187525</v>
+        <v>0.189394</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.229784</v>
+        <v>0.231213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217828</v>
+        <v>0.179032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.188281</v>
+        <v>0.190266</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235132</v>
+        <v>0.236464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22281</v>
+        <v>0.18192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193194</v>
+        <v>0.195525</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240714</v>
+        <v>0.241499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225459</v>
+        <v>0.185204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198984</v>
+        <v>0.198528</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.248697</v>
+        <v>0.248824</v>
       </c>
       <c r="C12" t="n">
-        <v>0.232512</v>
+        <v>0.190895</v>
       </c>
       <c r="D12" t="n">
-        <v>0.204323</v>
+        <v>0.204389</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.252856</v>
+        <v>0.253528</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236787</v>
+        <v>0.193994</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208852</v>
+        <v>0.208004</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.257648</v>
+        <v>0.258789</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241335</v>
+        <v>0.197947</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212173</v>
+        <v>0.212708</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265236</v>
+        <v>0.265423</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247241</v>
+        <v>0.203715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217878</v>
+        <v>0.217299</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269451</v>
+        <v>0.26915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251499</v>
+        <v>0.207135</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221722</v>
+        <v>0.221974</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276078</v>
+        <v>0.276558</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2576</v>
+        <v>0.212178</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227603</v>
+        <v>0.227897</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230033</v>
+        <v>0.23057</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2613</v>
+        <v>0.215332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230136</v>
+        <v>0.229963</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.234654</v>
+        <v>0.235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265943</v>
+        <v>0.219322</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234881</v>
+        <v>0.234423</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.238935</v>
+        <v>0.239575</v>
       </c>
       <c r="C20" t="n">
-        <v>0.270727</v>
+        <v>0.223804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240519</v>
+        <v>0.239415</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24323</v>
+        <v>0.243907</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232768</v>
+        <v>0.189557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205114</v>
+        <v>0.203438</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247567</v>
+        <v>0.248567</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237153</v>
+        <v>0.193026</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209076</v>
+        <v>0.207763</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.251852</v>
+        <v>0.252691</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241918</v>
+        <v>0.196261</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212381</v>
+        <v>0.210989</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.256596</v>
+        <v>0.257615</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244704</v>
+        <v>0.199305</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216332</v>
+        <v>0.214852</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26179</v>
+        <v>0.262275</v>
       </c>
       <c r="C25" t="n">
-        <v>0.248842</v>
+        <v>0.202542</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21997</v>
+        <v>0.218449</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268292</v>
+        <v>0.268684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.253092</v>
+        <v>0.207362</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22469</v>
+        <v>0.223105</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272368</v>
+        <v>0.273666</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257298</v>
+        <v>0.21075</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228224</v>
+        <v>0.226256</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277546</v>
+        <v>0.278695</v>
       </c>
       <c r="C28" t="n">
-        <v>0.262722</v>
+        <v>0.2155</v>
       </c>
       <c r="D28" t="n">
-        <v>0.232219</v>
+        <v>0.231123</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282594</v>
+        <v>0.283558</v>
       </c>
       <c r="C29" t="n">
-        <v>0.267873</v>
+        <v>0.220463</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237374</v>
+        <v>0.236335</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.288841</v>
+        <v>0.289075</v>
       </c>
       <c r="C30" t="n">
-        <v>0.272595</v>
+        <v>0.224512</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241702</v>
+        <v>0.24051</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293905</v>
+        <v>0.294318</v>
       </c>
       <c r="C31" t="n">
-        <v>0.277433</v>
+        <v>0.229173</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246551</v>
+        <v>0.244649</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242188</v>
+        <v>0.242462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.28242</v>
+        <v>0.23314</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249634</v>
+        <v>0.248475</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.245684</v>
+        <v>0.246054</v>
       </c>
       <c r="C33" t="n">
-        <v>0.287573</v>
+        <v>0.237681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255081</v>
+        <v>0.253715</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2488</v>
+        <v>0.249111</v>
       </c>
       <c r="C34" t="n">
-        <v>0.291318</v>
+        <v>0.241189</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259028</v>
+        <v>0.257476</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252416</v>
+        <v>0.252791</v>
       </c>
       <c r="C35" t="n">
-        <v>0.244022</v>
+        <v>0.197968</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211032</v>
+        <v>0.209756</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256585</v>
+        <v>0.256794</v>
       </c>
       <c r="C36" t="n">
-        <v>0.246836</v>
+        <v>0.200391</v>
       </c>
       <c r="D36" t="n">
-        <v>0.213023</v>
+        <v>0.212717</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260399</v>
+        <v>0.260802</v>
       </c>
       <c r="C37" t="n">
-        <v>0.250575</v>
+        <v>0.203353</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217609</v>
+        <v>0.216228</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.264528</v>
+        <v>0.265148</v>
       </c>
       <c r="C38" t="n">
-        <v>0.254626</v>
+        <v>0.207056</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221596</v>
+        <v>0.220038</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268833</v>
+        <v>0.26957</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258973</v>
+        <v>0.210747</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225593</v>
+        <v>0.224111</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.273598</v>
+        <v>0.274567</v>
       </c>
       <c r="C40" t="n">
-        <v>0.263267</v>
+        <v>0.214631</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229643</v>
+        <v>0.228372</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27892</v>
+        <v>0.279128</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267221</v>
+        <v>0.21857</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233786</v>
+        <v>0.232374</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283453</v>
+        <v>0.284302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.271207</v>
+        <v>0.222276</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237516</v>
+        <v>0.235983</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288559</v>
+        <v>0.289636</v>
       </c>
       <c r="C43" t="n">
-        <v>0.275828</v>
+        <v>0.226828</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241828</v>
+        <v>0.240482</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.293529</v>
+        <v>0.294896</v>
       </c>
       <c r="C44" t="n">
-        <v>0.281259</v>
+        <v>0.231616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246932</v>
+        <v>0.245443</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.298682</v>
+        <v>0.299961</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285927</v>
+        <v>0.23607</v>
       </c>
       <c r="D45" t="n">
-        <v>0.250811</v>
+        <v>0.249436</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303258</v>
+        <v>0.304633</v>
       </c>
       <c r="C46" t="n">
-        <v>0.290355</v>
+        <v>0.239987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.255073</v>
+        <v>0.253975</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250164</v>
+        <v>0.250601</v>
       </c>
       <c r="C47" t="n">
-        <v>0.29514</v>
+        <v>0.24489</v>
       </c>
       <c r="D47" t="n">
-        <v>0.259338</v>
+        <v>0.25841</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253217</v>
+        <v>0.253517</v>
       </c>
       <c r="C48" t="n">
-        <v>0.299263</v>
+        <v>0.248833</v>
       </c>
       <c r="D48" t="n">
-        <v>0.263146</v>
+        <v>0.262308</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256914</v>
+        <v>0.25688</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303061</v>
+        <v>0.253226</v>
       </c>
       <c r="D49" t="n">
-        <v>0.267675</v>
+        <v>0.266726</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260387</v>
+        <v>0.260634</v>
       </c>
       <c r="C50" t="n">
-        <v>0.253903</v>
+        <v>0.205689</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216436</v>
+        <v>0.215058</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264206</v>
+        <v>0.264487</v>
       </c>
       <c r="C51" t="n">
-        <v>0.255834</v>
+        <v>0.208476</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219781</v>
+        <v>0.218551</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.268472</v>
+        <v>0.268966</v>
       </c>
       <c r="C52" t="n">
-        <v>0.259404</v>
+        <v>0.212036</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223313</v>
+        <v>0.22213</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.272969</v>
+        <v>0.273479</v>
       </c>
       <c r="C53" t="n">
-        <v>0.263238</v>
+        <v>0.215027</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227149</v>
+        <v>0.225908</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.277734</v>
+        <v>0.278432</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2673</v>
+        <v>0.21865</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230642</v>
+        <v>0.229248</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282523</v>
+        <v>0.283385</v>
       </c>
       <c r="C55" t="n">
-        <v>0.271344</v>
+        <v>0.222294</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234496</v>
+        <v>0.233315</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287654</v>
+        <v>0.288647</v>
       </c>
       <c r="C56" t="n">
-        <v>0.275896</v>
+        <v>0.226589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2391</v>
+        <v>0.237654</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293031</v>
+        <v>0.29377</v>
       </c>
       <c r="C57" t="n">
-        <v>0.280526</v>
+        <v>0.230995</v>
       </c>
       <c r="D57" t="n">
-        <v>0.243246</v>
+        <v>0.24169</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297438</v>
+        <v>0.298389</v>
       </c>
       <c r="C58" t="n">
-        <v>0.285129</v>
+        <v>0.235513</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2475</v>
+        <v>0.245796</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302264</v>
+        <v>0.30338</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289974</v>
+        <v>0.240557</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251502</v>
+        <v>0.250394</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.308015</v>
+        <v>0.308981</v>
       </c>
       <c r="C60" t="n">
-        <v>0.295026</v>
+        <v>0.24453</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255902</v>
+        <v>0.254781</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.257734</v>
+        <v>0.256268</v>
       </c>
       <c r="C61" t="n">
-        <v>0.299763</v>
+        <v>0.249572</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260135</v>
+        <v>0.259183</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257708</v>
+        <v>0.257934</v>
       </c>
       <c r="C62" t="n">
-        <v>0.304227</v>
+        <v>0.253597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264689</v>
+        <v>0.263933</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266806</v>
+        <v>0.268101</v>
       </c>
       <c r="C63" t="n">
-        <v>0.308475</v>
+        <v>0.258727</v>
       </c>
       <c r="D63" t="n">
-        <v>0.26904</v>
+        <v>0.267807</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.273088</v>
+        <v>0.274817</v>
       </c>
       <c r="C64" t="n">
-        <v>0.261986</v>
+        <v>0.21555</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224532</v>
+        <v>0.222888</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.277793</v>
+        <v>0.280988</v>
       </c>
       <c r="C65" t="n">
-        <v>0.265843</v>
+        <v>0.220424</v>
       </c>
       <c r="D65" t="n">
-        <v>0.228934</v>
+        <v>0.228464</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.284023</v>
+        <v>0.285869</v>
       </c>
       <c r="C66" t="n">
-        <v>0.271868</v>
+        <v>0.225855</v>
       </c>
       <c r="D66" t="n">
-        <v>0.233297</v>
+        <v>0.233661</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.29029</v>
+        <v>0.292549</v>
       </c>
       <c r="C67" t="n">
-        <v>0.276642</v>
+        <v>0.227263</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239438</v>
+        <v>0.239127</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.295406</v>
+        <v>0.302321</v>
       </c>
       <c r="C68" t="n">
-        <v>0.28279</v>
+        <v>0.234096</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244857</v>
+        <v>0.243885</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.308376</v>
+        <v>0.30967</v>
       </c>
       <c r="C69" t="n">
-        <v>0.286999</v>
+        <v>0.239972</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250341</v>
+        <v>0.249344</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.318195</v>
+        <v>0.31921</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294772</v>
+        <v>0.247137</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257071</v>
+        <v>0.255153</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.331472</v>
+        <v>0.330333</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300569</v>
+        <v>0.253687</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262118</v>
+        <v>0.262066</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.341587</v>
+        <v>0.343061</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308113</v>
+        <v>0.262532</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269556</v>
+        <v>0.269864</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.352951</v>
+        <v>0.357292</v>
       </c>
       <c r="C73" t="n">
-        <v>0.315564</v>
+        <v>0.269425</v>
       </c>
       <c r="D73" t="n">
-        <v>0.277664</v>
+        <v>0.278658</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.366041</v>
+        <v>0.370028</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324572</v>
+        <v>0.277308</v>
       </c>
       <c r="D74" t="n">
-        <v>0.28521</v>
+        <v>0.285199</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.378406</v>
+        <v>0.382399</v>
       </c>
       <c r="C75" t="n">
-        <v>0.334617</v>
+        <v>0.286654</v>
       </c>
       <c r="D75" t="n">
-        <v>0.295116</v>
+        <v>0.293526</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.406485</v>
+        <v>0.422944</v>
       </c>
       <c r="C76" t="n">
-        <v>0.34281</v>
+        <v>0.296705</v>
       </c>
       <c r="D76" t="n">
-        <v>0.302261</v>
+        <v>0.303381</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.416754</v>
+        <v>0.430797</v>
       </c>
       <c r="C77" t="n">
-        <v>0.35553</v>
+        <v>0.305038</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31447</v>
+        <v>0.310873</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439041</v>
+        <v>0.447929</v>
       </c>
       <c r="C78" t="n">
-        <v>0.342344</v>
+        <v>0.299644</v>
       </c>
       <c r="D78" t="n">
-        <v>0.303646</v>
+        <v>0.307863</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.449903</v>
+        <v>0.451618</v>
       </c>
       <c r="C79" t="n">
-        <v>0.351182</v>
+        <v>0.305705</v>
       </c>
       <c r="D79" t="n">
-        <v>0.319938</v>
+        <v>0.315793</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.459445</v>
+        <v>0.466665</v>
       </c>
       <c r="C80" t="n">
-        <v>0.363893</v>
+        <v>0.320123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325228</v>
+        <v>0.328537</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.478671</v>
+        <v>0.481423</v>
       </c>
       <c r="C81" t="n">
-        <v>0.374341</v>
+        <v>0.326194</v>
       </c>
       <c r="D81" t="n">
-        <v>0.343059</v>
+        <v>0.338393</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.49495</v>
+        <v>0.499489</v>
       </c>
       <c r="C82" t="n">
-        <v>0.392818</v>
+        <v>0.342868</v>
       </c>
       <c r="D82" t="n">
-        <v>0.354775</v>
+        <v>0.353017</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.515589</v>
+        <v>0.520471</v>
       </c>
       <c r="C83" t="n">
-        <v>0.403051</v>
+        <v>0.357364</v>
       </c>
       <c r="D83" t="n">
-        <v>0.371656</v>
+        <v>0.368418</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.534488</v>
+        <v>0.54091</v>
       </c>
       <c r="C84" t="n">
-        <v>0.422603</v>
+        <v>0.372501</v>
       </c>
       <c r="D84" t="n">
-        <v>0.382958</v>
+        <v>0.384775</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.553637</v>
+        <v>0.562018</v>
       </c>
       <c r="C85" t="n">
-        <v>0.43704</v>
+        <v>0.393163</v>
       </c>
       <c r="D85" t="n">
-        <v>0.403272</v>
+        <v>0.402634</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.578276</v>
+        <v>0.58539</v>
       </c>
       <c r="C86" t="n">
-        <v>0.454919</v>
+        <v>0.409342</v>
       </c>
       <c r="D86" t="n">
-        <v>0.419772</v>
+        <v>0.418218</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.598367</v>
+        <v>0.607378</v>
       </c>
       <c r="C87" t="n">
-        <v>0.467189</v>
+        <v>0.4209</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434079</v>
+        <v>0.433477</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.621304</v>
+        <v>0.629749</v>
       </c>
       <c r="C88" t="n">
-        <v>0.487044</v>
+        <v>0.439339</v>
       </c>
       <c r="D88" t="n">
-        <v>0.452249</v>
+        <v>0.450714</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.644224</v>
+        <v>0.65373</v>
       </c>
       <c r="C89" t="n">
-        <v>0.503741</v>
+        <v>0.455708</v>
       </c>
       <c r="D89" t="n">
-        <v>0.469865</v>
+        <v>0.468637</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.669838</v>
+        <v>0.684577</v>
       </c>
       <c r="C90" t="n">
-        <v>0.521045</v>
+        <v>0.472714</v>
       </c>
       <c r="D90" t="n">
-        <v>0.490013</v>
+        <v>0.487974</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.67524</v>
+        <v>0.685186</v>
       </c>
       <c r="C91" t="n">
-        <v>0.536243</v>
+        <v>0.489915</v>
       </c>
       <c r="D91" t="n">
-        <v>0.496552</v>
+        <v>0.497349</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.684216</v>
+        <v>0.6944090000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.546547</v>
+        <v>0.506325</v>
       </c>
       <c r="D92" t="n">
-        <v>0.50813</v>
+        <v>0.511501</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.694864</v>
+        <v>0.705453</v>
       </c>
       <c r="C93" t="n">
-        <v>0.559495</v>
+        <v>0.516734</v>
       </c>
       <c r="D93" t="n">
-        <v>0.521525</v>
+        <v>0.521529</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.70451</v>
+        <v>0.715599</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5697950000000001</v>
+        <v>0.528929</v>
       </c>
       <c r="D94" t="n">
-        <v>0.530217</v>
+        <v>0.533173</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.717616</v>
+        <v>0.728027</v>
       </c>
       <c r="C95" t="n">
-        <v>0.580391</v>
+        <v>0.540596</v>
       </c>
       <c r="D95" t="n">
-        <v>0.543837</v>
+        <v>0.547548</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.729595</v>
+        <v>0.740693</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5936360000000001</v>
+        <v>0.552192</v>
       </c>
       <c r="D96" t="n">
-        <v>0.55737</v>
+        <v>0.5612200000000001</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.743316</v>
+        <v>0.753694</v>
       </c>
       <c r="C97" t="n">
-        <v>0.607057</v>
+        <v>0.565653</v>
       </c>
       <c r="D97" t="n">
-        <v>0.570746</v>
+        <v>0.5730769999999999</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.758412</v>
+        <v>0.770346</v>
       </c>
       <c r="C98" t="n">
-        <v>0.621269</v>
+        <v>0.5799569999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5850379999999999</v>
+        <v>0.5870339999999999</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774166</v>
+        <v>0.786354</v>
       </c>
       <c r="C99" t="n">
-        <v>0.634418</v>
+        <v>0.592656</v>
       </c>
       <c r="D99" t="n">
-        <v>0.597922</v>
+        <v>0.600209</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.791709</v>
+        <v>0.80461</v>
       </c>
       <c r="C100" t="n">
-        <v>0.649058</v>
+        <v>0.60726</v>
       </c>
       <c r="D100" t="n">
-        <v>0.611275</v>
+        <v>0.615132</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.809785</v>
+        <v>0.822867</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6634989999999999</v>
+        <v>0.62147</v>
       </c>
       <c r="D101" t="n">
-        <v>0.625165</v>
+        <v>0.629136</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828505</v>
+        <v>0.841248</v>
       </c>
       <c r="C102" t="n">
-        <v>0.679377</v>
+        <v>0.636845</v>
       </c>
       <c r="D102" t="n">
-        <v>0.640724</v>
+        <v>0.645133</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.848292</v>
+        <v>0.861311</v>
       </c>
       <c r="C103" t="n">
-        <v>0.695027</v>
+        <v>0.651505</v>
       </c>
       <c r="D103" t="n">
-        <v>0.655993</v>
+        <v>0.660204</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.868988</v>
+        <v>0.882474</v>
       </c>
       <c r="C104" t="n">
-        <v>0.712267</v>
+        <v>0.667902</v>
       </c>
       <c r="D104" t="n">
-        <v>0.671906</v>
+        <v>0.676196</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.796457</v>
+        <v>0.815546</v>
       </c>
       <c r="C105" t="n">
-        <v>0.72861</v>
+        <v>0.68376</v>
       </c>
       <c r="D105" t="n">
-        <v>0.692242</v>
+        <v>0.696145</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.801464</v>
+        <v>0.814824</v>
       </c>
       <c r="C106" t="n">
-        <v>0.746559</v>
+        <v>0.7014280000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7089569999999999</v>
+        <v>0.716181</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.809754</v>
+        <v>0.823307</v>
       </c>
       <c r="C107" t="n">
-        <v>0.692512</v>
+        <v>0.65573</v>
       </c>
       <c r="D107" t="n">
-        <v>0.651465</v>
+        <v>0.658534</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.818335</v>
+        <v>0.831588</v>
       </c>
       <c r="C108" t="n">
-        <v>0.703674</v>
+        <v>0.6648770000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.662112</v>
+        <v>0.668868</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8284010000000001</v>
+        <v>0.842554</v>
       </c>
       <c r="C109" t="n">
-        <v>0.715008</v>
+        <v>0.676642</v>
       </c>
       <c r="D109" t="n">
-        <v>0.673687</v>
+        <v>0.6810850000000001</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.839207</v>
+        <v>0.853862</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7267670000000001</v>
+        <v>0.6881969999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.685772</v>
+        <v>0.6933589999999999</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.850861</v>
+        <v>0.864877</v>
       </c>
       <c r="C111" t="n">
-        <v>0.739117</v>
+        <v>0.7000189999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.697962</v>
+        <v>0.704579</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.863482</v>
+        <v>0.879455</v>
       </c>
       <c r="C112" t="n">
-        <v>0.751457</v>
+        <v>0.713861</v>
       </c>
       <c r="D112" t="n">
-        <v>0.710379</v>
+        <v>0.719008</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.877943</v>
+        <v>0.894666</v>
       </c>
       <c r="C113" t="n">
-        <v>0.764452</v>
+        <v>0.726857</v>
       </c>
       <c r="D113" t="n">
-        <v>0.723382</v>
+        <v>0.731812</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.893168</v>
+        <v>0.910382</v>
       </c>
       <c r="C114" t="n">
-        <v>0.778264</v>
+        <v>0.740991</v>
       </c>
       <c r="D114" t="n">
-        <v>0.738104</v>
+        <v>0.746785</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9107229999999999</v>
+        <v>0.928027</v>
       </c>
       <c r="C115" t="n">
-        <v>0.793143</v>
+        <v>0.754795</v>
       </c>
       <c r="D115" t="n">
-        <v>0.753993</v>
+        <v>0.760892</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.930126</v>
+        <v>0.946901</v>
       </c>
       <c r="C116" t="n">
-        <v>0.80899</v>
+        <v>0.768272</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765854</v>
+        <v>0.773099</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.94996</v>
+        <v>0.966677</v>
       </c>
       <c r="C117" t="n">
-        <v>0.825004</v>
+        <v>0.782881</v>
       </c>
       <c r="D117" t="n">
-        <v>0.780381</v>
+        <v>0.787652</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.970577</v>
+        <v>0.988088</v>
       </c>
       <c r="C118" t="n">
-        <v>0.84083</v>
+        <v>0.797922</v>
       </c>
       <c r="D118" t="n">
-        <v>0.796858</v>
+        <v>0.805266</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.859578</v>
+        <v>0.876694</v>
       </c>
       <c r="C119" t="n">
-        <v>0.857639</v>
+        <v>0.8144749999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.811635</v>
+        <v>0.819724</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24809</v>
+        <v>0.247293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.198814</v>
+        <v>0.163152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.153655</v>
+        <v>0.152795</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.218703</v>
+        <v>0.219239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.202485</v>
+        <v>0.167824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153405</v>
+        <v>0.151392</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.222663</v>
+        <v>0.223051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20673</v>
+        <v>0.173642</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158633</v>
+        <v>0.156669</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22909</v>
+        <v>0.228638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.214458</v>
+        <v>0.180433</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161858</v>
+        <v>0.161016</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230327</v>
+        <v>0.230127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220071</v>
+        <v>0.185062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166329</v>
+        <v>0.165624</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234343</v>
+        <v>0.232904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202816</v>
+        <v>0.170181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160088</v>
+        <v>0.160261</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235793</v>
+        <v>0.236623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206769</v>
+        <v>0.176302</v>
       </c>
       <c r="D8" t="n">
-        <v>0.165426</v>
+        <v>0.163674</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237854</v>
+        <v>0.237135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.208454</v>
+        <v>0.176946</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168626</v>
+        <v>0.164196</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241511</v>
+        <v>0.240265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215639</v>
+        <v>0.181292</v>
       </c>
       <c r="D10" t="n">
-        <v>0.168041</v>
+        <v>0.16794</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.241041</v>
+        <v>0.240636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211961</v>
+        <v>0.180669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167171</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.255318</v>
+        <v>0.252788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.224526</v>
+        <v>0.194601</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174397</v>
+        <v>0.172393</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255999</v>
+        <v>0.25652</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223588</v>
+        <v>0.194154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174774</v>
+        <v>0.176873</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256548</v>
+        <v>0.257736</v>
       </c>
       <c r="C14" t="n">
-        <v>0.225211</v>
+        <v>0.193876</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174554</v>
+        <v>0.173166</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264704</v>
+        <v>0.266085</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229377</v>
+        <v>0.200459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.178144</v>
+        <v>0.182285</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.271155</v>
+        <v>0.271232</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235464</v>
+        <v>0.205182</v>
       </c>
       <c r="D16" t="n">
-        <v>0.18078</v>
+        <v>0.182255</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276648</v>
+        <v>0.275599</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239613</v>
+        <v>0.208171</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182517</v>
+        <v>0.186517</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.255077</v>
+        <v>0.256048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242363</v>
+        <v>0.207729</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184495</v>
+        <v>0.184145</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260595</v>
+        <v>0.259332</v>
       </c>
       <c r="C19" t="n">
-        <v>0.251125</v>
+        <v>0.218822</v>
       </c>
       <c r="D19" t="n">
-        <v>0.19024</v>
+        <v>0.191429</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264707</v>
+        <v>0.263401</v>
       </c>
       <c r="C20" t="n">
-        <v>0.25269</v>
+        <v>0.226512</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192074</v>
+        <v>0.192523</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.273218</v>
+        <v>0.270932</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234081</v>
+        <v>0.201507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.19236</v>
+        <v>0.189754</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.273026</v>
+        <v>0.271821</v>
       </c>
       <c r="C22" t="n">
-        <v>0.248009</v>
+        <v>0.21309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.194531</v>
+        <v>0.195007</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277848</v>
+        <v>0.276854</v>
       </c>
       <c r="C23" t="n">
-        <v>0.244079</v>
+        <v>0.216191</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19685</v>
+        <v>0.19533</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.280722</v>
+        <v>0.279226</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254265</v>
+        <v>0.224967</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201555</v>
+        <v>0.201953</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283718</v>
+        <v>0.283613</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268876</v>
+        <v>0.233199</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204306</v>
+        <v>0.204918</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293453</v>
+        <v>0.292587</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268977</v>
+        <v>0.233272</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207877</v>
+        <v>0.207077</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295053</v>
+        <v>0.294166</v>
       </c>
       <c r="C27" t="n">
-        <v>0.277464</v>
+        <v>0.241643</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21026</v>
+        <v>0.211353</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.296664</v>
+        <v>0.296834</v>
       </c>
       <c r="C28" t="n">
-        <v>0.279504</v>
+        <v>0.24342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212575</v>
+        <v>0.212599</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.30629</v>
+        <v>0.305918</v>
       </c>
       <c r="C29" t="n">
-        <v>0.285799</v>
+        <v>0.248552</v>
       </c>
       <c r="D29" t="n">
-        <v>0.215102</v>
+        <v>0.214946</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310979</v>
+        <v>0.310489</v>
       </c>
       <c r="C30" t="n">
-        <v>0.297143</v>
+        <v>0.259651</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219806</v>
+        <v>0.219697</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314632</v>
+        <v>0.313809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296639</v>
+        <v>0.25669</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221436</v>
+        <v>0.22118</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281032</v>
+        <v>0.279771</v>
       </c>
       <c r="C32" t="n">
-        <v>0.306565</v>
+        <v>0.261996</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224537</v>
+        <v>0.223211</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.285992</v>
+        <v>0.285487</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31383</v>
+        <v>0.274872</v>
       </c>
       <c r="D33" t="n">
-        <v>0.228174</v>
+        <v>0.228778</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291499</v>
+        <v>0.290598</v>
       </c>
       <c r="C34" t="n">
-        <v>0.318386</v>
+        <v>0.277902</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232334</v>
+        <v>0.232306</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292614</v>
+        <v>0.291413</v>
       </c>
       <c r="C35" t="n">
-        <v>0.257743</v>
+        <v>0.220176</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210317</v>
+        <v>0.210062</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.29677</v>
+        <v>0.295894</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263202</v>
+        <v>0.226782</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212091</v>
+        <v>0.211516</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.303718</v>
+        <v>0.302701</v>
       </c>
       <c r="C37" t="n">
-        <v>0.266947</v>
+        <v>0.231152</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214331</v>
+        <v>0.214161</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305642</v>
+        <v>0.305034</v>
       </c>
       <c r="C38" t="n">
-        <v>0.271142</v>
+        <v>0.233787</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216403</v>
+        <v>0.216141</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31277</v>
+        <v>0.312354</v>
       </c>
       <c r="C39" t="n">
-        <v>0.277785</v>
+        <v>0.239438</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219178</v>
+        <v>0.219594</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320733</v>
+        <v>0.32046</v>
       </c>
       <c r="C40" t="n">
-        <v>0.281214</v>
+        <v>0.241038</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221192</v>
+        <v>0.220529</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326578</v>
+        <v>0.3262</v>
       </c>
       <c r="C41" t="n">
-        <v>0.285022</v>
+        <v>0.24615</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222401</v>
+        <v>0.222561</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.33096</v>
+        <v>0.330199</v>
       </c>
       <c r="C42" t="n">
-        <v>0.287387</v>
+        <v>0.247333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223514</v>
+        <v>0.224385</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.336712</v>
+        <v>0.336247</v>
       </c>
       <c r="C43" t="n">
-        <v>0.292693</v>
+        <v>0.252014</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22702</v>
+        <v>0.226862</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.33983</v>
+        <v>0.338968</v>
       </c>
       <c r="C44" t="n">
-        <v>0.297811</v>
+        <v>0.256428</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228471</v>
+        <v>0.22867</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.348114</v>
+        <v>0.347554</v>
       </c>
       <c r="C45" t="n">
-        <v>0.301128</v>
+        <v>0.258985</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231133</v>
+        <v>0.230792</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349348</v>
+        <v>0.348454</v>
       </c>
       <c r="C46" t="n">
-        <v>0.302404</v>
+        <v>0.259626</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232361</v>
+        <v>0.232019</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289318</v>
+        <v>0.2888</v>
       </c>
       <c r="C47" t="n">
-        <v>0.308173</v>
+        <v>0.263801</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234083</v>
+        <v>0.233721</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.294487</v>
+        <v>0.293216</v>
       </c>
       <c r="C48" t="n">
-        <v>0.313864</v>
+        <v>0.271216</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236504</v>
+        <v>0.236328</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297526</v>
+        <v>0.29703</v>
       </c>
       <c r="C49" t="n">
-        <v>0.318519</v>
+        <v>0.272904</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238591</v>
+        <v>0.23929</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.301066</v>
+        <v>0.300497</v>
       </c>
       <c r="C50" t="n">
-        <v>0.286607</v>
+        <v>0.244737</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223975</v>
+        <v>0.22454</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.30426</v>
+        <v>0.303596</v>
       </c>
       <c r="C51" t="n">
-        <v>0.290567</v>
+        <v>0.247324</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226511</v>
+        <v>0.225973</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.306338</v>
+        <v>0.306258</v>
       </c>
       <c r="C52" t="n">
-        <v>0.292985</v>
+        <v>0.250757</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22765</v>
+        <v>0.227218</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312145</v>
+        <v>0.311856</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29853</v>
+        <v>0.254344</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229224</v>
+        <v>0.229979</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320628</v>
+        <v>0.320667</v>
       </c>
       <c r="C54" t="n">
-        <v>0.303278</v>
+        <v>0.258682</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232275</v>
+        <v>0.23154</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.320061</v>
+        <v>0.319725</v>
       </c>
       <c r="C55" t="n">
-        <v>0.308668</v>
+        <v>0.264918</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233691</v>
+        <v>0.234101</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325537</v>
+        <v>0.324434</v>
       </c>
       <c r="C56" t="n">
-        <v>0.308332</v>
+        <v>0.263928</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234971</v>
+        <v>0.234647</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332631</v>
+        <v>0.332654</v>
       </c>
       <c r="C57" t="n">
-        <v>0.316829</v>
+        <v>0.271588</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237594</v>
+        <v>0.237396</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334279</v>
+        <v>0.334007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.324216</v>
+        <v>0.278829</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240488</v>
+        <v>0.240868</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.341651</v>
+        <v>0.341467</v>
       </c>
       <c r="C59" t="n">
-        <v>0.330555</v>
+        <v>0.285052</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244486</v>
+        <v>0.244318</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347063</v>
+        <v>0.346803</v>
       </c>
       <c r="C60" t="n">
-        <v>0.335495</v>
+        <v>0.289128</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247477</v>
+        <v>0.248032</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.306038</v>
+        <v>0.302721</v>
       </c>
       <c r="C61" t="n">
-        <v>0.341788</v>
+        <v>0.293834</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248556</v>
+        <v>0.249033</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.309378</v>
+        <v>0.312827</v>
       </c>
       <c r="C62" t="n">
-        <v>0.344795</v>
+        <v>0.298792</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250439</v>
+        <v>0.25064</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.31995</v>
+        <v>0.31944</v>
       </c>
       <c r="C63" t="n">
-        <v>0.351358</v>
+        <v>0.303486</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254126</v>
+        <v>0.254366</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.324911</v>
+        <v>0.325437</v>
       </c>
       <c r="C64" t="n">
-        <v>0.314314</v>
+        <v>0.268435</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242182</v>
+        <v>0.243612</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.328669</v>
+        <v>0.326968</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3182</v>
+        <v>0.271961</v>
       </c>
       <c r="D65" t="n">
-        <v>0.242647</v>
+        <v>0.241154</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.337934</v>
+        <v>0.33675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321729</v>
+        <v>0.275269</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243316</v>
+        <v>0.242828</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.343628</v>
+        <v>0.340903</v>
       </c>
       <c r="C67" t="n">
-        <v>0.329583</v>
+        <v>0.282212</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24634</v>
+        <v>0.246168</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.353816</v>
+        <v>0.345634</v>
       </c>
       <c r="C68" t="n">
-        <v>0.333514</v>
+        <v>0.286386</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248931</v>
+        <v>0.248186</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358659</v>
+        <v>0.356629</v>
       </c>
       <c r="C69" t="n">
-        <v>0.338458</v>
+        <v>0.289851</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251276</v>
+        <v>0.251388</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368244</v>
+        <v>0.364931</v>
       </c>
       <c r="C70" t="n">
-        <v>0.34488</v>
+        <v>0.297326</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256082</v>
+        <v>0.255255</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.37868</v>
+        <v>0.376099</v>
       </c>
       <c r="C71" t="n">
-        <v>0.352346</v>
+        <v>0.304091</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259535</v>
+        <v>0.25824</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.385994</v>
+        <v>0.38306</v>
       </c>
       <c r="C72" t="n">
-        <v>0.360469</v>
+        <v>0.311721</v>
       </c>
       <c r="D72" t="n">
-        <v>0.26193</v>
+        <v>0.262513</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.401179</v>
+        <v>0.397119</v>
       </c>
       <c r="C73" t="n">
-        <v>0.369833</v>
+        <v>0.319236</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266177</v>
+        <v>0.26804</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.408217</v>
+        <v>0.411112</v>
       </c>
       <c r="C74" t="n">
-        <v>0.376642</v>
+        <v>0.327086</v>
       </c>
       <c r="D74" t="n">
-        <v>0.268046</v>
+        <v>0.268328</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.428876</v>
+        <v>0.427106</v>
       </c>
       <c r="C75" t="n">
-        <v>0.383696</v>
+        <v>0.334514</v>
       </c>
       <c r="D75" t="n">
-        <v>0.271781</v>
+        <v>0.273301</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.434368</v>
+        <v>0.439809</v>
       </c>
       <c r="C76" t="n">
-        <v>0.395593</v>
+        <v>0.347791</v>
       </c>
       <c r="D76" t="n">
-        <v>0.276388</v>
+        <v>0.27961</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.454215</v>
+        <v>0.455952</v>
       </c>
       <c r="C77" t="n">
-        <v>0.408631</v>
+        <v>0.357464</v>
       </c>
       <c r="D77" t="n">
-        <v>0.284171</v>
+        <v>0.281645</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.480324</v>
+        <v>0.477688</v>
       </c>
       <c r="C78" t="n">
-        <v>0.366541</v>
+        <v>0.319746</v>
       </c>
       <c r="D78" t="n">
-        <v>0.27874</v>
+        <v>0.272497</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.496294</v>
+        <v>0.500117</v>
       </c>
       <c r="C79" t="n">
-        <v>0.374543</v>
+        <v>0.331376</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282201</v>
+        <v>0.275487</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.520282</v>
+        <v>0.520007</v>
       </c>
       <c r="C80" t="n">
-        <v>0.393505</v>
+        <v>0.350375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.291539</v>
+        <v>0.286437</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.548184</v>
+        <v>0.549345</v>
       </c>
       <c r="C81" t="n">
-        <v>0.39944</v>
+        <v>0.365108</v>
       </c>
       <c r="D81" t="n">
-        <v>0.295653</v>
+        <v>0.292574</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.577122</v>
+        <v>0.575512</v>
       </c>
       <c r="C82" t="n">
-        <v>0.416023</v>
+        <v>0.384924</v>
       </c>
       <c r="D82" t="n">
-        <v>0.299128</v>
+        <v>0.304233</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.614885</v>
+        <v>0.619027</v>
       </c>
       <c r="C83" t="n">
-        <v>0.433509</v>
+        <v>0.405715</v>
       </c>
       <c r="D83" t="n">
-        <v>0.308663</v>
+        <v>0.317051</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6604139999999999</v>
+        <v>0.667863</v>
       </c>
       <c r="C84" t="n">
-        <v>0.458265</v>
+        <v>0.431804</v>
       </c>
       <c r="D84" t="n">
-        <v>0.323925</v>
+        <v>0.322146</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.694397</v>
+        <v>0.68857</v>
       </c>
       <c r="C85" t="n">
-        <v>0.481968</v>
+        <v>0.440417</v>
       </c>
       <c r="D85" t="n">
-        <v>0.334111</v>
+        <v>0.330952</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.733132</v>
+        <v>0.740721</v>
       </c>
       <c r="C86" t="n">
-        <v>0.500957</v>
+        <v>0.468209</v>
       </c>
       <c r="D86" t="n">
-        <v>0.344188</v>
+        <v>0.3443</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.769339</v>
+        <v>0.775784</v>
       </c>
       <c r="C87" t="n">
-        <v>0.528301</v>
+        <v>0.493001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.356756</v>
+        <v>0.360777</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.815554</v>
+        <v>0.819527</v>
       </c>
       <c r="C88" t="n">
-        <v>0.555633</v>
+        <v>0.516906</v>
       </c>
       <c r="D88" t="n">
-        <v>0.369248</v>
+        <v>0.36938</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.867492</v>
+        <v>0.869808</v>
       </c>
       <c r="C89" t="n">
-        <v>0.59207</v>
+        <v>0.54939</v>
       </c>
       <c r="D89" t="n">
-        <v>0.384165</v>
+        <v>0.392683</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.872883</v>
+        <v>0.881227</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6270289999999999</v>
+        <v>0.579209</v>
       </c>
       <c r="D90" t="n">
-        <v>0.404951</v>
+        <v>0.403905</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.903919</v>
+        <v>0.9146919999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.676701</v>
+        <v>0.613522</v>
       </c>
       <c r="D91" t="n">
-        <v>0.436907</v>
+        <v>0.428462</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.93594</v>
+        <v>0.949209</v>
       </c>
       <c r="C92" t="n">
-        <v>0.692257</v>
+        <v>0.626214</v>
       </c>
       <c r="D92" t="n">
-        <v>0.501489</v>
+        <v>0.507317</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.968634</v>
+        <v>0.980093</v>
       </c>
       <c r="C93" t="n">
-        <v>0.722534</v>
+        <v>0.6493679999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519244</v>
+        <v>0.522877</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00359</v>
+        <v>1.01668</v>
       </c>
       <c r="C94" t="n">
-        <v>0.759162</v>
+        <v>0.677549</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5396069999999999</v>
+        <v>0.5432</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0399</v>
+        <v>1.05255</v>
       </c>
       <c r="C95" t="n">
-        <v>0.789044</v>
+        <v>0.703557</v>
       </c>
       <c r="D95" t="n">
-        <v>0.558593</v>
+        <v>0.559895</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07391</v>
+        <v>1.08883</v>
       </c>
       <c r="C96" t="n">
-        <v>0.823899</v>
+        <v>0.732098</v>
       </c>
       <c r="D96" t="n">
-        <v>0.577018</v>
+        <v>0.578484</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11114</v>
+        <v>1.12451</v>
       </c>
       <c r="C97" t="n">
-        <v>0.860515</v>
+        <v>0.762848</v>
       </c>
       <c r="D97" t="n">
-        <v>0.596195</v>
+        <v>0.601221</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.14634</v>
+        <v>1.16206</v>
       </c>
       <c r="C98" t="n">
-        <v>0.896836</v>
+        <v>0.791169</v>
       </c>
       <c r="D98" t="n">
-        <v>0.616914</v>
+        <v>0.62414</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17943</v>
+        <v>1.19806</v>
       </c>
       <c r="C99" t="n">
-        <v>0.937712</v>
+        <v>0.8263</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6389629999999999</v>
+        <v>0.642893</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21777</v>
+        <v>1.23651</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9782110000000001</v>
+        <v>0.855526</v>
       </c>
       <c r="D100" t="n">
-        <v>0.655057</v>
+        <v>0.66332</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.25478</v>
+        <v>1.27419</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0157</v>
+        <v>0.882342</v>
       </c>
       <c r="D101" t="n">
-        <v>0.676988</v>
+        <v>0.683241</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.29132</v>
+        <v>1.30687</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05914</v>
+        <v>0.916174</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6994860000000001</v>
+        <v>0.707112</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.32729</v>
+        <v>1.34453</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09667</v>
+        <v>0.94394</v>
       </c>
       <c r="D103" t="n">
-        <v>0.718542</v>
+        <v>0.723245</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.36724</v>
+        <v>1.38402</v>
       </c>
       <c r="C104" t="n">
-        <v>1.13532</v>
+        <v>0.974196</v>
       </c>
       <c r="D104" t="n">
-        <v>0.738448</v>
+        <v>0.745501</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.25395</v>
+        <v>1.27591</v>
       </c>
       <c r="C105" t="n">
-        <v>1.18122</v>
+        <v>1.01265</v>
       </c>
       <c r="D105" t="n">
-        <v>0.760647</v>
+        <v>0.763803</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.27694</v>
+        <v>1.29595</v>
       </c>
       <c r="C106" t="n">
-        <v>1.22322</v>
+        <v>1.04423</v>
       </c>
       <c r="D106" t="n">
-        <v>0.78011</v>
+        <v>0.790598</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.30238</v>
+        <v>1.32102</v>
       </c>
       <c r="C107" t="n">
-        <v>1.12964</v>
+        <v>0.937943</v>
       </c>
       <c r="D107" t="n">
-        <v>0.788131</v>
+        <v>0.799378</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.32496</v>
+        <v>1.3465</v>
       </c>
       <c r="C108" t="n">
-        <v>1.15715</v>
+        <v>0.958595</v>
       </c>
       <c r="D108" t="n">
-        <v>0.807257</v>
+        <v>0.815866</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.34856</v>
+        <v>1.36804</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18835</v>
+        <v>0.98205</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8175480000000001</v>
+        <v>0.832255</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.37187</v>
+        <v>1.39262</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21532</v>
+        <v>1.00367</v>
       </c>
       <c r="D110" t="n">
-        <v>0.835911</v>
+        <v>0.847091</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.39743</v>
+        <v>1.42031</v>
       </c>
       <c r="C111" t="n">
-        <v>1.244</v>
+        <v>1.01858</v>
       </c>
       <c r="D111" t="n">
-        <v>0.848101</v>
+        <v>0.8625159999999999</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.4231</v>
+        <v>1.44717</v>
       </c>
       <c r="C112" t="n">
-        <v>1.27806</v>
+        <v>1.05023</v>
       </c>
       <c r="D112" t="n">
-        <v>0.865478</v>
+        <v>0.878831</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45302</v>
+        <v>1.47634</v>
       </c>
       <c r="C113" t="n">
-        <v>1.313</v>
+        <v>1.07467</v>
       </c>
       <c r="D113" t="n">
-        <v>0.882216</v>
+        <v>0.898352</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.48317</v>
+        <v>1.50791</v>
       </c>
       <c r="C114" t="n">
-        <v>1.34405</v>
+        <v>1.10179</v>
       </c>
       <c r="D114" t="n">
-        <v>0.894147</v>
+        <v>0.906431</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.51152</v>
+        <v>1.53328</v>
       </c>
       <c r="C115" t="n">
-        <v>1.37955</v>
+        <v>1.12718</v>
       </c>
       <c r="D115" t="n">
-        <v>0.908156</v>
+        <v>0.918524</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.54375</v>
+        <v>1.56571</v>
       </c>
       <c r="C116" t="n">
-        <v>1.41196</v>
+        <v>1.15436</v>
       </c>
       <c r="D116" t="n">
-        <v>0.921139</v>
+        <v>0.936416</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.57528</v>
+        <v>1.59777</v>
       </c>
       <c r="C117" t="n">
-        <v>1.44635</v>
+        <v>1.18052</v>
       </c>
       <c r="D117" t="n">
-        <v>0.935715</v>
+        <v>0.9528720000000001</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.60867</v>
+        <v>1.63325</v>
       </c>
       <c r="C118" t="n">
-        <v>1.48658</v>
+        <v>1.21655</v>
       </c>
       <c r="D118" t="n">
-        <v>0.955021</v>
+        <v>0.969158</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.43335</v>
+        <v>1.45711</v>
       </c>
       <c r="C119" t="n">
-        <v>1.52201</v>
+        <v>1.24659</v>
       </c>
       <c r="D119" t="n">
-        <v>0.970018</v>
+        <v>0.984936</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392312</v>
+        <v>0.391736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.326206</v>
+        <v>0.285807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217658</v>
+        <v>0.219064</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402132</v>
+        <v>0.400832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.333224</v>
+        <v>0.290222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219784</v>
+        <v>0.220703</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.415338</v>
+        <v>0.414621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.346469</v>
+        <v>0.303751</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229708</v>
+        <v>0.229905</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420222</v>
+        <v>0.418334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.357447</v>
+        <v>0.311771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234829</v>
+        <v>0.235433</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.439854</v>
+        <v>0.437773</v>
       </c>
       <c r="C6" t="n">
-        <v>0.360541</v>
+        <v>0.312135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238506</v>
+        <v>0.239062</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.450981</v>
+        <v>0.44597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.378523</v>
+        <v>0.334659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.245109</v>
+        <v>0.246851</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.466126</v>
+        <v>0.463478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.390843</v>
+        <v>0.356805</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257152</v>
+        <v>0.254276</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.485091</v>
+        <v>0.488673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.410517</v>
+        <v>0.368694</v>
       </c>
       <c r="D9" t="n">
-        <v>0.264464</v>
+        <v>0.265587</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.499666</v>
+        <v>0.502848</v>
       </c>
       <c r="C10" t="n">
-        <v>0.428455</v>
+        <v>0.383712</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274738</v>
+        <v>0.274844</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.519137</v>
+        <v>0.516445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.338828</v>
+        <v>0.299101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22018</v>
+        <v>0.220961</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.38981</v>
+        <v>0.390153</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343011</v>
+        <v>0.303176</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222339</v>
+        <v>0.223299</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398383</v>
+        <v>0.403627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.351063</v>
+        <v>0.315015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232208</v>
+        <v>0.231892</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.411584</v>
+        <v>0.416393</v>
       </c>
       <c r="C14" t="n">
-        <v>0.370158</v>
+        <v>0.326071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233787</v>
+        <v>0.236568</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.433385</v>
+        <v>0.432205</v>
       </c>
       <c r="C15" t="n">
-        <v>0.380199</v>
+        <v>0.344457</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239489</v>
+        <v>0.239918</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.444901</v>
+        <v>0.44453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.398925</v>
+        <v>0.354824</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248434</v>
+        <v>0.248999</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.453656</v>
+        <v>0.452247</v>
       </c>
       <c r="C17" t="n">
-        <v>0.411627</v>
+        <v>0.372062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.253298</v>
+        <v>0.252532</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.476741</v>
+        <v>0.473099</v>
       </c>
       <c r="C18" t="n">
-        <v>0.419364</v>
+        <v>0.377399</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254111</v>
+        <v>0.254158</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.486297</v>
+        <v>0.481962</v>
       </c>
       <c r="C19" t="n">
-        <v>0.442869</v>
+        <v>0.397549</v>
       </c>
       <c r="D19" t="n">
-        <v>0.264919</v>
+        <v>0.265231</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.504653</v>
+        <v>0.5008629999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.468396</v>
+        <v>0.416324</v>
       </c>
       <c r="D20" t="n">
-        <v>0.275759</v>
+        <v>0.275482</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.523122</v>
+        <v>0.5179510000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.484511</v>
+        <v>0.43534</v>
       </c>
       <c r="D21" t="n">
-        <v>0.288957</v>
+        <v>0.286942</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.54445</v>
+        <v>0.539529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.513137</v>
+        <v>0.46138</v>
       </c>
       <c r="D22" t="n">
-        <v>0.295953</v>
+        <v>0.29825</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.562485</v>
+        <v>0.555924</v>
       </c>
       <c r="C23" t="n">
-        <v>0.532929</v>
+        <v>0.481645</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312988</v>
+        <v>0.310918</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.600843</v>
+        <v>0.594312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.554233</v>
+        <v>0.493753</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322847</v>
+        <v>0.321074</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.634898</v>
+        <v>0.626223</v>
       </c>
       <c r="C25" t="n">
-        <v>0.57974</v>
+        <v>0.521739</v>
       </c>
       <c r="D25" t="n">
-        <v>0.333306</v>
+        <v>0.325738</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.661185</v>
+        <v>0.652106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.381288</v>
+        <v>0.333086</v>
       </c>
       <c r="D26" t="n">
-        <v>0.239278</v>
+        <v>0.235964</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.434636</v>
+        <v>0.428379</v>
       </c>
       <c r="C27" t="n">
-        <v>0.384927</v>
+        <v>0.337058</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241213</v>
+        <v>0.237471</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.452357</v>
+        <v>0.444781</v>
       </c>
       <c r="C28" t="n">
-        <v>0.397344</v>
+        <v>0.351682</v>
       </c>
       <c r="D28" t="n">
-        <v>0.24977</v>
+        <v>0.244826</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4658</v>
+        <v>0.458747</v>
       </c>
       <c r="C29" t="n">
-        <v>0.407763</v>
+        <v>0.359607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.254056</v>
+        <v>0.252674</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.484007</v>
+        <v>0.47719</v>
       </c>
       <c r="C30" t="n">
-        <v>0.425957</v>
+        <v>0.379973</v>
       </c>
       <c r="D30" t="n">
-        <v>0.260372</v>
+        <v>0.258456</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.499761</v>
+        <v>0.492889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.441677</v>
+        <v>0.398927</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26938</v>
+        <v>0.267108</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5170670000000001</v>
+        <v>0.510467</v>
       </c>
       <c r="C32" t="n">
-        <v>0.459473</v>
+        <v>0.410371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.275788</v>
+        <v>0.27025</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.543637</v>
+        <v>0.537195</v>
       </c>
       <c r="C33" t="n">
-        <v>0.476436</v>
+        <v>0.430097</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283482</v>
+        <v>0.281693</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558016</v>
+        <v>0.554382</v>
       </c>
       <c r="C34" t="n">
-        <v>0.496375</v>
+        <v>0.446777</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292897</v>
+        <v>0.289128</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.582896</v>
+        <v>0.578027</v>
       </c>
       <c r="C35" t="n">
-        <v>0.518061</v>
+        <v>0.465351</v>
       </c>
       <c r="D35" t="n">
-        <v>0.305484</v>
+        <v>0.301228</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.60176</v>
+        <v>0.596318</v>
       </c>
       <c r="C36" t="n">
-        <v>0.541841</v>
+        <v>0.491742</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313553</v>
+        <v>0.312346</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.617205</v>
+        <v>0.611873</v>
       </c>
       <c r="C37" t="n">
-        <v>0.565298</v>
+        <v>0.511972</v>
       </c>
       <c r="D37" t="n">
-        <v>0.32438</v>
+        <v>0.321153</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.644415</v>
+        <v>0.637063</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5898330000000001</v>
+        <v>0.530624</v>
       </c>
       <c r="D38" t="n">
-        <v>0.332845</v>
+        <v>0.333372</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.676403</v>
+        <v>0.670427</v>
       </c>
       <c r="C39" t="n">
-        <v>0.617274</v>
+        <v>0.561926</v>
       </c>
       <c r="D39" t="n">
-        <v>0.346554</v>
+        <v>0.343622</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.698148</v>
+        <v>0.694279</v>
       </c>
       <c r="C40" t="n">
-        <v>0.443947</v>
+        <v>0.396647</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280801</v>
+        <v>0.280169</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.504441</v>
+        <v>0.503046</v>
       </c>
       <c r="C41" t="n">
-        <v>0.455093</v>
+        <v>0.407722</v>
       </c>
       <c r="D41" t="n">
-        <v>0.287379</v>
+        <v>0.28651</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.516775</v>
+        <v>0.516001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.473285</v>
+        <v>0.42354</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293832</v>
+        <v>0.292979</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.529823</v>
+        <v>0.528878</v>
       </c>
       <c r="C43" t="n">
-        <v>0.485687</v>
+        <v>0.435386</v>
       </c>
       <c r="D43" t="n">
-        <v>0.301181</v>
+        <v>0.299666</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.545971</v>
+        <v>0.5448</v>
       </c>
       <c r="C44" t="n">
-        <v>0.508057</v>
+        <v>0.457939</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310305</v>
+        <v>0.309199</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.563094</v>
+        <v>0.562605</v>
       </c>
       <c r="C45" t="n">
-        <v>0.521015</v>
+        <v>0.469593</v>
       </c>
       <c r="D45" t="n">
-        <v>0.31517</v>
+        <v>0.313939</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5749919999999999</v>
+        <v>0.574423</v>
       </c>
       <c r="C46" t="n">
-        <v>0.541951</v>
+        <v>0.485473</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322367</v>
+        <v>0.322247</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.597312</v>
+        <v>0.597009</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5581469999999999</v>
+        <v>0.505313</v>
       </c>
       <c r="D47" t="n">
-        <v>0.331746</v>
+        <v>0.331422</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6148749999999999</v>
+        <v>0.613001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.573341</v>
+        <v>0.517714</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342184</v>
+        <v>0.342506</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.627129</v>
+        <v>0.6250830000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.595511</v>
+        <v>0.538539</v>
       </c>
       <c r="D49" t="n">
-        <v>0.34826</v>
+        <v>0.346693</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.655217</v>
+        <v>0.654712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.616053</v>
+        <v>0.556184</v>
       </c>
       <c r="D50" t="n">
-        <v>0.357136</v>
+        <v>0.358744</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.679924</v>
+        <v>0.679974</v>
       </c>
       <c r="C51" t="n">
-        <v>0.640508</v>
+        <v>0.580993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370778</v>
+        <v>0.370131</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.706809</v>
+        <v>0.7062850000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.667083</v>
+        <v>0.60085</v>
       </c>
       <c r="D52" t="n">
-        <v>0.380234</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.732471</v>
+        <v>0.729434</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6902740000000001</v>
+        <v>0.624625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.393718</v>
+        <v>0.391846</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.759287</v>
+        <v>0.758065</v>
       </c>
       <c r="C54" t="n">
-        <v>0.500771</v>
+        <v>0.444693</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313491</v>
+        <v>0.312793</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.790469</v>
+        <v>0.784975</v>
       </c>
       <c r="C55" t="n">
-        <v>0.509816</v>
+        <v>0.454487</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319366</v>
+        <v>0.318622</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.537774</v>
+        <v>0.537803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.525437</v>
+        <v>0.469024</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325578</v>
+        <v>0.324689</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.551691</v>
+        <v>0.552019</v>
       </c>
       <c r="C57" t="n">
-        <v>0.53957</v>
+        <v>0.483177</v>
       </c>
       <c r="D57" t="n">
-        <v>0.33057</v>
+        <v>0.332211</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567766</v>
+        <v>0.567387</v>
       </c>
       <c r="C58" t="n">
-        <v>0.553665</v>
+        <v>0.49508</v>
       </c>
       <c r="D58" t="n">
-        <v>0.337592</v>
+        <v>0.336882</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.581997</v>
+        <v>0.582027</v>
       </c>
       <c r="C59" t="n">
-        <v>0.569425</v>
+        <v>0.511223</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346516</v>
+        <v>0.346261</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.59077</v>
+        <v>0.59049</v>
       </c>
       <c r="C60" t="n">
-        <v>0.586631</v>
+        <v>0.526349</v>
       </c>
       <c r="D60" t="n">
-        <v>0.35154</v>
+        <v>0.351826</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.61066</v>
+        <v>0.6106200000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.603143</v>
+        <v>0.542232</v>
       </c>
       <c r="D61" t="n">
-        <v>0.359735</v>
+        <v>0.359453</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.631159</v>
+        <v>0.63081</v>
       </c>
       <c r="C62" t="n">
-        <v>0.619798</v>
+        <v>0.558159</v>
       </c>
       <c r="D62" t="n">
-        <v>0.365903</v>
+        <v>0.367305</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.651357</v>
+        <v>0.648935</v>
       </c>
       <c r="C63" t="n">
-        <v>0.643497</v>
+        <v>0.576784</v>
       </c>
       <c r="D63" t="n">
-        <v>0.376321</v>
+        <v>0.375445</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6734290000000001</v>
+        <v>0.670017</v>
       </c>
       <c r="C64" t="n">
-        <v>0.65946</v>
+        <v>0.59459</v>
       </c>
       <c r="D64" t="n">
-        <v>0.385837</v>
+        <v>0.386407</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.702283</v>
+        <v>0.69881</v>
       </c>
       <c r="C65" t="n">
-        <v>0.688035</v>
+        <v>0.618691</v>
       </c>
       <c r="D65" t="n">
-        <v>0.396454</v>
+        <v>0.39697</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.72641</v>
+        <v>0.723515</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7062</v>
+        <v>0.633244</v>
       </c>
       <c r="D66" t="n">
-        <v>0.403843</v>
+        <v>0.406391</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7563530000000001</v>
+        <v>0.7536580000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7349830000000001</v>
+        <v>0.659087</v>
       </c>
       <c r="D67" t="n">
-        <v>0.418388</v>
+        <v>0.419959</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.775796</v>
+        <v>0.778231</v>
       </c>
       <c r="C68" t="n">
-        <v>0.495227</v>
+        <v>0.43862</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314646</v>
+        <v>0.31271</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.82042</v>
+        <v>0.82297</v>
       </c>
       <c r="C69" t="n">
-        <v>0.514346</v>
+        <v>0.454524</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320057</v>
+        <v>0.319069</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.558608</v>
+        <v>0.555962</v>
       </c>
       <c r="C70" t="n">
-        <v>0.536124</v>
+        <v>0.474073</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330407</v>
+        <v>0.328134</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.581109</v>
+        <v>0.575387</v>
       </c>
       <c r="C71" t="n">
-        <v>0.556914</v>
+        <v>0.494461</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337482</v>
+        <v>0.335129</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.609739</v>
+        <v>0.607145</v>
       </c>
       <c r="C72" t="n">
-        <v>0.579475</v>
+        <v>0.514405</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346067</v>
+        <v>0.343903</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.634848</v>
+        <v>0.630626</v>
       </c>
       <c r="C73" t="n">
-        <v>0.604415</v>
+        <v>0.539668</v>
       </c>
       <c r="D73" t="n">
-        <v>0.355435</v>
+        <v>0.3541</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.660318</v>
+        <v>0.6594449999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.628315</v>
+        <v>0.563002</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365995</v>
+        <v>0.364352</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.690401</v>
+        <v>0.69251</v>
       </c>
       <c r="C75" t="n">
-        <v>0.660408</v>
+        <v>0.59461</v>
       </c>
       <c r="D75" t="n">
-        <v>0.376551</v>
+        <v>0.373675</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.727483</v>
+        <v>0.728106</v>
       </c>
       <c r="C76" t="n">
-        <v>0.691551</v>
+        <v>0.624577</v>
       </c>
       <c r="D76" t="n">
-        <v>0.387607</v>
+        <v>0.384805</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.760417</v>
+        <v>0.774321</v>
       </c>
       <c r="C77" t="n">
-        <v>0.726819</v>
+        <v>0.664041</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398555</v>
+        <v>0.398692</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.803747</v>
+        <v>0.821014</v>
       </c>
       <c r="C78" t="n">
-        <v>0.763256</v>
+        <v>0.702624</v>
       </c>
       <c r="D78" t="n">
-        <v>0.412801</v>
+        <v>0.410795</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.847102</v>
+        <v>0.872333</v>
       </c>
       <c r="C79" t="n">
-        <v>0.802487</v>
+        <v>0.743865</v>
       </c>
       <c r="D79" t="n">
-        <v>0.42474</v>
+        <v>0.426884</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9096109999999999</v>
+        <v>0.930166</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8581220000000001</v>
+        <v>0.798275</v>
       </c>
       <c r="D80" t="n">
-        <v>0.438081</v>
+        <v>0.441337</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.982371</v>
+        <v>0.98954</v>
       </c>
       <c r="C81" t="n">
-        <v>0.923126</v>
+        <v>0.847996</v>
       </c>
       <c r="D81" t="n">
-        <v>0.45956</v>
+        <v>0.462983</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05491</v>
+        <v>1.06106</v>
       </c>
       <c r="C82" t="n">
-        <v>0.990612</v>
+        <v>0.910062</v>
       </c>
       <c r="D82" t="n">
-        <v>0.474358</v>
+        <v>0.473399</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14742</v>
+        <v>1.14642</v>
       </c>
       <c r="C83" t="n">
-        <v>0.716096</v>
+        <v>0.651882</v>
       </c>
       <c r="D83" t="n">
-        <v>0.38357</v>
+        <v>0.383272</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25238</v>
+        <v>1.24693</v>
       </c>
       <c r="C84" t="n">
-        <v>0.76741</v>
+        <v>0.700498</v>
       </c>
       <c r="D84" t="n">
-        <v>0.396042</v>
+        <v>0.397069</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.886236</v>
+        <v>0.87265</v>
       </c>
       <c r="C85" t="n">
-        <v>0.82059</v>
+        <v>0.754104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.407423</v>
+        <v>0.413974</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9549840000000001</v>
+        <v>0.947119</v>
       </c>
       <c r="C86" t="n">
-        <v>0.895553</v>
+        <v>0.81932</v>
       </c>
       <c r="D86" t="n">
-        <v>0.430103</v>
+        <v>0.431385</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02718</v>
+        <v>1.02365</v>
       </c>
       <c r="C87" t="n">
-        <v>0.969278</v>
+        <v>0.895782</v>
       </c>
       <c r="D87" t="n">
-        <v>0.458379</v>
+        <v>0.457037</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10892</v>
+        <v>1.11092</v>
       </c>
       <c r="C88" t="n">
-        <v>1.06611</v>
+        <v>0.988092</v>
       </c>
       <c r="D88" t="n">
-        <v>0.477857</v>
+        <v>0.478017</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.20086</v>
+        <v>1.20575</v>
       </c>
       <c r="C89" t="n">
-        <v>1.15922</v>
+        <v>1.0766</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506154</v>
+        <v>0.511031</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.30453</v>
+        <v>1.31181</v>
       </c>
       <c r="C90" t="n">
-        <v>1.26365</v>
+        <v>1.17972</v>
       </c>
       <c r="D90" t="n">
-        <v>0.535844</v>
+        <v>0.5419119999999999</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.42377</v>
+        <v>1.42552</v>
       </c>
       <c r="C91" t="n">
-        <v>1.38765</v>
+        <v>1.28825</v>
       </c>
       <c r="D91" t="n">
-        <v>0.589164</v>
+        <v>0.573464</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54121</v>
+        <v>1.54237</v>
       </c>
       <c r="C92" t="n">
-        <v>1.52134</v>
+        <v>1.404</v>
       </c>
       <c r="D92" t="n">
-        <v>0.613577</v>
+        <v>0.623611</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.67367</v>
+        <v>1.67672</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65354</v>
+        <v>1.53069</v>
       </c>
       <c r="D93" t="n">
-        <v>0.665093</v>
+        <v>0.672507</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.80839</v>
+        <v>1.81445</v>
       </c>
       <c r="C94" t="n">
-        <v>1.80303</v>
+        <v>1.66491</v>
       </c>
       <c r="D94" t="n">
-        <v>0.728898</v>
+        <v>0.724799</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.95405</v>
+        <v>1.95028</v>
       </c>
       <c r="C95" t="n">
-        <v>1.95634</v>
+        <v>1.79747</v>
       </c>
       <c r="D95" t="n">
-        <v>0.774795</v>
+        <v>0.774928</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.11865</v>
+        <v>2.11124</v>
       </c>
       <c r="C96" t="n">
-        <v>2.14251</v>
+        <v>1.96319</v>
       </c>
       <c r="D96" t="n">
-        <v>0.844693</v>
+        <v>0.834764</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.29055</v>
+        <v>2.28752</v>
       </c>
       <c r="C97" t="n">
-        <v>1.33288</v>
+        <v>1.23281</v>
       </c>
       <c r="D97" t="n">
-        <v>0.631576</v>
+        <v>0.629793</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.457</v>
+        <v>2.44855</v>
       </c>
       <c r="C98" t="n">
-        <v>1.42902</v>
+        <v>1.31603</v>
       </c>
       <c r="D98" t="n">
-        <v>0.669844</v>
+        <v>0.670779</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.69871</v>
+        <v>1.70332</v>
       </c>
       <c r="C99" t="n">
-        <v>1.52086</v>
+        <v>1.39841</v>
       </c>
       <c r="D99" t="n">
-        <v>0.716977</v>
+        <v>0.712968</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.78904</v>
+        <v>1.7993</v>
       </c>
       <c r="C100" t="n">
-        <v>1.62682</v>
+        <v>1.49039</v>
       </c>
       <c r="D100" t="n">
-        <v>0.75379</v>
+        <v>0.752122</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.88533</v>
+        <v>1.89104</v>
       </c>
       <c r="C101" t="n">
-        <v>1.73349</v>
+        <v>1.59205</v>
       </c>
       <c r="D101" t="n">
-        <v>0.793508</v>
+        <v>0.802117</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.99036</v>
+        <v>1.99802</v>
       </c>
       <c r="C102" t="n">
-        <v>1.84403</v>
+        <v>1.69091</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8408600000000001</v>
+        <v>0.84394</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.08948</v>
+        <v>2.09762</v>
       </c>
       <c r="C103" t="n">
-        <v>1.96339</v>
+        <v>1.79212</v>
       </c>
       <c r="D103" t="n">
-        <v>0.879643</v>
+        <v>0.888982</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.20671</v>
+        <v>2.21051</v>
       </c>
       <c r="C104" t="n">
-        <v>2.09101</v>
+        <v>1.90782</v>
       </c>
       <c r="D104" t="n">
-        <v>0.924805</v>
+        <v>0.938554</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.31101</v>
+        <v>2.31393</v>
       </c>
       <c r="C105" t="n">
-        <v>2.2247</v>
+        <v>2.02653</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00096</v>
+        <v>1.00375</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.43861</v>
+        <v>2.4438</v>
       </c>
       <c r="C106" t="n">
-        <v>2.35436</v>
+        <v>2.14342</v>
       </c>
       <c r="D106" t="n">
-        <v>1.04354</v>
+        <v>1.04256</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.56241</v>
+        <v>2.56542</v>
       </c>
       <c r="C107" t="n">
-        <v>2.49087</v>
+        <v>2.26959</v>
       </c>
       <c r="D107" t="n">
-        <v>1.09918</v>
+        <v>1.10274</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.70159</v>
+        <v>2.70029</v>
       </c>
       <c r="C108" t="n">
-        <v>2.64378</v>
+        <v>2.41324</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1552</v>
+        <v>1.16632</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.83928</v>
+        <v>2.83738</v>
       </c>
       <c r="C109" t="n">
-        <v>2.79145</v>
+        <v>2.5682</v>
       </c>
       <c r="D109" t="n">
-        <v>1.22516</v>
+        <v>1.22576</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.98588</v>
+        <v>3.00595</v>
       </c>
       <c r="C110" t="n">
-        <v>2.9326</v>
+        <v>2.69659</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26816</v>
+        <v>1.28936</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.15145</v>
+        <v>3.15315</v>
       </c>
       <c r="C111" t="n">
-        <v>1.95939</v>
+        <v>1.75214</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01713</v>
+        <v>1.02738</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.32676</v>
+        <v>3.34802</v>
       </c>
       <c r="C112" t="n">
-        <v>2.05428</v>
+        <v>1.84247</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04548</v>
+        <v>1.06893</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.47316</v>
+        <v>3.48918</v>
       </c>
       <c r="C113" t="n">
-        <v>2.1466</v>
+        <v>1.93401</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09267</v>
+        <v>1.09655</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.33481</v>
+        <v>2.35381</v>
       </c>
       <c r="C114" t="n">
-        <v>2.23412</v>
+        <v>2.02381</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12623</v>
+        <v>1.13489</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.42498</v>
+        <v>2.44168</v>
       </c>
       <c r="C115" t="n">
-        <v>2.32203</v>
+        <v>2.1155</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18298</v>
+        <v>1.19211</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.52317</v>
+        <v>2.54728</v>
       </c>
       <c r="C116" t="n">
-        <v>2.41803</v>
+        <v>2.20848</v>
       </c>
       <c r="D116" t="n">
-        <v>1.22022</v>
+        <v>1.21762</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.633</v>
+        <v>2.65111</v>
       </c>
       <c r="C117" t="n">
-        <v>2.52104</v>
+        <v>2.31841</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25198</v>
+        <v>1.27761</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.73234</v>
+        <v>2.7519</v>
       </c>
       <c r="C118" t="n">
-        <v>2.643</v>
+        <v>2.42786</v>
       </c>
       <c r="D118" t="n">
-        <v>1.30638</v>
+        <v>1.3113</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.84274</v>
+        <v>2.86808</v>
       </c>
       <c r="C119" t="n">
-        <v>2.76511</v>
+        <v>2.53654</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35734</v>
+        <v>1.36808</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251005</v>
+        <v>0.247987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190801</v>
+        <v>0.189487</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19898</v>
+        <v>0.197467</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.203484</v>
+        <v>0.196569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190583</v>
+        <v>0.189638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19848</v>
+        <v>0.198984</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.203624</v>
+        <v>0.200264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196613</v>
+        <v>0.195353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204635</v>
+        <v>0.204729</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210489</v>
+        <v>0.206296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201793</v>
+        <v>0.201524</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21028</v>
+        <v>0.210157</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.215997</v>
+        <v>0.212975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.204097</v>
+        <v>0.204007</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214989</v>
+        <v>0.215306</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219354</v>
+        <v>0.217308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.171407</v>
+        <v>0.169551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182734</v>
+        <v>0.180913</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22529</v>
+        <v>0.222895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.174365</v>
+        <v>0.172872</v>
       </c>
       <c r="D8" t="n">
-        <v>0.189394</v>
+        <v>0.186517</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.231213</v>
+        <v>0.22872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.179032</v>
+        <v>0.17676</v>
       </c>
       <c r="D9" t="n">
-        <v>0.190266</v>
+        <v>0.190487</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236464</v>
+        <v>0.234046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18192</v>
+        <v>0.181367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.195525</v>
+        <v>0.193028</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.241499</v>
+        <v>0.239921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.185204</v>
+        <v>0.183767</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198528</v>
+        <v>0.19731</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.248824</v>
+        <v>0.247728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190895</v>
+        <v>0.190769</v>
       </c>
       <c r="D12" t="n">
-        <v>0.204389</v>
+        <v>0.203462</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.253528</v>
+        <v>0.252985</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193994</v>
+        <v>0.194768</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208004</v>
+        <v>0.207683</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258789</v>
+        <v>0.258214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197947</v>
+        <v>0.198879</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212708</v>
+        <v>0.211743</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265423</v>
+        <v>0.26549</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203715</v>
+        <v>0.204433</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217299</v>
+        <v>0.217546</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26915</v>
+        <v>0.269634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.207135</v>
+        <v>0.20756</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221974</v>
+        <v>0.220431</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276558</v>
+        <v>0.276541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212178</v>
+        <v>0.212523</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227897</v>
+        <v>0.226065</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23057</v>
+        <v>0.230907</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215332</v>
+        <v>0.216232</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229963</v>
+        <v>0.228827</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235</v>
+        <v>0.235134</v>
       </c>
       <c r="C19" t="n">
-        <v>0.219322</v>
+        <v>0.220291</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234423</v>
+        <v>0.234199</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239575</v>
+        <v>0.239287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.223804</v>
+        <v>0.225484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239415</v>
+        <v>0.24041</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243907</v>
+        <v>0.2437</v>
       </c>
       <c r="C21" t="n">
-        <v>0.189557</v>
+        <v>0.189652</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203438</v>
+        <v>0.203504</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248567</v>
+        <v>0.248462</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193026</v>
+        <v>0.193257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207763</v>
+        <v>0.207716</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.252691</v>
+        <v>0.25261</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196261</v>
+        <v>0.196278</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210989</v>
+        <v>0.21104</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257615</v>
+        <v>0.257597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.199305</v>
+        <v>0.199288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214852</v>
+        <v>0.214668</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262275</v>
+        <v>0.262443</v>
       </c>
       <c r="C25" t="n">
-        <v>0.202542</v>
+        <v>0.20289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218449</v>
+        <v>0.218334</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268684</v>
+        <v>0.268723</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207362</v>
+        <v>0.207111</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223105</v>
+        <v>0.223162</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273666</v>
+        <v>0.273722</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21075</v>
+        <v>0.210915</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226256</v>
+        <v>0.226967</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278695</v>
+        <v>0.278838</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2155</v>
+        <v>0.215917</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231123</v>
+        <v>0.231222</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283558</v>
+        <v>0.283798</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220463</v>
+        <v>0.220633</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236335</v>
+        <v>0.236434</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289075</v>
+        <v>0.289302</v>
       </c>
       <c r="C30" t="n">
-        <v>0.224512</v>
+        <v>0.224717</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24051</v>
+        <v>0.240691</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294318</v>
+        <v>0.29454</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229173</v>
+        <v>0.229308</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244649</v>
+        <v>0.244718</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.242462</v>
+        <v>0.24244</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23314</v>
+        <v>0.233152</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248475</v>
+        <v>0.248529</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.246054</v>
+        <v>0.2462</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237681</v>
+        <v>0.237909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253715</v>
+        <v>0.253554</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249111</v>
+        <v>0.249428</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241189</v>
+        <v>0.241647</v>
       </c>
       <c r="D34" t="n">
-        <v>0.257476</v>
+        <v>0.257651</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252791</v>
+        <v>0.253198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197968</v>
+        <v>0.198294</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209756</v>
+        <v>0.208959</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256794</v>
+        <v>0.257093</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200391</v>
+        <v>0.200639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212717</v>
+        <v>0.212047</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.260802</v>
+        <v>0.261154</v>
       </c>
       <c r="C37" t="n">
-        <v>0.203353</v>
+        <v>0.203532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216228</v>
+        <v>0.215414</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265148</v>
+        <v>0.265282</v>
       </c>
       <c r="C38" t="n">
-        <v>0.207056</v>
+        <v>0.206966</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220038</v>
+        <v>0.219503</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.26957</v>
+        <v>0.26981</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210747</v>
+        <v>0.210922</v>
       </c>
       <c r="D39" t="n">
-        <v>0.224111</v>
+        <v>0.223509</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274567</v>
+        <v>0.274709</v>
       </c>
       <c r="C40" t="n">
-        <v>0.214631</v>
+        <v>0.214656</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228372</v>
+        <v>0.227664</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.279128</v>
+        <v>0.27947</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21857</v>
+        <v>0.218801</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232374</v>
+        <v>0.231958</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284302</v>
+        <v>0.28449</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222276</v>
+        <v>0.222545</v>
       </c>
       <c r="D42" t="n">
-        <v>0.235983</v>
+        <v>0.236059</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289636</v>
+        <v>0.289844</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226828</v>
+        <v>0.227063</v>
       </c>
       <c r="D43" t="n">
-        <v>0.240482</v>
+        <v>0.24084</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.294896</v>
+        <v>0.295103</v>
       </c>
       <c r="C44" t="n">
-        <v>0.231616</v>
+        <v>0.231611</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245443</v>
+        <v>0.244521</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.299961</v>
+        <v>0.300124</v>
       </c>
       <c r="C45" t="n">
-        <v>0.23607</v>
+        <v>0.236079</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249436</v>
+        <v>0.248668</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304633</v>
+        <v>0.30469</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239987</v>
+        <v>0.239942</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253975</v>
+        <v>0.252841</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250601</v>
+        <v>0.250735</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24489</v>
+        <v>0.244776</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25841</v>
+        <v>0.257225</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253517</v>
+        <v>0.253525</v>
       </c>
       <c r="C48" t="n">
-        <v>0.248833</v>
+        <v>0.248646</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262308</v>
+        <v>0.261141</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25688</v>
+        <v>0.25691</v>
       </c>
       <c r="C49" t="n">
-        <v>0.253226</v>
+        <v>0.253018</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266726</v>
+        <v>0.265425</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260634</v>
+        <v>0.260829</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205689</v>
+        <v>0.205605</v>
       </c>
       <c r="D50" t="n">
-        <v>0.215058</v>
+        <v>0.214275</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264487</v>
+        <v>0.264641</v>
       </c>
       <c r="C51" t="n">
-        <v>0.208476</v>
+        <v>0.208503</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218551</v>
+        <v>0.217212</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.268966</v>
+        <v>0.268889</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212036</v>
+        <v>0.211681</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22213</v>
+        <v>0.220856</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273479</v>
+        <v>0.273537</v>
       </c>
       <c r="C53" t="n">
-        <v>0.215027</v>
+        <v>0.214964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.225908</v>
+        <v>0.22458</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278432</v>
+        <v>0.278192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21865</v>
+        <v>0.218474</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229248</v>
+        <v>0.228116</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283385</v>
+        <v>0.283412</v>
       </c>
       <c r="C55" t="n">
-        <v>0.222294</v>
+        <v>0.222171</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233315</v>
+        <v>0.231767</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288647</v>
+        <v>0.28871</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226589</v>
+        <v>0.226337</v>
       </c>
       <c r="D56" t="n">
-        <v>0.237654</v>
+        <v>0.236146</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29377</v>
+        <v>0.293774</v>
       </c>
       <c r="C57" t="n">
-        <v>0.230995</v>
+        <v>0.230997</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24169</v>
+        <v>0.240428</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.298389</v>
+        <v>0.298437</v>
       </c>
       <c r="C58" t="n">
-        <v>0.235513</v>
+        <v>0.235401</v>
       </c>
       <c r="D58" t="n">
-        <v>0.245796</v>
+        <v>0.244466</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30338</v>
+        <v>0.303397</v>
       </c>
       <c r="C59" t="n">
-        <v>0.240557</v>
+        <v>0.24034</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250394</v>
+        <v>0.249036</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.308981</v>
+        <v>0.309005</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24453</v>
+        <v>0.244489</v>
       </c>
       <c r="D60" t="n">
-        <v>0.254781</v>
+        <v>0.253343</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256268</v>
+        <v>0.256799</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249572</v>
+        <v>0.249395</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259183</v>
+        <v>0.257677</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257934</v>
+        <v>0.25783</v>
       </c>
       <c r="C62" t="n">
-        <v>0.253597</v>
+        <v>0.25357</v>
       </c>
       <c r="D62" t="n">
-        <v>0.263933</v>
+        <v>0.262122</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268101</v>
+        <v>0.269535</v>
       </c>
       <c r="C63" t="n">
-        <v>0.258727</v>
+        <v>0.258811</v>
       </c>
       <c r="D63" t="n">
-        <v>0.267807</v>
+        <v>0.266564</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.274817</v>
+        <v>0.27478</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21555</v>
+        <v>0.214846</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222888</v>
+        <v>0.223247</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.280988</v>
+        <v>0.279189</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220424</v>
+        <v>0.219157</v>
       </c>
       <c r="D65" t="n">
-        <v>0.228464</v>
+        <v>0.227712</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285869</v>
+        <v>0.283648</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225855</v>
+        <v>0.223673</v>
       </c>
       <c r="D66" t="n">
-        <v>0.233661</v>
+        <v>0.232202</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.292549</v>
+        <v>0.2934</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227263</v>
+        <v>0.227814</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239127</v>
+        <v>0.23666</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.302321</v>
+        <v>0.29751</v>
       </c>
       <c r="C68" t="n">
-        <v>0.234096</v>
+        <v>0.232698</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243885</v>
+        <v>0.241767</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30967</v>
+        <v>0.306412</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239972</v>
+        <v>0.238526</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249344</v>
+        <v>0.247594</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.31921</v>
+        <v>0.316218</v>
       </c>
       <c r="C70" t="n">
-        <v>0.247137</v>
+        <v>0.245182</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255153</v>
+        <v>0.253202</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330333</v>
+        <v>0.327313</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253687</v>
+        <v>0.250547</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262066</v>
+        <v>0.258706</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.343061</v>
+        <v>0.337303</v>
       </c>
       <c r="C72" t="n">
-        <v>0.262532</v>
+        <v>0.25759</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269864</v>
+        <v>0.265315</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.357292</v>
+        <v>0.349441</v>
       </c>
       <c r="C73" t="n">
-        <v>0.269425</v>
+        <v>0.265151</v>
       </c>
       <c r="D73" t="n">
-        <v>0.278658</v>
+        <v>0.273273</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.370028</v>
+        <v>0.360956</v>
       </c>
       <c r="C74" t="n">
-        <v>0.277308</v>
+        <v>0.272773</v>
       </c>
       <c r="D74" t="n">
-        <v>0.285199</v>
+        <v>0.281258</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.382399</v>
+        <v>0.373675</v>
       </c>
       <c r="C75" t="n">
-        <v>0.286654</v>
+        <v>0.282797</v>
       </c>
       <c r="D75" t="n">
-        <v>0.293526</v>
+        <v>0.290091</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.422944</v>
+        <v>0.397093</v>
       </c>
       <c r="C76" t="n">
-        <v>0.296705</v>
+        <v>0.294144</v>
       </c>
       <c r="D76" t="n">
-        <v>0.303381</v>
+        <v>0.302379</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.430797</v>
+        <v>0.413295</v>
       </c>
       <c r="C77" t="n">
-        <v>0.305038</v>
+        <v>0.301841</v>
       </c>
       <c r="D77" t="n">
-        <v>0.310873</v>
+        <v>0.307019</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.447929</v>
+        <v>0.432281</v>
       </c>
       <c r="C78" t="n">
-        <v>0.299644</v>
+        <v>0.294774</v>
       </c>
       <c r="D78" t="n">
-        <v>0.307863</v>
+        <v>0.300304</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.451618</v>
+        <v>0.447131</v>
       </c>
       <c r="C79" t="n">
-        <v>0.305705</v>
+        <v>0.303242</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315793</v>
+        <v>0.314554</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.466665</v>
+        <v>0.461385</v>
       </c>
       <c r="C80" t="n">
-        <v>0.320123</v>
+        <v>0.317524</v>
       </c>
       <c r="D80" t="n">
-        <v>0.328537</v>
+        <v>0.327695</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.481423</v>
+        <v>0.476834</v>
       </c>
       <c r="C81" t="n">
-        <v>0.326194</v>
+        <v>0.330046</v>
       </c>
       <c r="D81" t="n">
-        <v>0.338393</v>
+        <v>0.338772</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.499489</v>
+        <v>0.496565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.342868</v>
+        <v>0.343994</v>
       </c>
       <c r="D82" t="n">
-        <v>0.353017</v>
+        <v>0.352881</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.520471</v>
+        <v>0.5158470000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357364</v>
+        <v>0.355859</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368418</v>
+        <v>0.368681</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.54091</v>
+        <v>0.535542</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372501</v>
+        <v>0.372442</v>
       </c>
       <c r="D84" t="n">
-        <v>0.384775</v>
+        <v>0.37792</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.562018</v>
+        <v>0.553814</v>
       </c>
       <c r="C85" t="n">
-        <v>0.393163</v>
+        <v>0.38646</v>
       </c>
       <c r="D85" t="n">
-        <v>0.402634</v>
+        <v>0.395585</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.58539</v>
+        <v>0.577516</v>
       </c>
       <c r="C86" t="n">
-        <v>0.409342</v>
+        <v>0.402919</v>
       </c>
       <c r="D86" t="n">
-        <v>0.418218</v>
+        <v>0.410315</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.607378</v>
+        <v>0.598969</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4209</v>
+        <v>0.418295</v>
       </c>
       <c r="D87" t="n">
-        <v>0.433477</v>
+        <v>0.42782</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.629749</v>
+        <v>0.622405</v>
       </c>
       <c r="C88" t="n">
-        <v>0.439339</v>
+        <v>0.435839</v>
       </c>
       <c r="D88" t="n">
-        <v>0.450714</v>
+        <v>0.447596</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.65373</v>
+        <v>0.645375</v>
       </c>
       <c r="C89" t="n">
-        <v>0.455708</v>
+        <v>0.452443</v>
       </c>
       <c r="D89" t="n">
-        <v>0.468637</v>
+        <v>0.465145</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.684577</v>
+        <v>0.668755</v>
       </c>
       <c r="C90" t="n">
-        <v>0.472714</v>
+        <v>0.469943</v>
       </c>
       <c r="D90" t="n">
-        <v>0.487974</v>
+        <v>0.483556</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.685186</v>
+        <v>0.678345</v>
       </c>
       <c r="C91" t="n">
-        <v>0.489915</v>
+        <v>0.487663</v>
       </c>
       <c r="D91" t="n">
-        <v>0.497349</v>
+        <v>0.495191</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6944090000000001</v>
+        <v>0.683235</v>
       </c>
       <c r="C92" t="n">
-        <v>0.506325</v>
+        <v>0.501232</v>
       </c>
       <c r="D92" t="n">
-        <v>0.511501</v>
+        <v>0.504471</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.705453</v>
+        <v>0.693666</v>
       </c>
       <c r="C93" t="n">
-        <v>0.516734</v>
+        <v>0.511165</v>
       </c>
       <c r="D93" t="n">
-        <v>0.521529</v>
+        <v>0.516889</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.715599</v>
+        <v>0.704206</v>
       </c>
       <c r="C94" t="n">
-        <v>0.528929</v>
+        <v>0.522065</v>
       </c>
       <c r="D94" t="n">
-        <v>0.533173</v>
+        <v>0.526474</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.728027</v>
+        <v>0.716264</v>
       </c>
       <c r="C95" t="n">
-        <v>0.540596</v>
+        <v>0.533828</v>
       </c>
       <c r="D95" t="n">
-        <v>0.547548</v>
+        <v>0.5407459999999999</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.740693</v>
+        <v>0.728881</v>
       </c>
       <c r="C96" t="n">
-        <v>0.552192</v>
+        <v>0.5458769999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5612200000000001</v>
+        <v>0.553407</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.753694</v>
+        <v>0.741937</v>
       </c>
       <c r="C97" t="n">
-        <v>0.565653</v>
+        <v>0.558476</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5730769999999999</v>
+        <v>0.56571</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.770346</v>
+        <v>0.758443</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5799569999999999</v>
+        <v>0.572062</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5870339999999999</v>
+        <v>0.58049</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.786354</v>
+        <v>0.774361</v>
       </c>
       <c r="C99" t="n">
-        <v>0.592656</v>
+        <v>0.585809</v>
       </c>
       <c r="D99" t="n">
-        <v>0.600209</v>
+        <v>0.5929450000000001</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.80461</v>
+        <v>0.79187</v>
       </c>
       <c r="C100" t="n">
-        <v>0.60726</v>
+        <v>0.5996359999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.615132</v>
+        <v>0.608125</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.822867</v>
+        <v>0.80968</v>
       </c>
       <c r="C101" t="n">
-        <v>0.62147</v>
+        <v>0.614102</v>
       </c>
       <c r="D101" t="n">
-        <v>0.629136</v>
+        <v>0.622231</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.841248</v>
+        <v>0.828535</v>
       </c>
       <c r="C102" t="n">
-        <v>0.636845</v>
+        <v>0.628991</v>
       </c>
       <c r="D102" t="n">
-        <v>0.645133</v>
+        <v>0.637653</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.861311</v>
+        <v>0.848726</v>
       </c>
       <c r="C103" t="n">
-        <v>0.651505</v>
+        <v>0.644319</v>
       </c>
       <c r="D103" t="n">
-        <v>0.660204</v>
+        <v>0.652634</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.882474</v>
+        <v>0.869305</v>
       </c>
       <c r="C104" t="n">
-        <v>0.667902</v>
+        <v>0.6596610000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.676196</v>
+        <v>0.667466</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.815546</v>
+        <v>0.793404</v>
       </c>
       <c r="C105" t="n">
-        <v>0.68376</v>
+        <v>0.676006</v>
       </c>
       <c r="D105" t="n">
-        <v>0.696145</v>
+        <v>0.687389</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.814824</v>
+        <v>0.800293</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7014280000000001</v>
+        <v>0.691945</v>
       </c>
       <c r="D106" t="n">
-        <v>0.716181</v>
+        <v>0.706265</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.823307</v>
+        <v>0.807627</v>
       </c>
       <c r="C107" t="n">
-        <v>0.65573</v>
+        <v>0.6424029999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.658534</v>
+        <v>0.648173</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.831588</v>
+        <v>0.816919</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6648770000000001</v>
+        <v>0.653409</v>
       </c>
       <c r="D108" t="n">
-        <v>0.668868</v>
+        <v>0.658219</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.842554</v>
+        <v>0.826592</v>
       </c>
       <c r="C109" t="n">
-        <v>0.676642</v>
+        <v>0.66422</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6810850000000001</v>
+        <v>0.669756</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.853862</v>
+        <v>0.837611</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6881969999999999</v>
+        <v>0.6760699999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6933589999999999</v>
+        <v>0.6818149999999999</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.864877</v>
+        <v>0.849244</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7000189999999999</v>
+        <v>0.688188</v>
       </c>
       <c r="D111" t="n">
-        <v>0.704579</v>
+        <v>0.692881</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.879455</v>
+        <v>0.863048</v>
       </c>
       <c r="C112" t="n">
-        <v>0.713861</v>
+        <v>0.70104</v>
       </c>
       <c r="D112" t="n">
-        <v>0.719008</v>
+        <v>0.706774</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.894666</v>
+        <v>0.877786</v>
       </c>
       <c r="C113" t="n">
-        <v>0.726857</v>
+        <v>0.714124</v>
       </c>
       <c r="D113" t="n">
-        <v>0.731812</v>
+        <v>0.719211</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.910382</v>
+        <v>0.893455</v>
       </c>
       <c r="C114" t="n">
-        <v>0.740991</v>
+        <v>0.727695</v>
       </c>
       <c r="D114" t="n">
-        <v>0.746785</v>
+        <v>0.734007</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.928027</v>
+        <v>0.910897</v>
       </c>
       <c r="C115" t="n">
-        <v>0.754795</v>
+        <v>0.741545</v>
       </c>
       <c r="D115" t="n">
-        <v>0.760892</v>
+        <v>0.749346</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.946901</v>
+        <v>0.929443</v>
       </c>
       <c r="C116" t="n">
-        <v>0.768272</v>
+        <v>0.756043</v>
       </c>
       <c r="D116" t="n">
-        <v>0.773099</v>
+        <v>0.76108</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.966677</v>
+        <v>0.9491309999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.782881</v>
+        <v>0.771092</v>
       </c>
       <c r="D117" t="n">
-        <v>0.787652</v>
+        <v>0.775362</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.988088</v>
+        <v>0.970228</v>
       </c>
       <c r="C118" t="n">
-        <v>0.797922</v>
+        <v>0.785657</v>
       </c>
       <c r="D118" t="n">
-        <v>0.805266</v>
+        <v>0.792417</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.876694</v>
+        <v>0.856711</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8144749999999999</v>
+        <v>0.8012550000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.819724</v>
+        <v>0.806361</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247293</v>
+        <v>0.24959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.163152</v>
+        <v>0.16888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152795</v>
+        <v>0.155381</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219239</v>
+        <v>0.220048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167824</v>
+        <v>0.174513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.151392</v>
+        <v>0.154235</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.223051</v>
+        <v>0.224404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.173642</v>
+        <v>0.17727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156669</v>
+        <v>0.15928</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.228638</v>
+        <v>0.22957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.180433</v>
+        <v>0.183346</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161016</v>
+        <v>0.163299</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230127</v>
+        <v>0.230909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.185062</v>
+        <v>0.190146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.165624</v>
+        <v>0.168722</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.232904</v>
+        <v>0.23332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.170181</v>
+        <v>0.170974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160261</v>
+        <v>0.162843</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236623</v>
+        <v>0.237571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.176302</v>
+        <v>0.178752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163674</v>
+        <v>0.168192</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237135</v>
+        <v>0.239667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176946</v>
+        <v>0.185553</v>
       </c>
       <c r="D9" t="n">
-        <v>0.164196</v>
+        <v>0.170581</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240265</v>
+        <v>0.244118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181292</v>
+        <v>0.18556</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16794</v>
+        <v>0.171227</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.240636</v>
+        <v>0.244289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180669</v>
+        <v>0.185841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16763</v>
+        <v>0.173389</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252788</v>
+        <v>0.257027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.194601</v>
+        <v>0.193359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.172393</v>
+        <v>0.177013</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25652</v>
+        <v>0.25864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.194154</v>
+        <v>0.19205</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176873</v>
+        <v>0.178066</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.257736</v>
+        <v>0.257868</v>
       </c>
       <c r="C14" t="n">
-        <v>0.193876</v>
+        <v>0.198084</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173166</v>
+        <v>0.178926</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266085</v>
+        <v>0.267572</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200459</v>
+        <v>0.199436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.182285</v>
+        <v>0.178471</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.271232</v>
+        <v>0.271998</v>
       </c>
       <c r="C16" t="n">
-        <v>0.205182</v>
+        <v>0.203368</v>
       </c>
       <c r="D16" t="n">
-        <v>0.182255</v>
+        <v>0.186076</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275599</v>
+        <v>0.277155</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208171</v>
+        <v>0.208427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.186517</v>
+        <v>0.1859</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256048</v>
+        <v>0.253778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207729</v>
+        <v>0.215996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184145</v>
+        <v>0.186595</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259332</v>
+        <v>0.26066</v>
       </c>
       <c r="C19" t="n">
-        <v>0.218822</v>
+        <v>0.218606</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191429</v>
+        <v>0.190842</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263401</v>
+        <v>0.264719</v>
       </c>
       <c r="C20" t="n">
-        <v>0.226512</v>
+        <v>0.226756</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192523</v>
+        <v>0.193102</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.270932</v>
+        <v>0.272754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201507</v>
+        <v>0.203251</v>
       </c>
       <c r="D21" t="n">
-        <v>0.189754</v>
+        <v>0.193962</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.271821</v>
+        <v>0.273374</v>
       </c>
       <c r="C22" t="n">
-        <v>0.21309</v>
+        <v>0.213883</v>
       </c>
       <c r="D22" t="n">
-        <v>0.195007</v>
+        <v>0.197049</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.276854</v>
+        <v>0.278182</v>
       </c>
       <c r="C23" t="n">
-        <v>0.216191</v>
+        <v>0.217253</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19533</v>
+        <v>0.19887</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.279226</v>
+        <v>0.280511</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224967</v>
+        <v>0.226541</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201953</v>
+        <v>0.200894</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283613</v>
+        <v>0.284037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.233199</v>
+        <v>0.233857</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204918</v>
+        <v>0.203887</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292587</v>
+        <v>0.292535</v>
       </c>
       <c r="C26" t="n">
-        <v>0.233272</v>
+        <v>0.234467</v>
       </c>
       <c r="D26" t="n">
-        <v>0.207077</v>
+        <v>0.208553</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294166</v>
+        <v>0.29456</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241643</v>
+        <v>0.24252</v>
       </c>
       <c r="D27" t="n">
-        <v>0.211353</v>
+        <v>0.210225</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.296834</v>
+        <v>0.297419</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24342</v>
+        <v>0.24388</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212599</v>
+        <v>0.212277</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305918</v>
+        <v>0.306638</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248552</v>
+        <v>0.249645</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214946</v>
+        <v>0.214888</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310489</v>
+        <v>0.310931</v>
       </c>
       <c r="C30" t="n">
-        <v>0.259651</v>
+        <v>0.259741</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219697</v>
+        <v>0.220173</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.313809</v>
+        <v>0.314367</v>
       </c>
       <c r="C31" t="n">
-        <v>0.25669</v>
+        <v>0.257114</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22118</v>
+        <v>0.221177</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279771</v>
+        <v>0.280197</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261996</v>
+        <v>0.267474</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223211</v>
+        <v>0.224817</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.285487</v>
+        <v>0.286243</v>
       </c>
       <c r="C33" t="n">
-        <v>0.274872</v>
+        <v>0.275835</v>
       </c>
       <c r="D33" t="n">
-        <v>0.228778</v>
+        <v>0.229141</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.290598</v>
+        <v>0.291212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.277902</v>
+        <v>0.278584</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232306</v>
+        <v>0.232764</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291413</v>
+        <v>0.291986</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220176</v>
+        <v>0.220347</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210062</v>
+        <v>0.210955</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.295894</v>
+        <v>0.296724</v>
       </c>
       <c r="C36" t="n">
-        <v>0.226782</v>
+        <v>0.225738</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211516</v>
+        <v>0.211935</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.302701</v>
+        <v>0.303775</v>
       </c>
       <c r="C37" t="n">
-        <v>0.231152</v>
+        <v>0.230309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214161</v>
+        <v>0.214336</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305034</v>
+        <v>0.305975</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233787</v>
+        <v>0.233053</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216141</v>
+        <v>0.216057</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.312354</v>
+        <v>0.312862</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239438</v>
+        <v>0.238666</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219594</v>
+        <v>0.219532</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.32046</v>
+        <v>0.320822</v>
       </c>
       <c r="C40" t="n">
-        <v>0.241038</v>
+        <v>0.24167</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220529</v>
+        <v>0.221478</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3262</v>
+        <v>0.326779</v>
       </c>
       <c r="C41" t="n">
-        <v>0.24615</v>
+        <v>0.246721</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222561</v>
+        <v>0.223457</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.330199</v>
+        <v>0.331016</v>
       </c>
       <c r="C42" t="n">
-        <v>0.247333</v>
+        <v>0.247854</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224385</v>
+        <v>0.224566</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.336247</v>
+        <v>0.336971</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252014</v>
+        <v>0.25248</v>
       </c>
       <c r="D43" t="n">
-        <v>0.226862</v>
+        <v>0.227301</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.338968</v>
+        <v>0.340004</v>
       </c>
       <c r="C44" t="n">
-        <v>0.256428</v>
+        <v>0.25697</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22867</v>
+        <v>0.228867</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.347554</v>
+        <v>0.34814</v>
       </c>
       <c r="C45" t="n">
-        <v>0.258985</v>
+        <v>0.259521</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230792</v>
+        <v>0.230882</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.348454</v>
+        <v>0.349192</v>
       </c>
       <c r="C46" t="n">
-        <v>0.259626</v>
+        <v>0.260156</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232019</v>
+        <v>0.232832</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2888</v>
+        <v>0.289032</v>
       </c>
       <c r="C47" t="n">
-        <v>0.263801</v>
+        <v>0.265693</v>
       </c>
       <c r="D47" t="n">
-        <v>0.233721</v>
+        <v>0.234538</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.293216</v>
+        <v>0.293648</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271216</v>
+        <v>0.270599</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236328</v>
+        <v>0.236051</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.29703</v>
+        <v>0.297364</v>
       </c>
       <c r="C49" t="n">
-        <v>0.272904</v>
+        <v>0.274416</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23929</v>
+        <v>0.239019</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.300497</v>
+        <v>0.300844</v>
       </c>
       <c r="C50" t="n">
-        <v>0.244737</v>
+        <v>0.245172</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22454</v>
+        <v>0.224748</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.303596</v>
+        <v>0.304246</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247324</v>
+        <v>0.247332</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225973</v>
+        <v>0.226147</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.306258</v>
+        <v>0.306327</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250757</v>
+        <v>0.250975</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227218</v>
+        <v>0.227746</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.311856</v>
+        <v>0.312084</v>
       </c>
       <c r="C53" t="n">
-        <v>0.254344</v>
+        <v>0.255275</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229979</v>
+        <v>0.229847</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320667</v>
+        <v>0.320658</v>
       </c>
       <c r="C54" t="n">
-        <v>0.258682</v>
+        <v>0.259238</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23154</v>
+        <v>0.231941</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.319725</v>
+        <v>0.31985</v>
       </c>
       <c r="C55" t="n">
-        <v>0.264918</v>
+        <v>0.26521</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234101</v>
+        <v>0.234428</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.324434</v>
+        <v>0.325266</v>
       </c>
       <c r="C56" t="n">
-        <v>0.263928</v>
+        <v>0.264022</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234647</v>
+        <v>0.234831</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332654</v>
+        <v>0.332892</v>
       </c>
       <c r="C57" t="n">
-        <v>0.271588</v>
+        <v>0.272259</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237396</v>
+        <v>0.23759</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334007</v>
+        <v>0.334423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.278829</v>
+        <v>0.279369</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240868</v>
+        <v>0.241041</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.341467</v>
+        <v>0.341757</v>
       </c>
       <c r="C59" t="n">
-        <v>0.285052</v>
+        <v>0.285496</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244318</v>
+        <v>0.244435</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.346803</v>
+        <v>0.34699</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289128</v>
+        <v>0.289082</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248032</v>
+        <v>0.247543</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.302721</v>
+        <v>0.304677</v>
       </c>
       <c r="C61" t="n">
-        <v>0.293834</v>
+        <v>0.293974</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249033</v>
+        <v>0.248894</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.312827</v>
+        <v>0.312402</v>
       </c>
       <c r="C62" t="n">
-        <v>0.298792</v>
+        <v>0.298458</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25064</v>
+        <v>0.250287</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.31944</v>
+        <v>0.319665</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303486</v>
+        <v>0.303186</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254366</v>
+        <v>0.25411</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.325437</v>
+        <v>0.324341</v>
       </c>
       <c r="C64" t="n">
-        <v>0.268435</v>
+        <v>0.269521</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243612</v>
+        <v>0.243274</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.326968</v>
+        <v>0.329042</v>
       </c>
       <c r="C65" t="n">
-        <v>0.271961</v>
+        <v>0.273642</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241154</v>
+        <v>0.241489</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.33675</v>
+        <v>0.335506</v>
       </c>
       <c r="C66" t="n">
-        <v>0.275269</v>
+        <v>0.275997</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242828</v>
+        <v>0.242921</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.340903</v>
+        <v>0.340974</v>
       </c>
       <c r="C67" t="n">
-        <v>0.282212</v>
+        <v>0.283272</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246168</v>
+        <v>0.24654</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.345634</v>
+        <v>0.350116</v>
       </c>
       <c r="C68" t="n">
-        <v>0.286386</v>
+        <v>0.287253</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248186</v>
+        <v>0.248966</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.356629</v>
+        <v>0.356925</v>
       </c>
       <c r="C69" t="n">
-        <v>0.289851</v>
+        <v>0.292215</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251388</v>
+        <v>0.251953</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364931</v>
+        <v>0.368206</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297326</v>
+        <v>0.299344</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255255</v>
+        <v>0.255832</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.376099</v>
+        <v>0.377456</v>
       </c>
       <c r="C71" t="n">
-        <v>0.304091</v>
+        <v>0.306752</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25824</v>
+        <v>0.259309</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.38306</v>
+        <v>0.385207</v>
       </c>
       <c r="C72" t="n">
-        <v>0.311721</v>
+        <v>0.315104</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262513</v>
+        <v>0.263607</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.397119</v>
+        <v>0.405208</v>
       </c>
       <c r="C73" t="n">
-        <v>0.319236</v>
+        <v>0.323241</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26804</v>
+        <v>0.268432</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411112</v>
+        <v>0.413246</v>
       </c>
       <c r="C74" t="n">
-        <v>0.327086</v>
+        <v>0.32953</v>
       </c>
       <c r="D74" t="n">
-        <v>0.268328</v>
+        <v>0.269778</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.427106</v>
+        <v>0.429614</v>
       </c>
       <c r="C75" t="n">
-        <v>0.334514</v>
+        <v>0.33808</v>
       </c>
       <c r="D75" t="n">
-        <v>0.273301</v>
+        <v>0.274764</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.439809</v>
+        <v>0.426004</v>
       </c>
       <c r="C76" t="n">
-        <v>0.347791</v>
+        <v>0.347986</v>
       </c>
       <c r="D76" t="n">
-        <v>0.27961</v>
+        <v>0.281077</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.455952</v>
+        <v>0.452329</v>
       </c>
       <c r="C77" t="n">
-        <v>0.357464</v>
+        <v>0.355527</v>
       </c>
       <c r="D77" t="n">
-        <v>0.281645</v>
+        <v>0.281596</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.477688</v>
+        <v>0.469623</v>
       </c>
       <c r="C78" t="n">
-        <v>0.319746</v>
+        <v>0.321167</v>
       </c>
       <c r="D78" t="n">
-        <v>0.272497</v>
+        <v>0.278748</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.500117</v>
+        <v>0.496201</v>
       </c>
       <c r="C79" t="n">
-        <v>0.331376</v>
+        <v>0.33139</v>
       </c>
       <c r="D79" t="n">
-        <v>0.275487</v>
+        <v>0.285034</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.520007</v>
+        <v>0.52064</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350375</v>
+        <v>0.347325</v>
       </c>
       <c r="D80" t="n">
-        <v>0.286437</v>
+        <v>0.290002</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.549345</v>
+        <v>0.5434639999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.365108</v>
+        <v>0.362451</v>
       </c>
       <c r="D81" t="n">
-        <v>0.292574</v>
+        <v>0.298652</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.575512</v>
+        <v>0.572749</v>
       </c>
       <c r="C82" t="n">
-        <v>0.384924</v>
+        <v>0.378781</v>
       </c>
       <c r="D82" t="n">
-        <v>0.304233</v>
+        <v>0.303432</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.619027</v>
+        <v>0.615381</v>
       </c>
       <c r="C83" t="n">
-        <v>0.405715</v>
+        <v>0.396928</v>
       </c>
       <c r="D83" t="n">
-        <v>0.317051</v>
+        <v>0.310818</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.667863</v>
+        <v>0.655907</v>
       </c>
       <c r="C84" t="n">
-        <v>0.431804</v>
+        <v>0.421112</v>
       </c>
       <c r="D84" t="n">
-        <v>0.322146</v>
+        <v>0.322399</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.68857</v>
+        <v>0.695415</v>
       </c>
       <c r="C85" t="n">
-        <v>0.440417</v>
+        <v>0.444255</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330952</v>
+        <v>0.338839</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.740721</v>
+        <v>0.739579</v>
       </c>
       <c r="C86" t="n">
-        <v>0.468209</v>
+        <v>0.463889</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3443</v>
+        <v>0.348641</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.775784</v>
+        <v>0.773325</v>
       </c>
       <c r="C87" t="n">
-        <v>0.493001</v>
+        <v>0.489795</v>
       </c>
       <c r="D87" t="n">
-        <v>0.360777</v>
+        <v>0.360224</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.819527</v>
+        <v>0.818187</v>
       </c>
       <c r="C88" t="n">
-        <v>0.516906</v>
+        <v>0.515649</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36938</v>
+        <v>0.378066</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.869808</v>
+        <v>0.869306</v>
       </c>
       <c r="C89" t="n">
-        <v>0.54939</v>
+        <v>0.54652</v>
       </c>
       <c r="D89" t="n">
-        <v>0.392683</v>
+        <v>0.386553</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.881227</v>
+        <v>0.866748</v>
       </c>
       <c r="C90" t="n">
-        <v>0.579209</v>
+        <v>0.575761</v>
       </c>
       <c r="D90" t="n">
-        <v>0.403905</v>
+        <v>0.401183</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9146919999999999</v>
+        <v>0.9047269999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.613522</v>
+        <v>0.606007</v>
       </c>
       <c r="D91" t="n">
-        <v>0.428462</v>
+        <v>0.422399</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.949209</v>
+        <v>0.9336140000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.626214</v>
+        <v>0.618404</v>
       </c>
       <c r="D92" t="n">
-        <v>0.507317</v>
+        <v>0.504112</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.980093</v>
+        <v>0.965863</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6493679999999999</v>
+        <v>0.643734</v>
       </c>
       <c r="D93" t="n">
-        <v>0.522877</v>
+        <v>0.523014</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01668</v>
+        <v>1.00122</v>
       </c>
       <c r="C94" t="n">
-        <v>0.677549</v>
+        <v>0.6699889999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5432</v>
+        <v>0.536989</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05255</v>
+        <v>1.03729</v>
       </c>
       <c r="C95" t="n">
-        <v>0.703557</v>
+        <v>0.696205</v>
       </c>
       <c r="D95" t="n">
-        <v>0.559895</v>
+        <v>0.555836</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08883</v>
+        <v>1.07153</v>
       </c>
       <c r="C96" t="n">
-        <v>0.732098</v>
+        <v>0.722975</v>
       </c>
       <c r="D96" t="n">
-        <v>0.578484</v>
+        <v>0.573198</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.12451</v>
+        <v>1.10814</v>
       </c>
       <c r="C97" t="n">
-        <v>0.762848</v>
+        <v>0.752907</v>
       </c>
       <c r="D97" t="n">
-        <v>0.601221</v>
+        <v>0.594973</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16206</v>
+        <v>1.1435</v>
       </c>
       <c r="C98" t="n">
-        <v>0.791169</v>
+        <v>0.780823</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62414</v>
+        <v>0.614044</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.19806</v>
+        <v>1.17693</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8263</v>
+        <v>0.81336</v>
       </c>
       <c r="D99" t="n">
-        <v>0.642893</v>
+        <v>0.6350789999999999</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.23651</v>
+        <v>1.21557</v>
       </c>
       <c r="C100" t="n">
-        <v>0.855526</v>
+        <v>0.843826</v>
       </c>
       <c r="D100" t="n">
-        <v>0.66332</v>
+        <v>0.655676</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.27419</v>
+        <v>1.25156</v>
       </c>
       <c r="C101" t="n">
-        <v>0.882342</v>
+        <v>0.869788</v>
       </c>
       <c r="D101" t="n">
-        <v>0.683241</v>
+        <v>0.6763169999999999</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.30687</v>
+        <v>1.28673</v>
       </c>
       <c r="C102" t="n">
-        <v>0.916174</v>
+        <v>0.903148</v>
       </c>
       <c r="D102" t="n">
-        <v>0.707112</v>
+        <v>0.696013</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.34453</v>
+        <v>1.3243</v>
       </c>
       <c r="C103" t="n">
-        <v>0.94394</v>
+        <v>0.930161</v>
       </c>
       <c r="D103" t="n">
-        <v>0.723245</v>
+        <v>0.71358</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.38402</v>
+        <v>1.36172</v>
       </c>
       <c r="C104" t="n">
-        <v>0.974196</v>
+        <v>0.959886</v>
       </c>
       <c r="D104" t="n">
-        <v>0.745501</v>
+        <v>0.736638</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.27591</v>
+        <v>1.25098</v>
       </c>
       <c r="C105" t="n">
-        <v>1.01265</v>
+        <v>0.99417</v>
       </c>
       <c r="D105" t="n">
-        <v>0.763803</v>
+        <v>0.752244</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.29595</v>
+        <v>1.2729</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04423</v>
+        <v>1.02704</v>
       </c>
       <c r="D106" t="n">
-        <v>0.790598</v>
+        <v>0.778197</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.32102</v>
+        <v>1.29575</v>
       </c>
       <c r="C107" t="n">
-        <v>0.937943</v>
+        <v>0.918753</v>
       </c>
       <c r="D107" t="n">
-        <v>0.799378</v>
+        <v>0.785697</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.3465</v>
+        <v>1.32012</v>
       </c>
       <c r="C108" t="n">
-        <v>0.958595</v>
+        <v>0.9407799999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.815866</v>
+        <v>0.801599</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.36804</v>
+        <v>1.3417</v>
       </c>
       <c r="C109" t="n">
-        <v>0.98205</v>
+        <v>0.963278</v>
       </c>
       <c r="D109" t="n">
-        <v>0.832255</v>
+        <v>0.817174</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.39262</v>
+        <v>1.36632</v>
       </c>
       <c r="C110" t="n">
-        <v>1.00367</v>
+        <v>0.983993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.847091</v>
+        <v>0.832566</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42031</v>
+        <v>1.38991</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01858</v>
+        <v>1.00221</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8625159999999999</v>
+        <v>0.845879</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.44717</v>
+        <v>1.41593</v>
       </c>
       <c r="C112" t="n">
-        <v>1.05023</v>
+        <v>1.02931</v>
       </c>
       <c r="D112" t="n">
-        <v>0.878831</v>
+        <v>0.860378</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.47634</v>
+        <v>1.4464</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07467</v>
+        <v>1.05468</v>
       </c>
       <c r="D113" t="n">
-        <v>0.898352</v>
+        <v>0.877627</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.50791</v>
+        <v>1.47552</v>
       </c>
       <c r="C114" t="n">
-        <v>1.10179</v>
+        <v>1.07882</v>
       </c>
       <c r="D114" t="n">
-        <v>0.906431</v>
+        <v>0.8897040000000001</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.53328</v>
+        <v>1.50508</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12718</v>
+        <v>1.1063</v>
       </c>
       <c r="D115" t="n">
-        <v>0.918524</v>
+        <v>0.901909</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.56571</v>
+        <v>1.53474</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15436</v>
+        <v>1.13372</v>
       </c>
       <c r="D116" t="n">
-        <v>0.936416</v>
+        <v>0.919339</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.59777</v>
+        <v>1.5673</v>
       </c>
       <c r="C117" t="n">
-        <v>1.18052</v>
+        <v>1.15924</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9528720000000001</v>
+        <v>0.934758</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.63325</v>
+        <v>1.60023</v>
       </c>
       <c r="C118" t="n">
-        <v>1.21655</v>
+        <v>1.19447</v>
       </c>
       <c r="D118" t="n">
-        <v>0.969158</v>
+        <v>0.949524</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.45711</v>
+        <v>1.42601</v>
       </c>
       <c r="C119" t="n">
-        <v>1.24659</v>
+        <v>1.22546</v>
       </c>
       <c r="D119" t="n">
-        <v>0.984936</v>
+        <v>0.964022</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391736</v>
+        <v>0.398385</v>
       </c>
       <c r="C2" t="n">
-        <v>0.285807</v>
+        <v>0.296278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219064</v>
+        <v>0.218495</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.400832</v>
+        <v>0.407287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.290222</v>
+        <v>0.299531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220703</v>
+        <v>0.22051</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.414621</v>
+        <v>0.417959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.303751</v>
+        <v>0.30951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229905</v>
+        <v>0.230196</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.418334</v>
+        <v>0.423629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.311771</v>
+        <v>0.318779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235433</v>
+        <v>0.236419</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.437773</v>
+        <v>0.447932</v>
       </c>
       <c r="C6" t="n">
-        <v>0.312135</v>
+        <v>0.327984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239062</v>
+        <v>0.23947</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.44597</v>
+        <v>0.457448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.334659</v>
+        <v>0.353036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246851</v>
+        <v>0.248032</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463478</v>
+        <v>0.47499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.356805</v>
+        <v>0.366469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.254276</v>
+        <v>0.256865</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.488673</v>
+        <v>0.496426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.368694</v>
+        <v>0.383197</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265587</v>
+        <v>0.26724</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.502848</v>
+        <v>0.514343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.383712</v>
+        <v>0.39958</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274844</v>
+        <v>0.279004</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.516445</v>
+        <v>0.532377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299101</v>
+        <v>0.30763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220961</v>
+        <v>0.222206</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.390153</v>
+        <v>0.399149</v>
       </c>
       <c r="C12" t="n">
-        <v>0.303176</v>
+        <v>0.31305</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223299</v>
+        <v>0.225497</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.403627</v>
+        <v>0.412279</v>
       </c>
       <c r="C13" t="n">
-        <v>0.315015</v>
+        <v>0.325272</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231892</v>
+        <v>0.23303</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.416393</v>
+        <v>0.422555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.326071</v>
+        <v>0.339143</v>
       </c>
       <c r="D14" t="n">
-        <v>0.236568</v>
+        <v>0.23846</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.432205</v>
+        <v>0.443327</v>
       </c>
       <c r="C15" t="n">
-        <v>0.344457</v>
+        <v>0.354138</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239918</v>
+        <v>0.242996</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.44453</v>
+        <v>0.451148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.354824</v>
+        <v>0.367078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248999</v>
+        <v>0.25275</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.452247</v>
+        <v>0.460255</v>
       </c>
       <c r="C17" t="n">
-        <v>0.372062</v>
+        <v>0.382223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252532</v>
+        <v>0.255713</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.473099</v>
+        <v>0.480552</v>
       </c>
       <c r="C18" t="n">
-        <v>0.377399</v>
+        <v>0.387021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254158</v>
+        <v>0.255967</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.481962</v>
+        <v>0.493523</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397549</v>
+        <v>0.408367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.265231</v>
+        <v>0.26671</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5008629999999999</v>
+        <v>0.5090710000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.416324</v>
+        <v>0.429409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.275482</v>
+        <v>0.278003</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5179510000000001</v>
+        <v>0.527784</v>
       </c>
       <c r="C21" t="n">
-        <v>0.43534</v>
+        <v>0.444221</v>
       </c>
       <c r="D21" t="n">
-        <v>0.286942</v>
+        <v>0.291511</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.539529</v>
+        <v>0.549283</v>
       </c>
       <c r="C22" t="n">
-        <v>0.46138</v>
+        <v>0.471266</v>
       </c>
       <c r="D22" t="n">
-        <v>0.29825</v>
+        <v>0.301266</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.555924</v>
+        <v>0.564864</v>
       </c>
       <c r="C23" t="n">
-        <v>0.481645</v>
+        <v>0.491126</v>
       </c>
       <c r="D23" t="n">
-        <v>0.310918</v>
+        <v>0.314024</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.594312</v>
+        <v>0.600805</v>
       </c>
       <c r="C24" t="n">
-        <v>0.493753</v>
+        <v>0.50279</v>
       </c>
       <c r="D24" t="n">
-        <v>0.321074</v>
+        <v>0.322813</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.626223</v>
+        <v>0.632745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.521739</v>
+        <v>0.5287809999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325738</v>
+        <v>0.333518</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.652106</v>
+        <v>0.661473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.333086</v>
+        <v>0.33981</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235964</v>
+        <v>0.240113</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.428379</v>
+        <v>0.434408</v>
       </c>
       <c r="C27" t="n">
-        <v>0.337058</v>
+        <v>0.3444</v>
       </c>
       <c r="D27" t="n">
-        <v>0.237471</v>
+        <v>0.242614</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.444781</v>
+        <v>0.450802</v>
       </c>
       <c r="C28" t="n">
-        <v>0.351682</v>
+        <v>0.359544</v>
       </c>
       <c r="D28" t="n">
-        <v>0.244826</v>
+        <v>0.247713</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.458747</v>
+        <v>0.46647</v>
       </c>
       <c r="C29" t="n">
-        <v>0.359607</v>
+        <v>0.365667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.252674</v>
+        <v>0.253998</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.47719</v>
+        <v>0.483746</v>
       </c>
       <c r="C30" t="n">
-        <v>0.379973</v>
+        <v>0.386425</v>
       </c>
       <c r="D30" t="n">
-        <v>0.258456</v>
+        <v>0.261249</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.492889</v>
+        <v>0.49948</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398927</v>
+        <v>0.399846</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267108</v>
+        <v>0.267272</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.510467</v>
+        <v>0.5155690000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.410371</v>
+        <v>0.415112</v>
       </c>
       <c r="D32" t="n">
-        <v>0.27025</v>
+        <v>0.275958</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.537195</v>
+        <v>0.544773</v>
       </c>
       <c r="C33" t="n">
-        <v>0.430097</v>
+        <v>0.434522</v>
       </c>
       <c r="D33" t="n">
-        <v>0.281693</v>
+        <v>0.283997</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.554382</v>
+        <v>0.558242</v>
       </c>
       <c r="C34" t="n">
-        <v>0.446777</v>
+        <v>0.451339</v>
       </c>
       <c r="D34" t="n">
-        <v>0.289128</v>
+        <v>0.292841</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.578027</v>
+        <v>0.581912</v>
       </c>
       <c r="C35" t="n">
-        <v>0.465351</v>
+        <v>0.470717</v>
       </c>
       <c r="D35" t="n">
-        <v>0.301228</v>
+        <v>0.301046</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.596318</v>
+        <v>0.601769</v>
       </c>
       <c r="C36" t="n">
-        <v>0.491742</v>
+        <v>0.495484</v>
       </c>
       <c r="D36" t="n">
-        <v>0.312346</v>
+        <v>0.315324</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.611873</v>
+        <v>0.615903</v>
       </c>
       <c r="C37" t="n">
-        <v>0.511972</v>
+        <v>0.517074</v>
       </c>
       <c r="D37" t="n">
-        <v>0.321153</v>
+        <v>0.324355</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.637063</v>
+        <v>0.6429009999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.530624</v>
+        <v>0.535168</v>
       </c>
       <c r="D38" t="n">
-        <v>0.333372</v>
+        <v>0.334393</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.670427</v>
+        <v>0.676934</v>
       </c>
       <c r="C39" t="n">
-        <v>0.561926</v>
+        <v>0.564545</v>
       </c>
       <c r="D39" t="n">
-        <v>0.343622</v>
+        <v>0.346073</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.694279</v>
+        <v>0.69682</v>
       </c>
       <c r="C40" t="n">
-        <v>0.396647</v>
+        <v>0.397788</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280169</v>
+        <v>0.280903</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.503046</v>
+        <v>0.50425</v>
       </c>
       <c r="C41" t="n">
-        <v>0.407722</v>
+        <v>0.409488</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28651</v>
+        <v>0.287066</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.516001</v>
+        <v>0.515929</v>
       </c>
       <c r="C42" t="n">
-        <v>0.42354</v>
+        <v>0.424789</v>
       </c>
       <c r="D42" t="n">
-        <v>0.292979</v>
+        <v>0.293335</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.528878</v>
+        <v>0.529884</v>
       </c>
       <c r="C43" t="n">
-        <v>0.435386</v>
+        <v>0.437136</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299666</v>
+        <v>0.300078</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5448</v>
+        <v>0.545104</v>
       </c>
       <c r="C44" t="n">
-        <v>0.457939</v>
+        <v>0.45869</v>
       </c>
       <c r="D44" t="n">
-        <v>0.309199</v>
+        <v>0.309573</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.562605</v>
+        <v>0.563236</v>
       </c>
       <c r="C45" t="n">
-        <v>0.469593</v>
+        <v>0.471161</v>
       </c>
       <c r="D45" t="n">
-        <v>0.313939</v>
+        <v>0.316419</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.574423</v>
+        <v>0.575527</v>
       </c>
       <c r="C46" t="n">
-        <v>0.485473</v>
+        <v>0.485949</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322247</v>
+        <v>0.32218</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.597009</v>
+        <v>0.597262</v>
       </c>
       <c r="C47" t="n">
-        <v>0.505313</v>
+        <v>0.505687</v>
       </c>
       <c r="D47" t="n">
-        <v>0.331422</v>
+        <v>0.331032</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.613001</v>
+        <v>0.6136740000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.517714</v>
+        <v>0.518116</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342506</v>
+        <v>0.341674</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6250830000000001</v>
+        <v>0.625235</v>
       </c>
       <c r="C49" t="n">
-        <v>0.538539</v>
+        <v>0.539699</v>
       </c>
       <c r="D49" t="n">
-        <v>0.346693</v>
+        <v>0.348971</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.654712</v>
+        <v>0.655253</v>
       </c>
       <c r="C50" t="n">
-        <v>0.556184</v>
+        <v>0.556222</v>
       </c>
       <c r="D50" t="n">
-        <v>0.358744</v>
+        <v>0.359459</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.679974</v>
+        <v>0.6800119999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.580993</v>
+        <v>0.580522</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370131</v>
+        <v>0.369954</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7062850000000001</v>
+        <v>0.7067909999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.60085</v>
+        <v>0.601983</v>
       </c>
       <c r="D52" t="n">
-        <v>0.38</v>
+        <v>0.38043</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.729434</v>
+        <v>0.7312070000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.624625</v>
+        <v>0.6265230000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.391846</v>
+        <v>0.391819</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.758065</v>
+        <v>0.758478</v>
       </c>
       <c r="C54" t="n">
-        <v>0.444693</v>
+        <v>0.444761</v>
       </c>
       <c r="D54" t="n">
-        <v>0.312793</v>
+        <v>0.313183</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.784975</v>
+        <v>0.785655</v>
       </c>
       <c r="C55" t="n">
-        <v>0.454487</v>
+        <v>0.45423</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318622</v>
+        <v>0.318769</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.537803</v>
+        <v>0.537724</v>
       </c>
       <c r="C56" t="n">
-        <v>0.469024</v>
+        <v>0.469418</v>
       </c>
       <c r="D56" t="n">
-        <v>0.324689</v>
+        <v>0.325064</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.552019</v>
+        <v>0.5522899999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.483177</v>
+        <v>0.483796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332211</v>
+        <v>0.332109</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567387</v>
+        <v>0.567705</v>
       </c>
       <c r="C58" t="n">
-        <v>0.49508</v>
+        <v>0.495561</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336882</v>
+        <v>0.336879</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.582027</v>
+        <v>0.581997</v>
       </c>
       <c r="C59" t="n">
-        <v>0.511223</v>
+        <v>0.512355</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346261</v>
+        <v>0.346416</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.59049</v>
+        <v>0.590901</v>
       </c>
       <c r="C60" t="n">
-        <v>0.526349</v>
+        <v>0.526739</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351826</v>
+        <v>0.351907</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6106200000000001</v>
+        <v>0.610642</v>
       </c>
       <c r="C61" t="n">
-        <v>0.542232</v>
+        <v>0.542339</v>
       </c>
       <c r="D61" t="n">
-        <v>0.359453</v>
+        <v>0.359021</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.63081</v>
+        <v>0.631456</v>
       </c>
       <c r="C62" t="n">
-        <v>0.558159</v>
+        <v>0.558072</v>
       </c>
       <c r="D62" t="n">
-        <v>0.367305</v>
+        <v>0.367007</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.648935</v>
+        <v>0.651388</v>
       </c>
       <c r="C63" t="n">
-        <v>0.576784</v>
+        <v>0.576905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375445</v>
+        <v>0.375806</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.670017</v>
+        <v>0.671762</v>
       </c>
       <c r="C64" t="n">
-        <v>0.59459</v>
+        <v>0.595437</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386407</v>
+        <v>0.386853</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.69881</v>
+        <v>0.700715</v>
       </c>
       <c r="C65" t="n">
-        <v>0.618691</v>
+        <v>0.619802</v>
       </c>
       <c r="D65" t="n">
-        <v>0.39697</v>
+        <v>0.397339</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.723515</v>
+        <v>0.725523</v>
       </c>
       <c r="C66" t="n">
-        <v>0.633244</v>
+        <v>0.635252</v>
       </c>
       <c r="D66" t="n">
-        <v>0.406391</v>
+        <v>0.406727</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7536580000000001</v>
+        <v>0.755529</v>
       </c>
       <c r="C67" t="n">
-        <v>0.659087</v>
+        <v>0.660774</v>
       </c>
       <c r="D67" t="n">
-        <v>0.419959</v>
+        <v>0.420124</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.778231</v>
+        <v>0.777119</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43862</v>
+        <v>0.441693</v>
       </c>
       <c r="D68" t="n">
-        <v>0.31271</v>
+        <v>0.313553</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.82297</v>
+        <v>0.821621</v>
       </c>
       <c r="C69" t="n">
-        <v>0.454524</v>
+        <v>0.459479</v>
       </c>
       <c r="D69" t="n">
-        <v>0.319069</v>
+        <v>0.320768</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555962</v>
+        <v>0.561007</v>
       </c>
       <c r="C70" t="n">
-        <v>0.474073</v>
+        <v>0.478785</v>
       </c>
       <c r="D70" t="n">
-        <v>0.328134</v>
+        <v>0.329723</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.575387</v>
+        <v>0.582176</v>
       </c>
       <c r="C71" t="n">
-        <v>0.494461</v>
+        <v>0.5003339999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335129</v>
+        <v>0.337102</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.607145</v>
+        <v>0.612157</v>
       </c>
       <c r="C72" t="n">
-        <v>0.514405</v>
+        <v>0.520894</v>
       </c>
       <c r="D72" t="n">
-        <v>0.343903</v>
+        <v>0.345564</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.630626</v>
+        <v>0.637992</v>
       </c>
       <c r="C73" t="n">
-        <v>0.539668</v>
+        <v>0.546557</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3541</v>
+        <v>0.35603</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6594449999999999</v>
+        <v>0.664737</v>
       </c>
       <c r="C74" t="n">
-        <v>0.563002</v>
+        <v>0.566172</v>
       </c>
       <c r="D74" t="n">
-        <v>0.364352</v>
+        <v>0.366237</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.69251</v>
+        <v>0.692622</v>
       </c>
       <c r="C75" t="n">
-        <v>0.59461</v>
+        <v>0.594455</v>
       </c>
       <c r="D75" t="n">
-        <v>0.373675</v>
+        <v>0.375263</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.728106</v>
+        <v>0.727479</v>
       </c>
       <c r="C76" t="n">
-        <v>0.624577</v>
+        <v>0.624572</v>
       </c>
       <c r="D76" t="n">
-        <v>0.384805</v>
+        <v>0.385716</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.774321</v>
+        <v>0.7608549999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.664041</v>
+        <v>0.657525</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398692</v>
+        <v>0.398991</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.821014</v>
+        <v>0.808261</v>
       </c>
       <c r="C78" t="n">
-        <v>0.702624</v>
+        <v>0.691778</v>
       </c>
       <c r="D78" t="n">
-        <v>0.410795</v>
+        <v>0.412603</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.872333</v>
+        <v>0.853849</v>
       </c>
       <c r="C79" t="n">
-        <v>0.743865</v>
+        <v>0.729773</v>
       </c>
       <c r="D79" t="n">
-        <v>0.426884</v>
+        <v>0.427262</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.930166</v>
+        <v>0.911927</v>
       </c>
       <c r="C80" t="n">
-        <v>0.798275</v>
+        <v>0.779078</v>
       </c>
       <c r="D80" t="n">
-        <v>0.441337</v>
+        <v>0.440774</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.98954</v>
+        <v>0.984223</v>
       </c>
       <c r="C81" t="n">
-        <v>0.847996</v>
+        <v>0.839001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.462983</v>
+        <v>0.460202</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06106</v>
+        <v>1.05837</v>
       </c>
       <c r="C82" t="n">
-        <v>0.910062</v>
+        <v>0.905474</v>
       </c>
       <c r="D82" t="n">
-        <v>0.473399</v>
+        <v>0.475757</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14642</v>
+        <v>1.14737</v>
       </c>
       <c r="C83" t="n">
-        <v>0.651882</v>
+        <v>0.660359</v>
       </c>
       <c r="D83" t="n">
-        <v>0.383272</v>
+        <v>0.38532</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.24693</v>
+        <v>1.25449</v>
       </c>
       <c r="C84" t="n">
-        <v>0.700498</v>
+        <v>0.704665</v>
       </c>
       <c r="D84" t="n">
-        <v>0.397069</v>
+        <v>0.39867</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.87265</v>
+        <v>0.881239</v>
       </c>
       <c r="C85" t="n">
-        <v>0.754104</v>
+        <v>0.758449</v>
       </c>
       <c r="D85" t="n">
-        <v>0.413974</v>
+        <v>0.412721</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.947119</v>
+        <v>0.9530380000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.81932</v>
+        <v>0.828948</v>
       </c>
       <c r="D86" t="n">
-        <v>0.431385</v>
+        <v>0.433734</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02365</v>
+        <v>1.02795</v>
       </c>
       <c r="C87" t="n">
-        <v>0.895782</v>
+        <v>0.898589</v>
       </c>
       <c r="D87" t="n">
-        <v>0.457037</v>
+        <v>0.454952</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11092</v>
+        <v>1.11452</v>
       </c>
       <c r="C88" t="n">
-        <v>0.988092</v>
+        <v>0.991669</v>
       </c>
       <c r="D88" t="n">
-        <v>0.478017</v>
+        <v>0.480786</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.20575</v>
+        <v>1.20866</v>
       </c>
       <c r="C89" t="n">
-        <v>1.0766</v>
+        <v>1.08044</v>
       </c>
       <c r="D89" t="n">
-        <v>0.511031</v>
+        <v>0.51159</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.31181</v>
+        <v>1.31227</v>
       </c>
       <c r="C90" t="n">
-        <v>1.17972</v>
+        <v>1.17988</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5419119999999999</v>
+        <v>0.543912</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.42552</v>
+        <v>1.42651</v>
       </c>
       <c r="C91" t="n">
-        <v>1.28825</v>
+        <v>1.28482</v>
       </c>
       <c r="D91" t="n">
-        <v>0.573464</v>
+        <v>0.576431</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54237</v>
+        <v>1.54241</v>
       </c>
       <c r="C92" t="n">
-        <v>1.404</v>
+        <v>1.40396</v>
       </c>
       <c r="D92" t="n">
-        <v>0.623611</v>
+        <v>0.627576</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.67672</v>
+        <v>1.66884</v>
       </c>
       <c r="C93" t="n">
-        <v>1.53069</v>
+        <v>1.52683</v>
       </c>
       <c r="D93" t="n">
-        <v>0.672507</v>
+        <v>0.672153</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.81445</v>
+        <v>1.80797</v>
       </c>
       <c r="C94" t="n">
-        <v>1.66491</v>
+        <v>1.65531</v>
       </c>
       <c r="D94" t="n">
-        <v>0.724799</v>
+        <v>0.720879</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.95028</v>
+        <v>1.94687</v>
       </c>
       <c r="C95" t="n">
-        <v>1.79747</v>
+        <v>1.7885</v>
       </c>
       <c r="D95" t="n">
-        <v>0.774928</v>
+        <v>0.772392</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.11124</v>
+        <v>2.10581</v>
       </c>
       <c r="C96" t="n">
-        <v>1.96319</v>
+        <v>1.95118</v>
       </c>
       <c r="D96" t="n">
-        <v>0.834764</v>
+        <v>0.832599</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.28752</v>
+        <v>2.27402</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23281</v>
+        <v>1.22463</v>
       </c>
       <c r="D97" t="n">
-        <v>0.629793</v>
+        <v>0.63109</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.44855</v>
+        <v>2.43945</v>
       </c>
       <c r="C98" t="n">
-        <v>1.31603</v>
+        <v>1.30852</v>
       </c>
       <c r="D98" t="n">
-        <v>0.670779</v>
+        <v>0.671741</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.70332</v>
+        <v>1.69136</v>
       </c>
       <c r="C99" t="n">
-        <v>1.39841</v>
+        <v>1.38891</v>
       </c>
       <c r="D99" t="n">
-        <v>0.712968</v>
+        <v>0.711233</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7993</v>
+        <v>1.78314</v>
       </c>
       <c r="C100" t="n">
-        <v>1.49039</v>
+        <v>1.4802</v>
       </c>
       <c r="D100" t="n">
-        <v>0.752122</v>
+        <v>0.748947</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.89104</v>
+        <v>1.87352</v>
       </c>
       <c r="C101" t="n">
-        <v>1.59205</v>
+        <v>1.58014</v>
       </c>
       <c r="D101" t="n">
-        <v>0.802117</v>
+        <v>0.798144</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.99802</v>
+        <v>1.98199</v>
       </c>
       <c r="C102" t="n">
-        <v>1.69091</v>
+        <v>1.67824</v>
       </c>
       <c r="D102" t="n">
-        <v>0.84394</v>
+        <v>0.838588</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.09762</v>
+        <v>2.07827</v>
       </c>
       <c r="C103" t="n">
-        <v>1.79212</v>
+        <v>1.77762</v>
       </c>
       <c r="D103" t="n">
-        <v>0.888982</v>
+        <v>0.880717</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.21051</v>
+        <v>2.19358</v>
       </c>
       <c r="C104" t="n">
-        <v>1.90782</v>
+        <v>1.88918</v>
       </c>
       <c r="D104" t="n">
-        <v>0.938554</v>
+        <v>0.929872</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.31393</v>
+        <v>2.29415</v>
       </c>
       <c r="C105" t="n">
-        <v>2.02653</v>
+        <v>2.00594</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00375</v>
+        <v>0.99495</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.4438</v>
+        <v>2.42378</v>
       </c>
       <c r="C106" t="n">
-        <v>2.14342</v>
+        <v>2.12653</v>
       </c>
       <c r="D106" t="n">
-        <v>1.04256</v>
+        <v>1.03171</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.56542</v>
+        <v>2.54467</v>
       </c>
       <c r="C107" t="n">
-        <v>2.26959</v>
+        <v>2.25043</v>
       </c>
       <c r="D107" t="n">
-        <v>1.10274</v>
+        <v>1.08971</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.70029</v>
+        <v>2.68023</v>
       </c>
       <c r="C108" t="n">
-        <v>2.41324</v>
+        <v>2.39221</v>
       </c>
       <c r="D108" t="n">
-        <v>1.16632</v>
+        <v>1.15194</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.83738</v>
+        <v>2.81512</v>
       </c>
       <c r="C109" t="n">
-        <v>2.5682</v>
+        <v>2.53734</v>
       </c>
       <c r="D109" t="n">
-        <v>1.22576</v>
+        <v>1.20728</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.00595</v>
+        <v>2.96491</v>
       </c>
       <c r="C110" t="n">
-        <v>2.69659</v>
+        <v>2.67842</v>
       </c>
       <c r="D110" t="n">
-        <v>1.28936</v>
+        <v>1.27389</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.15315</v>
+        <v>3.13546</v>
       </c>
       <c r="C111" t="n">
-        <v>1.75214</v>
+        <v>1.73024</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02738</v>
+        <v>1.01382</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.34802</v>
+        <v>3.3145</v>
       </c>
       <c r="C112" t="n">
-        <v>1.84247</v>
+        <v>1.81911</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06893</v>
+        <v>1.05428</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.48918</v>
+        <v>3.46791</v>
       </c>
       <c r="C113" t="n">
-        <v>1.93401</v>
+        <v>1.90998</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09655</v>
+        <v>1.07982</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.35381</v>
+        <v>2.32614</v>
       </c>
       <c r="C114" t="n">
-        <v>2.02381</v>
+        <v>1.99996</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13489</v>
+        <v>1.11833</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.44168</v>
+        <v>2.41294</v>
       </c>
       <c r="C115" t="n">
-        <v>2.1155</v>
+        <v>2.09145</v>
       </c>
       <c r="D115" t="n">
-        <v>1.19211</v>
+        <v>1.17539</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.54728</v>
+        <v>2.51537</v>
       </c>
       <c r="C116" t="n">
-        <v>2.20848</v>
+        <v>2.18663</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21762</v>
+        <v>1.20185</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.65111</v>
+        <v>2.61916</v>
       </c>
       <c r="C117" t="n">
-        <v>2.31841</v>
+        <v>2.29522</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27761</v>
+        <v>1.25595</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.7519</v>
+        <v>2.72675</v>
       </c>
       <c r="C118" t="n">
-        <v>2.42786</v>
+        <v>2.41151</v>
       </c>
       <c r="D118" t="n">
-        <v>1.3113</v>
+        <v>1.29406</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.86808</v>
+        <v>2.83244</v>
       </c>
       <c r="C119" t="n">
-        <v>2.53654</v>
+        <v>2.51846</v>
       </c>
       <c r="D119" t="n">
-        <v>1.36808</v>
+        <v>1.34984</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247987</v>
+        <v>0.259205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189487</v>
+        <v>0.191582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197467</v>
+        <v>0.197994</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196569</v>
+        <v>0.210719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189638</v>
+        <v>0.19217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198984</v>
+        <v>0.200209</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.200264</v>
+        <v>0.21249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195353</v>
+        <v>0.198918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204729</v>
+        <v>0.207543</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.206296</v>
+        <v>0.219753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201524</v>
+        <v>0.205352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210157</v>
+        <v>0.212773</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.212975</v>
+        <v>0.22586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.204007</v>
+        <v>0.209217</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215306</v>
+        <v>0.218838</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.217308</v>
+        <v>0.232992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.169551</v>
+        <v>0.172752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.180913</v>
+        <v>0.183479</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222895</v>
+        <v>0.2376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.172872</v>
+        <v>0.17727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.186517</v>
+        <v>0.189286</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22872</v>
+        <v>0.244578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.17676</v>
+        <v>0.181181</v>
       </c>
       <c r="D9" t="n">
-        <v>0.190487</v>
+        <v>0.192835</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234046</v>
+        <v>0.25125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181367</v>
+        <v>0.185668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193028</v>
+        <v>0.196728</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.239921</v>
+        <v>0.256286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.183767</v>
+        <v>0.190371</v>
       </c>
       <c r="D11" t="n">
-        <v>0.19731</v>
+        <v>0.20139</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.247728</v>
+        <v>0.264315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190769</v>
+        <v>0.196424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.203462</v>
+        <v>0.206254</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.252985</v>
+        <v>0.268754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.194768</v>
+        <v>0.199399</v>
       </c>
       <c r="D13" t="n">
-        <v>0.207683</v>
+        <v>0.210679</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258214</v>
+        <v>0.275096</v>
       </c>
       <c r="C14" t="n">
-        <v>0.198879</v>
+        <v>0.203418</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211743</v>
+        <v>0.21436</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26549</v>
+        <v>0.283145</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204433</v>
+        <v>0.20826</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217546</v>
+        <v>0.220882</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269634</v>
+        <v>0.287763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20756</v>
+        <v>0.21243</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220431</v>
+        <v>0.224602</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276541</v>
+        <v>0.294601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212523</v>
+        <v>0.217493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226065</v>
+        <v>0.229634</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.230907</v>
+        <v>0.250006</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216232</v>
+        <v>0.220764</v>
       </c>
       <c r="D18" t="n">
-        <v>0.228827</v>
+        <v>0.232901</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.235134</v>
+        <v>0.253939</v>
       </c>
       <c r="C19" t="n">
-        <v>0.220291</v>
+        <v>0.225051</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234199</v>
+        <v>0.238134</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239287</v>
+        <v>0.258806</v>
       </c>
       <c r="C20" t="n">
-        <v>0.225484</v>
+        <v>0.228501</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24041</v>
+        <v>0.243992</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2437</v>
+        <v>0.263484</v>
       </c>
       <c r="C21" t="n">
-        <v>0.189652</v>
+        <v>0.193573</v>
       </c>
       <c r="D21" t="n">
-        <v>0.203504</v>
+        <v>0.205784</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248462</v>
+        <v>0.268507</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193257</v>
+        <v>0.197867</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207716</v>
+        <v>0.210121</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25261</v>
+        <v>0.27339</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196278</v>
+        <v>0.201173</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21104</v>
+        <v>0.213729</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.257597</v>
+        <v>0.278049</v>
       </c>
       <c r="C24" t="n">
-        <v>0.199288</v>
+        <v>0.204722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214668</v>
+        <v>0.217501</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.262443</v>
+        <v>0.283219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.20289</v>
+        <v>0.207874</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218334</v>
+        <v>0.221471</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.268723</v>
+        <v>0.289884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207111</v>
+        <v>0.212612</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223162</v>
+        <v>0.225683</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273722</v>
+        <v>0.295352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210915</v>
+        <v>0.216797</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226967</v>
+        <v>0.229911</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278838</v>
+        <v>0.30015</v>
       </c>
       <c r="C28" t="n">
-        <v>0.215917</v>
+        <v>0.221941</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231222</v>
+        <v>0.234699</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283798</v>
+        <v>0.305267</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220633</v>
+        <v>0.22714</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236434</v>
+        <v>0.239635</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.289302</v>
+        <v>0.311782</v>
       </c>
       <c r="C30" t="n">
-        <v>0.224717</v>
+        <v>0.231199</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240691</v>
+        <v>0.244005</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29454</v>
+        <v>0.316497</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229308</v>
+        <v>0.235707</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244718</v>
+        <v>0.248085</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24244</v>
+        <v>0.265382</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233152</v>
+        <v>0.239436</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248529</v>
+        <v>0.252148</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2462</v>
+        <v>0.268975</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237909</v>
+        <v>0.244139</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253554</v>
+        <v>0.257355</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249428</v>
+        <v>0.271913</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241647</v>
+        <v>0.24756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.257651</v>
+        <v>0.26106</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.253198</v>
+        <v>0.275964</v>
       </c>
       <c r="C35" t="n">
-        <v>0.198294</v>
+        <v>0.202706</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208959</v>
+        <v>0.212421</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.257093</v>
+        <v>0.280429</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200639</v>
+        <v>0.205422</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212047</v>
+        <v>0.21552</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.261154</v>
+        <v>0.284318</v>
       </c>
       <c r="C37" t="n">
-        <v>0.203532</v>
+        <v>0.208575</v>
       </c>
       <c r="D37" t="n">
-        <v>0.215414</v>
+        <v>0.219043</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.265282</v>
+        <v>0.289112</v>
       </c>
       <c r="C38" t="n">
-        <v>0.206966</v>
+        <v>0.212208</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219503</v>
+        <v>0.223201</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.26981</v>
+        <v>0.293654</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210922</v>
+        <v>0.215887</v>
       </c>
       <c r="D39" t="n">
-        <v>0.223509</v>
+        <v>0.227211</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274709</v>
+        <v>0.298671</v>
       </c>
       <c r="C40" t="n">
-        <v>0.214656</v>
+        <v>0.220156</v>
       </c>
       <c r="D40" t="n">
-        <v>0.227664</v>
+        <v>0.231301</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27947</v>
+        <v>0.303471</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218801</v>
+        <v>0.224567</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231958</v>
+        <v>0.235402</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.28449</v>
+        <v>0.308796</v>
       </c>
       <c r="C42" t="n">
-        <v>0.222545</v>
+        <v>0.228585</v>
       </c>
       <c r="D42" t="n">
-        <v>0.236059</v>
+        <v>0.239085</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289844</v>
+        <v>0.31396</v>
       </c>
       <c r="C43" t="n">
-        <v>0.227063</v>
+        <v>0.233132</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24084</v>
+        <v>0.243368</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295103</v>
+        <v>0.31928</v>
       </c>
       <c r="C44" t="n">
-        <v>0.231611</v>
+        <v>0.238064</v>
       </c>
       <c r="D44" t="n">
-        <v>0.244521</v>
+        <v>0.248229</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300124</v>
+        <v>0.324197</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236079</v>
+        <v>0.242679</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248668</v>
+        <v>0.252295</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.30469</v>
+        <v>0.328953</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239942</v>
+        <v>0.246693</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252841</v>
+        <v>0.25638</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250735</v>
+        <v>0.275725</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244776</v>
+        <v>0.251058</v>
       </c>
       <c r="D47" t="n">
-        <v>0.257225</v>
+        <v>0.260536</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253525</v>
+        <v>0.278769</v>
       </c>
       <c r="C48" t="n">
-        <v>0.248646</v>
+        <v>0.255058</v>
       </c>
       <c r="D48" t="n">
-        <v>0.261141</v>
+        <v>0.264287</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25691</v>
+        <v>0.282416</v>
       </c>
       <c r="C49" t="n">
-        <v>0.253018</v>
+        <v>0.259177</v>
       </c>
       <c r="D49" t="n">
-        <v>0.265425</v>
+        <v>0.268334</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.260829</v>
+        <v>0.286276</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205605</v>
+        <v>0.210667</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214275</v>
+        <v>0.217733</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.264641</v>
+        <v>0.29008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.208503</v>
+        <v>0.213882</v>
       </c>
       <c r="D51" t="n">
-        <v>0.217212</v>
+        <v>0.221134</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.268889</v>
+        <v>0.294602</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211681</v>
+        <v>0.216935</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220856</v>
+        <v>0.224503</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273537</v>
+        <v>0.29945</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214964</v>
+        <v>0.220607</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22458</v>
+        <v>0.228103</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.278192</v>
+        <v>0.304009</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218474</v>
+        <v>0.224426</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228116</v>
+        <v>0.231615</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283412</v>
+        <v>0.308788</v>
       </c>
       <c r="C55" t="n">
-        <v>0.222171</v>
+        <v>0.22824</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231767</v>
+        <v>0.235631</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.28871</v>
+        <v>0.314146</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226337</v>
+        <v>0.232769</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236146</v>
+        <v>0.239876</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.293774</v>
+        <v>0.319823</v>
       </c>
       <c r="C57" t="n">
-        <v>0.230997</v>
+        <v>0.237576</v>
       </c>
       <c r="D57" t="n">
-        <v>0.240428</v>
+        <v>0.244047</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.298437</v>
+        <v>0.324023</v>
       </c>
       <c r="C58" t="n">
-        <v>0.235401</v>
+        <v>0.242032</v>
       </c>
       <c r="D58" t="n">
-        <v>0.244466</v>
+        <v>0.248246</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303397</v>
+        <v>0.328913</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24034</v>
+        <v>0.246957</v>
       </c>
       <c r="D59" t="n">
-        <v>0.249036</v>
+        <v>0.252541</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309005</v>
+        <v>0.33486</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244489</v>
+        <v>0.251566</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253343</v>
+        <v>0.257178</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.256799</v>
+        <v>0.28631</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249395</v>
+        <v>0.256074</v>
       </c>
       <c r="D61" t="n">
-        <v>0.257677</v>
+        <v>0.261089</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25783</v>
+        <v>0.28788</v>
       </c>
       <c r="C62" t="n">
-        <v>0.25357</v>
+        <v>0.260095</v>
       </c>
       <c r="D62" t="n">
-        <v>0.262122</v>
+        <v>0.265628</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.269535</v>
+        <v>0.298651</v>
       </c>
       <c r="C63" t="n">
-        <v>0.258811</v>
+        <v>0.264412</v>
       </c>
       <c r="D63" t="n">
-        <v>0.266564</v>
+        <v>0.269983</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.27478</v>
+        <v>0.304699</v>
       </c>
       <c r="C64" t="n">
-        <v>0.214846</v>
+        <v>0.219826</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223247</v>
+        <v>0.225698</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279189</v>
+        <v>0.30701</v>
       </c>
       <c r="C65" t="n">
-        <v>0.219157</v>
+        <v>0.223962</v>
       </c>
       <c r="D65" t="n">
-        <v>0.227712</v>
+        <v>0.231051</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.283648</v>
+        <v>0.318453</v>
       </c>
       <c r="C66" t="n">
-        <v>0.223673</v>
+        <v>0.232318</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232202</v>
+        <v>0.235604</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2934</v>
+        <v>0.325864</v>
       </c>
       <c r="C67" t="n">
-        <v>0.227814</v>
+        <v>0.236649</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23666</v>
+        <v>0.242838</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.29751</v>
+        <v>0.339454</v>
       </c>
       <c r="C68" t="n">
-        <v>0.232698</v>
+        <v>0.243523</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241767</v>
+        <v>0.247242</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.306412</v>
+        <v>0.343184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238526</v>
+        <v>0.249618</v>
       </c>
       <c r="D69" t="n">
-        <v>0.247594</v>
+        <v>0.251842</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.316218</v>
+        <v>0.35735</v>
       </c>
       <c r="C70" t="n">
-        <v>0.245182</v>
+        <v>0.254399</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253202</v>
+        <v>0.258299</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327313</v>
+        <v>0.36863</v>
       </c>
       <c r="C71" t="n">
-        <v>0.250547</v>
+        <v>0.260649</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258706</v>
+        <v>0.264392</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.337303</v>
+        <v>0.380003</v>
       </c>
       <c r="C72" t="n">
-        <v>0.25759</v>
+        <v>0.268233</v>
       </c>
       <c r="D72" t="n">
-        <v>0.265315</v>
+        <v>0.272424</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349441</v>
+        <v>0.392363</v>
       </c>
       <c r="C73" t="n">
-        <v>0.265151</v>
+        <v>0.276971</v>
       </c>
       <c r="D73" t="n">
-        <v>0.273273</v>
+        <v>0.280932</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.360956</v>
+        <v>0.408354</v>
       </c>
       <c r="C74" t="n">
-        <v>0.272773</v>
+        <v>0.285835</v>
       </c>
       <c r="D74" t="n">
-        <v>0.281258</v>
+        <v>0.289842</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.373675</v>
+        <v>0.424225</v>
       </c>
       <c r="C75" t="n">
-        <v>0.282797</v>
+        <v>0.294547</v>
       </c>
       <c r="D75" t="n">
-        <v>0.290091</v>
+        <v>0.297986</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.397093</v>
+        <v>0.492224</v>
       </c>
       <c r="C76" t="n">
-        <v>0.294144</v>
+        <v>0.306353</v>
       </c>
       <c r="D76" t="n">
-        <v>0.302379</v>
+        <v>0.307696</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.413295</v>
+        <v>0.50432</v>
       </c>
       <c r="C77" t="n">
-        <v>0.301841</v>
+        <v>0.317283</v>
       </c>
       <c r="D77" t="n">
-        <v>0.307019</v>
+        <v>0.321118</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.432281</v>
+        <v>0.519981</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294774</v>
+        <v>0.311735</v>
       </c>
       <c r="D78" t="n">
-        <v>0.300304</v>
+        <v>0.317253</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.447131</v>
+        <v>0.526932</v>
       </c>
       <c r="C79" t="n">
-        <v>0.303242</v>
+        <v>0.319244</v>
       </c>
       <c r="D79" t="n">
-        <v>0.314554</v>
+        <v>0.324862</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.461385</v>
+        <v>0.552871</v>
       </c>
       <c r="C80" t="n">
-        <v>0.317524</v>
+        <v>0.334574</v>
       </c>
       <c r="D80" t="n">
-        <v>0.327695</v>
+        <v>0.343246</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.476834</v>
+        <v>0.575322</v>
       </c>
       <c r="C81" t="n">
-        <v>0.330046</v>
+        <v>0.34898</v>
       </c>
       <c r="D81" t="n">
-        <v>0.338772</v>
+        <v>0.352998</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.496565</v>
+        <v>0.5996629999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.343994</v>
+        <v>0.360539</v>
       </c>
       <c r="D82" t="n">
-        <v>0.352881</v>
+        <v>0.368939</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5158470000000001</v>
+        <v>0.620528</v>
       </c>
       <c r="C83" t="n">
-        <v>0.355859</v>
+        <v>0.377176</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368681</v>
+        <v>0.384981</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.535542</v>
+        <v>0.6433489999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372442</v>
+        <v>0.396716</v>
       </c>
       <c r="D84" t="n">
-        <v>0.37792</v>
+        <v>0.40008</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.553814</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.38646</v>
+        <v>0.416332</v>
       </c>
       <c r="D85" t="n">
-        <v>0.395585</v>
+        <v>0.419015</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.577516</v>
+        <v>0.692954</v>
       </c>
       <c r="C86" t="n">
-        <v>0.402919</v>
+        <v>0.432809</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410315</v>
+        <v>0.437365</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.598969</v>
+        <v>0.714652</v>
       </c>
       <c r="C87" t="n">
-        <v>0.418295</v>
+        <v>0.446849</v>
       </c>
       <c r="D87" t="n">
-        <v>0.42782</v>
+        <v>0.45675</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.622405</v>
+        <v>0.742034</v>
       </c>
       <c r="C88" t="n">
-        <v>0.435839</v>
+        <v>0.46732</v>
       </c>
       <c r="D88" t="n">
-        <v>0.447596</v>
+        <v>0.47733</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.645375</v>
+        <v>0.769325</v>
       </c>
       <c r="C89" t="n">
-        <v>0.452443</v>
+        <v>0.48458</v>
       </c>
       <c r="D89" t="n">
-        <v>0.465145</v>
+        <v>0.495441</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.668755</v>
+        <v>0.862411</v>
       </c>
       <c r="C90" t="n">
-        <v>0.469943</v>
+        <v>0.499236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.483556</v>
+        <v>0.5166230000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.678345</v>
+        <v>0.87216</v>
       </c>
       <c r="C91" t="n">
-        <v>0.487663</v>
+        <v>0.520328</v>
       </c>
       <c r="D91" t="n">
-        <v>0.495191</v>
+        <v>0.524385</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.683235</v>
+        <v>0.881285</v>
       </c>
       <c r="C92" t="n">
-        <v>0.501232</v>
+        <v>0.543445</v>
       </c>
       <c r="D92" t="n">
-        <v>0.504471</v>
+        <v>0.542566</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.693666</v>
+        <v>0.892884</v>
       </c>
       <c r="C93" t="n">
-        <v>0.511165</v>
+        <v>0.555571</v>
       </c>
       <c r="D93" t="n">
-        <v>0.516889</v>
+        <v>0.55645</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.704206</v>
+        <v>0.903712</v>
       </c>
       <c r="C94" t="n">
-        <v>0.522065</v>
+        <v>0.567252</v>
       </c>
       <c r="D94" t="n">
-        <v>0.526474</v>
+        <v>0.567566</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.716264</v>
+        <v>0.918849</v>
       </c>
       <c r="C95" t="n">
-        <v>0.533828</v>
+        <v>0.580611</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5407459999999999</v>
+        <v>0.583071</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.728881</v>
+        <v>0.930172</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5458769999999999</v>
+        <v>0.59256</v>
       </c>
       <c r="D96" t="n">
-        <v>0.553407</v>
+        <v>0.597838</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.741937</v>
+        <v>0.94542</v>
       </c>
       <c r="C97" t="n">
-        <v>0.558476</v>
+        <v>0.606171</v>
       </c>
       <c r="D97" t="n">
-        <v>0.56571</v>
+        <v>0.612198</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.758443</v>
+        <v>0.963291</v>
       </c>
       <c r="C98" t="n">
-        <v>0.572062</v>
+        <v>0.621801</v>
       </c>
       <c r="D98" t="n">
-        <v>0.58049</v>
+        <v>0.628594</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.774361</v>
+        <v>0.979473</v>
       </c>
       <c r="C99" t="n">
-        <v>0.585809</v>
+        <v>0.636215</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5929450000000001</v>
+        <v>0.641651</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.79187</v>
+        <v>0.996938</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5996359999999999</v>
+        <v>0.65183</v>
       </c>
       <c r="D100" t="n">
-        <v>0.608125</v>
+        <v>0.656335</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.80968</v>
+        <v>1.01404</v>
       </c>
       <c r="C101" t="n">
-        <v>0.614102</v>
+        <v>0.667164</v>
       </c>
       <c r="D101" t="n">
-        <v>0.622231</v>
+        <v>0.672489</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828535</v>
+        <v>1.03257</v>
       </c>
       <c r="C102" t="n">
-        <v>0.628991</v>
+        <v>0.683667</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637653</v>
+        <v>0.690078</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.848726</v>
+        <v>1.05218</v>
       </c>
       <c r="C103" t="n">
-        <v>0.644319</v>
+        <v>0.699478</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652634</v>
+        <v>0.706499</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.869305</v>
+        <v>1.0734</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6596610000000001</v>
+        <v>0.716984</v>
       </c>
       <c r="D104" t="n">
-        <v>0.667466</v>
+        <v>0.722984</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.793404</v>
+        <v>1.06116</v>
       </c>
       <c r="C105" t="n">
-        <v>0.676006</v>
+        <v>0.734287</v>
       </c>
       <c r="D105" t="n">
-        <v>0.687389</v>
+        <v>0.7458979999999999</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.800293</v>
+        <v>1.06764</v>
       </c>
       <c r="C106" t="n">
-        <v>0.691945</v>
+        <v>0.7519479999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.706265</v>
+        <v>0.7672020000000001</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.807627</v>
+        <v>1.07534</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6424029999999999</v>
+        <v>0.708647</v>
       </c>
       <c r="D107" t="n">
-        <v>0.648173</v>
+        <v>0.707157</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.816919</v>
+        <v>1.08457</v>
       </c>
       <c r="C108" t="n">
-        <v>0.653409</v>
+        <v>0.7194120000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.658219</v>
+        <v>0.718919</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.826592</v>
+        <v>1.09466</v>
       </c>
       <c r="C109" t="n">
-        <v>0.66422</v>
+        <v>0.731545</v>
       </c>
       <c r="D109" t="n">
-        <v>0.669756</v>
+        <v>0.731621</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.837611</v>
+        <v>1.10514</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6760699999999999</v>
+        <v>0.744425</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6818149999999999</v>
+        <v>0.744283</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.849244</v>
+        <v>1.11738</v>
       </c>
       <c r="C111" t="n">
-        <v>0.688188</v>
+        <v>0.757211</v>
       </c>
       <c r="D111" t="n">
-        <v>0.692881</v>
+        <v>0.756997</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.863048</v>
+        <v>1.13044</v>
       </c>
       <c r="C112" t="n">
-        <v>0.70104</v>
+        <v>0.77073</v>
       </c>
       <c r="D112" t="n">
-        <v>0.706774</v>
+        <v>0.77129</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.877786</v>
+        <v>1.14474</v>
       </c>
       <c r="C113" t="n">
-        <v>0.714124</v>
+        <v>0.7836419999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.719211</v>
+        <v>0.78551</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.893455</v>
+        <v>1.15878</v>
       </c>
       <c r="C114" t="n">
-        <v>0.727695</v>
+        <v>0.798658</v>
       </c>
       <c r="D114" t="n">
-        <v>0.734007</v>
+        <v>0.8016799999999999</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.910897</v>
+        <v>1.17412</v>
       </c>
       <c r="C115" t="n">
-        <v>0.741545</v>
+        <v>0.813072</v>
       </c>
       <c r="D115" t="n">
-        <v>0.749346</v>
+        <v>0.818269</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.929443</v>
+        <v>1.19093</v>
       </c>
       <c r="C116" t="n">
-        <v>0.756043</v>
+        <v>0.8295979999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.76108</v>
+        <v>0.830844</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9491309999999999</v>
+        <v>1.20879</v>
       </c>
       <c r="C117" t="n">
-        <v>0.771092</v>
+        <v>0.845445</v>
       </c>
       <c r="D117" t="n">
-        <v>0.775362</v>
+        <v>0.846228</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.970228</v>
+        <v>1.22692</v>
       </c>
       <c r="C118" t="n">
-        <v>0.785657</v>
+        <v>0.861135</v>
       </c>
       <c r="D118" t="n">
-        <v>0.792417</v>
+        <v>0.866532</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.856711</v>
+        <v>1.16168</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8012550000000001</v>
+        <v>0.8784690000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.806361</v>
+        <v>0.88173</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24959</v>
+        <v>0.256307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.16888</v>
+        <v>0.164121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155381</v>
+        <v>0.15326</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.220048</v>
+        <v>0.227698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.174513</v>
+        <v>0.167737</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154235</v>
+        <v>0.151912</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224404</v>
+        <v>0.232591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.17727</v>
+        <v>0.172648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15928</v>
+        <v>0.158034</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22957</v>
+        <v>0.237747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183346</v>
+        <v>0.177735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163299</v>
+        <v>0.160687</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230909</v>
+        <v>0.239017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.190146</v>
+        <v>0.18347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.168722</v>
+        <v>0.165109</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23332</v>
+        <v>0.244197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.170974</v>
+        <v>0.16625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162843</v>
+        <v>0.158758</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.237571</v>
+        <v>0.246617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178752</v>
+        <v>0.170969</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168192</v>
+        <v>0.163455</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.239667</v>
+        <v>0.248299</v>
       </c>
       <c r="C9" t="n">
-        <v>0.185553</v>
+        <v>0.174135</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170581</v>
+        <v>0.165928</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.244118</v>
+        <v>0.25015</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18556</v>
+        <v>0.176793</v>
       </c>
       <c r="D10" t="n">
-        <v>0.171227</v>
+        <v>0.165687</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244289</v>
+        <v>0.249877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.185841</v>
+        <v>0.174079</v>
       </c>
       <c r="D11" t="n">
-        <v>0.173389</v>
+        <v>0.164929</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257027</v>
+        <v>0.264381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.193359</v>
+        <v>0.183869</v>
       </c>
       <c r="D12" t="n">
-        <v>0.177013</v>
+        <v>0.170476</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25864</v>
+        <v>0.267648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19205</v>
+        <v>0.183178</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178066</v>
+        <v>0.172666</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.257868</v>
+        <v>0.26761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.198084</v>
+        <v>0.185982</v>
       </c>
       <c r="D14" t="n">
-        <v>0.178926</v>
+        <v>0.172257</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267572</v>
+        <v>0.277782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.199436</v>
+        <v>0.188747</v>
       </c>
       <c r="D15" t="n">
-        <v>0.178471</v>
+        <v>0.176197</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.271998</v>
+        <v>0.283752</v>
       </c>
       <c r="C16" t="n">
-        <v>0.203368</v>
+        <v>0.192486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.186076</v>
+        <v>0.175698</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277155</v>
+        <v>0.291283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208427</v>
+        <v>0.19795</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1859</v>
+        <v>0.179888</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253778</v>
+        <v>0.271494</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215996</v>
+        <v>0.201327</v>
       </c>
       <c r="D18" t="n">
-        <v>0.186595</v>
+        <v>0.179713</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26066</v>
+        <v>0.27668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.218606</v>
+        <v>0.204089</v>
       </c>
       <c r="D19" t="n">
-        <v>0.190842</v>
+        <v>0.184865</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264719</v>
+        <v>0.286676</v>
       </c>
       <c r="C20" t="n">
-        <v>0.226756</v>
+        <v>0.215655</v>
       </c>
       <c r="D20" t="n">
-        <v>0.193102</v>
+        <v>0.186561</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272754</v>
+        <v>0.29405</v>
       </c>
       <c r="C21" t="n">
-        <v>0.203251</v>
+        <v>0.200097</v>
       </c>
       <c r="D21" t="n">
-        <v>0.193962</v>
+        <v>0.187816</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.273374</v>
+        <v>0.295311</v>
       </c>
       <c r="C22" t="n">
-        <v>0.213883</v>
+        <v>0.206526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.197049</v>
+        <v>0.190237</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.278182</v>
+        <v>0.300079</v>
       </c>
       <c r="C23" t="n">
-        <v>0.217253</v>
+        <v>0.209584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19887</v>
+        <v>0.191522</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.280511</v>
+        <v>0.304451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226541</v>
+        <v>0.218368</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200894</v>
+        <v>0.196687</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284037</v>
+        <v>0.307647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.233857</v>
+        <v>0.227336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203887</v>
+        <v>0.199783</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292535</v>
+        <v>0.316923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.234467</v>
+        <v>0.22816</v>
       </c>
       <c r="D26" t="n">
-        <v>0.208553</v>
+        <v>0.20362</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29456</v>
+        <v>0.318958</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24252</v>
+        <v>0.236772</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210225</v>
+        <v>0.207247</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297419</v>
+        <v>0.321697</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24388</v>
+        <v>0.238767</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212277</v>
+        <v>0.20931</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306638</v>
+        <v>0.331462</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249645</v>
+        <v>0.244104</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214888</v>
+        <v>0.211603</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310931</v>
+        <v>0.335145</v>
       </c>
       <c r="C30" t="n">
-        <v>0.259741</v>
+        <v>0.255852</v>
       </c>
       <c r="D30" t="n">
-        <v>0.220173</v>
+        <v>0.216381</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.314367</v>
+        <v>0.339195</v>
       </c>
       <c r="C31" t="n">
-        <v>0.257114</v>
+        <v>0.253541</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221177</v>
+        <v>0.218703</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280197</v>
+        <v>0.309053</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267474</v>
+        <v>0.262227</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224817</v>
+        <v>0.222677</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286243</v>
+        <v>0.314551</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275835</v>
+        <v>0.272077</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229141</v>
+        <v>0.227102</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291212</v>
+        <v>0.319639</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278584</v>
+        <v>0.275975</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232764</v>
+        <v>0.230486</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291986</v>
+        <v>0.320114</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220347</v>
+        <v>0.220418</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210955</v>
+        <v>0.208082</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.296724</v>
+        <v>0.324521</v>
       </c>
       <c r="C36" t="n">
-        <v>0.225738</v>
+        <v>0.225828</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211935</v>
+        <v>0.209382</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.303775</v>
+        <v>0.330773</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230309</v>
+        <v>0.229683</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214336</v>
+        <v>0.212097</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305975</v>
+        <v>0.333103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233053</v>
+        <v>0.233148</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216057</v>
+        <v>0.213855</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.312862</v>
+        <v>0.339486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.238666</v>
+        <v>0.238555</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219532</v>
+        <v>0.217408</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320822</v>
+        <v>0.348611</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24167</v>
+        <v>0.241796</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221478</v>
+        <v>0.219198</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326779</v>
+        <v>0.353318</v>
       </c>
       <c r="C41" t="n">
-        <v>0.246721</v>
+        <v>0.245029</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223457</v>
+        <v>0.220843</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331016</v>
+        <v>0.356732</v>
       </c>
       <c r="C42" t="n">
-        <v>0.247854</v>
+        <v>0.246314</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224566</v>
+        <v>0.222844</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.336971</v>
+        <v>0.36302</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25248</v>
+        <v>0.251574</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227301</v>
+        <v>0.225661</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340004</v>
+        <v>0.364892</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25697</v>
+        <v>0.255192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228867</v>
+        <v>0.227073</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.34814</v>
+        <v>0.373248</v>
       </c>
       <c r="C45" t="n">
-        <v>0.259521</v>
+        <v>0.257668</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230882</v>
+        <v>0.229129</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.349192</v>
+        <v>0.373706</v>
       </c>
       <c r="C46" t="n">
-        <v>0.260156</v>
+        <v>0.258924</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232832</v>
+        <v>0.231457</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.289032</v>
+        <v>0.312752</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265693</v>
+        <v>0.264881</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234538</v>
+        <v>0.232958</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.293648</v>
+        <v>0.320734</v>
       </c>
       <c r="C48" t="n">
-        <v>0.270599</v>
+        <v>0.270427</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236051</v>
+        <v>0.234086</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.297364</v>
+        <v>0.324356</v>
       </c>
       <c r="C49" t="n">
-        <v>0.274416</v>
+        <v>0.272978</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239019</v>
+        <v>0.237741</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.300844</v>
+        <v>0.32697</v>
       </c>
       <c r="C50" t="n">
-        <v>0.245172</v>
+        <v>0.244856</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224748</v>
+        <v>0.223713</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.304246</v>
+        <v>0.329801</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247332</v>
+        <v>0.247322</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226147</v>
+        <v>0.221976</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.306327</v>
+        <v>0.330041</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250975</v>
+        <v>0.25047</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227746</v>
+        <v>0.226361</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312084</v>
+        <v>0.336655</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255275</v>
+        <v>0.255018</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229847</v>
+        <v>0.228919</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320658</v>
+        <v>0.339159</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259238</v>
+        <v>0.258692</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231941</v>
+        <v>0.231228</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31985</v>
+        <v>0.345576</v>
       </c>
       <c r="C55" t="n">
-        <v>0.26521</v>
+        <v>0.264418</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234428</v>
+        <v>0.233721</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325266</v>
+        <v>0.349867</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264022</v>
+        <v>0.263399</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234831</v>
+        <v>0.233743</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332892</v>
+        <v>0.356803</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272259</v>
+        <v>0.27132</v>
       </c>
       <c r="D57" t="n">
-        <v>0.23759</v>
+        <v>0.236433</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334423</v>
+        <v>0.3579</v>
       </c>
       <c r="C58" t="n">
-        <v>0.279369</v>
+        <v>0.278113</v>
       </c>
       <c r="D58" t="n">
-        <v>0.241041</v>
+        <v>0.239455</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.341757</v>
+        <v>0.36474</v>
       </c>
       <c r="C59" t="n">
-        <v>0.285496</v>
+        <v>0.284667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.244435</v>
+        <v>0.242857</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.34699</v>
+        <v>0.370009</v>
       </c>
       <c r="C60" t="n">
-        <v>0.289082</v>
+        <v>0.287941</v>
       </c>
       <c r="D60" t="n">
-        <v>0.247543</v>
+        <v>0.24757</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.304677</v>
+        <v>0.328574</v>
       </c>
       <c r="C61" t="n">
-        <v>0.293974</v>
+        <v>0.29385</v>
       </c>
       <c r="D61" t="n">
-        <v>0.248894</v>
+        <v>0.247813</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.312402</v>
+        <v>0.335121</v>
       </c>
       <c r="C62" t="n">
-        <v>0.298458</v>
+        <v>0.297975</v>
       </c>
       <c r="D62" t="n">
-        <v>0.250287</v>
+        <v>0.249549</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.319665</v>
+        <v>0.338489</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303186</v>
+        <v>0.302964</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25411</v>
+        <v>0.253596</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.324341</v>
+        <v>0.346601</v>
       </c>
       <c r="C64" t="n">
-        <v>0.269521</v>
+        <v>0.268653</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243274</v>
+        <v>0.242464</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.329042</v>
+        <v>0.353533</v>
       </c>
       <c r="C65" t="n">
-        <v>0.273642</v>
+        <v>0.272888</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241489</v>
+        <v>0.240192</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.335506</v>
+        <v>0.357825</v>
       </c>
       <c r="C66" t="n">
-        <v>0.275997</v>
+        <v>0.275342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242921</v>
+        <v>0.241689</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.340974</v>
+        <v>0.369577</v>
       </c>
       <c r="C67" t="n">
-        <v>0.283272</v>
+        <v>0.282315</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24654</v>
+        <v>0.242952</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350116</v>
+        <v>0.371848</v>
       </c>
       <c r="C68" t="n">
-        <v>0.287253</v>
+        <v>0.286519</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248966</v>
+        <v>0.247318</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.356925</v>
+        <v>0.38278</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292215</v>
+        <v>0.289961</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251953</v>
+        <v>0.250736</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368206</v>
+        <v>0.386034</v>
       </c>
       <c r="C70" t="n">
-        <v>0.299344</v>
+        <v>0.297322</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255832</v>
+        <v>0.254788</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.377456</v>
+        <v>0.398236</v>
       </c>
       <c r="C71" t="n">
-        <v>0.306752</v>
+        <v>0.304884</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259309</v>
+        <v>0.257731</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.385207</v>
+        <v>0.408002</v>
       </c>
       <c r="C72" t="n">
-        <v>0.315104</v>
+        <v>0.311783</v>
       </c>
       <c r="D72" t="n">
-        <v>0.263607</v>
+        <v>0.262096</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.405208</v>
+        <v>0.420425</v>
       </c>
       <c r="C73" t="n">
-        <v>0.323241</v>
+        <v>0.31939</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268432</v>
+        <v>0.267423</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.413246</v>
+        <v>0.431132</v>
       </c>
       <c r="C74" t="n">
-        <v>0.32953</v>
+        <v>0.324947</v>
       </c>
       <c r="D74" t="n">
-        <v>0.269778</v>
+        <v>0.26658</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.429614</v>
+        <v>0.453336</v>
       </c>
       <c r="C75" t="n">
-        <v>0.33808</v>
+        <v>0.331817</v>
       </c>
       <c r="D75" t="n">
-        <v>0.274764</v>
+        <v>0.270571</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.426004</v>
+        <v>0.461975</v>
       </c>
       <c r="C76" t="n">
-        <v>0.347986</v>
+        <v>0.34131</v>
       </c>
       <c r="D76" t="n">
-        <v>0.281077</v>
+        <v>0.279288</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.452329</v>
+        <v>0.478514</v>
       </c>
       <c r="C77" t="n">
-        <v>0.355527</v>
+        <v>0.351905</v>
       </c>
       <c r="D77" t="n">
-        <v>0.281596</v>
+        <v>0.281237</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.469623</v>
+        <v>0.505615</v>
       </c>
       <c r="C78" t="n">
-        <v>0.321167</v>
+        <v>0.328573</v>
       </c>
       <c r="D78" t="n">
-        <v>0.278748</v>
+        <v>0.280378</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.496201</v>
+        <v>0.538451</v>
       </c>
       <c r="C79" t="n">
-        <v>0.33139</v>
+        <v>0.336314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.285034</v>
+        <v>0.280995</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.52064</v>
+        <v>0.562136</v>
       </c>
       <c r="C80" t="n">
-        <v>0.347325</v>
+        <v>0.365967</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290002</v>
+        <v>0.297596</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5434639999999999</v>
+        <v>0.601086</v>
       </c>
       <c r="C81" t="n">
-        <v>0.362451</v>
+        <v>0.372211</v>
       </c>
       <c r="D81" t="n">
-        <v>0.298652</v>
+        <v>0.298845</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.572749</v>
+        <v>0.6257470000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.378781</v>
+        <v>0.397848</v>
       </c>
       <c r="D82" t="n">
-        <v>0.303432</v>
+        <v>0.309183</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.615381</v>
+        <v>0.665191</v>
       </c>
       <c r="C83" t="n">
-        <v>0.396928</v>
+        <v>0.416529</v>
       </c>
       <c r="D83" t="n">
-        <v>0.310818</v>
+        <v>0.320156</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.655907</v>
+        <v>0.712527</v>
       </c>
       <c r="C84" t="n">
-        <v>0.421112</v>
+        <v>0.437568</v>
       </c>
       <c r="D84" t="n">
-        <v>0.322399</v>
+        <v>0.326433</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.695415</v>
+        <v>0.756815</v>
       </c>
       <c r="C85" t="n">
-        <v>0.444255</v>
+        <v>0.465742</v>
       </c>
       <c r="D85" t="n">
-        <v>0.338839</v>
+        <v>0.342007</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.739579</v>
+        <v>0.796704</v>
       </c>
       <c r="C86" t="n">
-        <v>0.463889</v>
+        <v>0.48371</v>
       </c>
       <c r="D86" t="n">
-        <v>0.348641</v>
+        <v>0.355519</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.773325</v>
+        <v>0.842391</v>
       </c>
       <c r="C87" t="n">
-        <v>0.489795</v>
+        <v>0.509274</v>
       </c>
       <c r="D87" t="n">
-        <v>0.360224</v>
+        <v>0.367831</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818187</v>
+        <v>0.8885150000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.515649</v>
+        <v>0.540412</v>
       </c>
       <c r="D88" t="n">
-        <v>0.378066</v>
+        <v>0.385708</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.869306</v>
+        <v>0.951176</v>
       </c>
       <c r="C89" t="n">
-        <v>0.54652</v>
+        <v>0.573477</v>
       </c>
       <c r="D89" t="n">
-        <v>0.386553</v>
+        <v>0.40298</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.866748</v>
+        <v>0.957412</v>
       </c>
       <c r="C90" t="n">
-        <v>0.575761</v>
+        <v>0.61106</v>
       </c>
       <c r="D90" t="n">
-        <v>0.401183</v>
+        <v>0.417024</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9047269999999999</v>
+        <v>0.996336</v>
       </c>
       <c r="C91" t="n">
-        <v>0.606007</v>
+        <v>0.648024</v>
       </c>
       <c r="D91" t="n">
-        <v>0.422399</v>
+        <v>0.442379</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9336140000000001</v>
+        <v>1.03272</v>
       </c>
       <c r="C92" t="n">
-        <v>0.618404</v>
+        <v>0.661196</v>
       </c>
       <c r="D92" t="n">
-        <v>0.504112</v>
+        <v>0.532749</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.965863</v>
+        <v>1.0694</v>
       </c>
       <c r="C93" t="n">
-        <v>0.643734</v>
+        <v>0.687383</v>
       </c>
       <c r="D93" t="n">
-        <v>0.523014</v>
+        <v>0.551634</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00122</v>
+        <v>1.11099</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6699889999999999</v>
+        <v>0.720967</v>
       </c>
       <c r="D94" t="n">
-        <v>0.536989</v>
+        <v>0.570781</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03729</v>
+        <v>1.14825</v>
       </c>
       <c r="C95" t="n">
-        <v>0.696205</v>
+        <v>0.747434</v>
       </c>
       <c r="D95" t="n">
-        <v>0.555836</v>
+        <v>0.589658</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07153</v>
+        <v>1.18842</v>
       </c>
       <c r="C96" t="n">
-        <v>0.722975</v>
+        <v>0.779824</v>
       </c>
       <c r="D96" t="n">
-        <v>0.573198</v>
+        <v>0.609859</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10814</v>
+        <v>1.23093</v>
       </c>
       <c r="C97" t="n">
-        <v>0.752907</v>
+        <v>0.8122740000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.594973</v>
+        <v>0.634261</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.1435</v>
+        <v>1.26833</v>
       </c>
       <c r="C98" t="n">
-        <v>0.780823</v>
+        <v>0.843608</v>
       </c>
       <c r="D98" t="n">
-        <v>0.614044</v>
+        <v>0.6573909999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.17693</v>
+        <v>1.30773</v>
       </c>
       <c r="C99" t="n">
-        <v>0.81336</v>
+        <v>0.87982</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6350789999999999</v>
+        <v>0.678582</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.21557</v>
+        <v>1.34886</v>
       </c>
       <c r="C100" t="n">
-        <v>0.843826</v>
+        <v>0.911572</v>
       </c>
       <c r="D100" t="n">
-        <v>0.655676</v>
+        <v>0.704377</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.25156</v>
+        <v>1.38901</v>
       </c>
       <c r="C101" t="n">
-        <v>0.869788</v>
+        <v>0.941127</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6763169999999999</v>
+        <v>0.726039</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28673</v>
+        <v>1.43065</v>
       </c>
       <c r="C102" t="n">
-        <v>0.903148</v>
+        <v>0.978484</v>
       </c>
       <c r="D102" t="n">
-        <v>0.696013</v>
+        <v>0.75017</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.3243</v>
+        <v>1.47273</v>
       </c>
       <c r="C103" t="n">
-        <v>0.930161</v>
+        <v>1.00897</v>
       </c>
       <c r="D103" t="n">
-        <v>0.71358</v>
+        <v>0.769519</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.36172</v>
+        <v>1.51254</v>
       </c>
       <c r="C104" t="n">
-        <v>0.959886</v>
+        <v>1.0402</v>
       </c>
       <c r="D104" t="n">
-        <v>0.736638</v>
+        <v>0.794847</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.25098</v>
+        <v>1.3931</v>
       </c>
       <c r="C105" t="n">
-        <v>0.99417</v>
+        <v>1.07985</v>
       </c>
       <c r="D105" t="n">
-        <v>0.752244</v>
+        <v>0.812835</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.2729</v>
+        <v>1.41836</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02704</v>
+        <v>1.11287</v>
       </c>
       <c r="D106" t="n">
-        <v>0.778197</v>
+        <v>0.83971</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.29575</v>
+        <v>1.44448</v>
       </c>
       <c r="C107" t="n">
-        <v>0.918753</v>
+        <v>1.00293</v>
       </c>
       <c r="D107" t="n">
-        <v>0.785697</v>
+        <v>0.853122</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.32012</v>
+        <v>1.47098</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9407799999999999</v>
+        <v>1.0245</v>
       </c>
       <c r="D108" t="n">
-        <v>0.801599</v>
+        <v>0.869739</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.3417</v>
+        <v>1.49797</v>
       </c>
       <c r="C109" t="n">
-        <v>0.963278</v>
+        <v>1.05241</v>
       </c>
       <c r="D109" t="n">
-        <v>0.817174</v>
+        <v>0.890087</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36632</v>
+        <v>1.52684</v>
       </c>
       <c r="C110" t="n">
-        <v>0.983993</v>
+        <v>1.07568</v>
       </c>
       <c r="D110" t="n">
-        <v>0.832566</v>
+        <v>0.907148</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38991</v>
+        <v>1.55488</v>
       </c>
       <c r="C111" t="n">
-        <v>1.00221</v>
+        <v>1.09868</v>
       </c>
       <c r="D111" t="n">
-        <v>0.845879</v>
+        <v>0.923038</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.41593</v>
+        <v>1.58819</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02931</v>
+        <v>1.12836</v>
       </c>
       <c r="D112" t="n">
-        <v>0.860378</v>
+        <v>0.939877</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4464</v>
+        <v>1.62017</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05468</v>
+        <v>1.15622</v>
       </c>
       <c r="D113" t="n">
-        <v>0.877627</v>
+        <v>0.957726</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.47552</v>
+        <v>1.65278</v>
       </c>
       <c r="C114" t="n">
-        <v>1.07882</v>
+        <v>1.18382</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8897040000000001</v>
+        <v>0.970309</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.50508</v>
+        <v>1.68681</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1063</v>
+        <v>1.21311</v>
       </c>
       <c r="D115" t="n">
-        <v>0.901909</v>
+        <v>0.985086</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.53474</v>
+        <v>1.72065</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13372</v>
+        <v>1.24253</v>
       </c>
       <c r="D116" t="n">
-        <v>0.919339</v>
+        <v>1.00496</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.5673</v>
+        <v>1.75522</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15924</v>
+        <v>1.27166</v>
       </c>
       <c r="D117" t="n">
-        <v>0.934758</v>
+        <v>1.02286</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.60023</v>
+        <v>1.79248</v>
       </c>
       <c r="C118" t="n">
-        <v>1.19447</v>
+        <v>1.3092</v>
       </c>
       <c r="D118" t="n">
-        <v>0.949524</v>
+        <v>1.04062</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.42601</v>
+        <v>1.59832</v>
       </c>
       <c r="C119" t="n">
-        <v>1.22546</v>
+        <v>1.34461</v>
       </c>
       <c r="D119" t="n">
-        <v>0.964022</v>
+        <v>1.05704</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.398385</v>
+        <v>0.401255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.296278</v>
+        <v>0.290547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218495</v>
+        <v>0.219325</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407287</v>
+        <v>0.412052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.299531</v>
+        <v>0.292227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22051</v>
+        <v>0.221025</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.417959</v>
+        <v>0.424733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30951</v>
+        <v>0.308273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230196</v>
+        <v>0.230604</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.423629</v>
+        <v>0.428375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.318779</v>
+        <v>0.314719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236419</v>
+        <v>0.235928</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.447932</v>
+        <v>0.447089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.327984</v>
+        <v>0.315298</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23947</v>
+        <v>0.23971</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.457448</v>
+        <v>0.459246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.353036</v>
+        <v>0.334907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248032</v>
+        <v>0.248414</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.47499</v>
+        <v>0.473604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.366469</v>
+        <v>0.347169</v>
       </c>
       <c r="D8" t="n">
-        <v>0.256865</v>
+        <v>0.257249</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.496426</v>
+        <v>0.492142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.383197</v>
+        <v>0.365203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.26724</v>
+        <v>0.266737</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.514343</v>
+        <v>0.508877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39958</v>
+        <v>0.381555</v>
       </c>
       <c r="D10" t="n">
-        <v>0.279004</v>
+        <v>0.276843</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.532377</v>
+        <v>0.52547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.30763</v>
+        <v>0.289338</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222206</v>
+        <v>0.218918</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.399149</v>
+        <v>0.396485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.31305</v>
+        <v>0.293566</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225497</v>
+        <v>0.221638</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.412279</v>
+        <v>0.409927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.325272</v>
+        <v>0.305217</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23303</v>
+        <v>0.22896</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.422555</v>
+        <v>0.423351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.339143</v>
+        <v>0.320174</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23846</v>
+        <v>0.231931</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.443327</v>
+        <v>0.445342</v>
       </c>
       <c r="C15" t="n">
-        <v>0.354138</v>
+        <v>0.333745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242996</v>
+        <v>0.239787</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.451148</v>
+        <v>0.457725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.367078</v>
+        <v>0.343751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25275</v>
+        <v>0.245612</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460255</v>
+        <v>0.461985</v>
       </c>
       <c r="C17" t="n">
-        <v>0.382223</v>
+        <v>0.363344</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255713</v>
+        <v>0.252244</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.480552</v>
+        <v>0.484561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.387021</v>
+        <v>0.372122</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255967</v>
+        <v>0.253535</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.493523</v>
+        <v>0.501607</v>
       </c>
       <c r="C19" t="n">
-        <v>0.408367</v>
+        <v>0.3915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.26671</v>
+        <v>0.267367</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5090710000000001</v>
+        <v>0.5236499999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.429409</v>
+        <v>0.419567</v>
       </c>
       <c r="D20" t="n">
-        <v>0.278003</v>
+        <v>0.275893</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.527784</v>
+        <v>0.535197</v>
       </c>
       <c r="C21" t="n">
-        <v>0.444221</v>
+        <v>0.43496</v>
       </c>
       <c r="D21" t="n">
-        <v>0.291511</v>
+        <v>0.286664</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.549283</v>
+        <v>0.558794</v>
       </c>
       <c r="C22" t="n">
-        <v>0.471266</v>
+        <v>0.457713</v>
       </c>
       <c r="D22" t="n">
-        <v>0.301266</v>
+        <v>0.293516</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.564864</v>
+        <v>0.57551</v>
       </c>
       <c r="C23" t="n">
-        <v>0.491126</v>
+        <v>0.482885</v>
       </c>
       <c r="D23" t="n">
-        <v>0.314024</v>
+        <v>0.309416</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.600805</v>
+        <v>0.611739</v>
       </c>
       <c r="C24" t="n">
-        <v>0.50279</v>
+        <v>0.502966</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322813</v>
+        <v>0.318092</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.632745</v>
+        <v>0.6477850000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5287809999999999</v>
+        <v>0.528763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.333518</v>
+        <v>0.325688</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.661473</v>
+        <v>0.673191</v>
       </c>
       <c r="C26" t="n">
-        <v>0.33981</v>
+        <v>0.335116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.240113</v>
+        <v>0.241236</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.434408</v>
+        <v>0.455689</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3444</v>
+        <v>0.338602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.242614</v>
+        <v>0.243382</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.450802</v>
+        <v>0.469987</v>
       </c>
       <c r="C28" t="n">
-        <v>0.359544</v>
+        <v>0.353566</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247713</v>
+        <v>0.248464</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.46647</v>
+        <v>0.485851</v>
       </c>
       <c r="C29" t="n">
-        <v>0.365667</v>
+        <v>0.363848</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253998</v>
+        <v>0.254443</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.483746</v>
+        <v>0.502333</v>
       </c>
       <c r="C30" t="n">
-        <v>0.386425</v>
+        <v>0.378799</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261249</v>
+        <v>0.258228</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.49948</v>
+        <v>0.520066</v>
       </c>
       <c r="C31" t="n">
-        <v>0.399846</v>
+        <v>0.392655</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267272</v>
+        <v>0.267262</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5155690000000001</v>
+        <v>0.535448</v>
       </c>
       <c r="C32" t="n">
-        <v>0.415112</v>
+        <v>0.410902</v>
       </c>
       <c r="D32" t="n">
-        <v>0.275958</v>
+        <v>0.276788</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.544773</v>
+        <v>0.56388</v>
       </c>
       <c r="C33" t="n">
-        <v>0.434522</v>
+        <v>0.429899</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283997</v>
+        <v>0.284672</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558242</v>
+        <v>0.579363</v>
       </c>
       <c r="C34" t="n">
-        <v>0.451339</v>
+        <v>0.448846</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292841</v>
+        <v>0.292897</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.581912</v>
+        <v>0.602264</v>
       </c>
       <c r="C35" t="n">
-        <v>0.470717</v>
+        <v>0.469815</v>
       </c>
       <c r="D35" t="n">
-        <v>0.301046</v>
+        <v>0.300766</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.601769</v>
+        <v>0.621047</v>
       </c>
       <c r="C36" t="n">
-        <v>0.495484</v>
+        <v>0.49447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.315324</v>
+        <v>0.315375</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.615903</v>
+        <v>0.635757</v>
       </c>
       <c r="C37" t="n">
-        <v>0.517074</v>
+        <v>0.518499</v>
       </c>
       <c r="D37" t="n">
-        <v>0.324355</v>
+        <v>0.326467</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6429009999999999</v>
+        <v>0.662497</v>
       </c>
       <c r="C38" t="n">
-        <v>0.535168</v>
+        <v>0.540798</v>
       </c>
       <c r="D38" t="n">
-        <v>0.334393</v>
+        <v>0.334565</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.676934</v>
+        <v>0.697511</v>
       </c>
       <c r="C39" t="n">
-        <v>0.564545</v>
+        <v>0.572299</v>
       </c>
       <c r="D39" t="n">
-        <v>0.346073</v>
+        <v>0.347648</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.69682</v>
+        <v>0.715475</v>
       </c>
       <c r="C40" t="n">
-        <v>0.397788</v>
+        <v>0.396428</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280903</v>
+        <v>0.281275</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.50425</v>
+        <v>0.526083</v>
       </c>
       <c r="C41" t="n">
-        <v>0.409488</v>
+        <v>0.407635</v>
       </c>
       <c r="D41" t="n">
-        <v>0.287066</v>
+        <v>0.287676</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.515929</v>
+        <v>0.538429</v>
       </c>
       <c r="C42" t="n">
-        <v>0.424789</v>
+        <v>0.424124</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293335</v>
+        <v>0.29355</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.529884</v>
+        <v>0.55155</v>
       </c>
       <c r="C43" t="n">
-        <v>0.437136</v>
+        <v>0.436908</v>
       </c>
       <c r="D43" t="n">
-        <v>0.300078</v>
+        <v>0.298761</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.545104</v>
+        <v>0.567897</v>
       </c>
       <c r="C44" t="n">
-        <v>0.45869</v>
+        <v>0.460047</v>
       </c>
       <c r="D44" t="n">
-        <v>0.309573</v>
+        <v>0.310751</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.563236</v>
+        <v>0.584948</v>
       </c>
       <c r="C45" t="n">
-        <v>0.471161</v>
+        <v>0.472922</v>
       </c>
       <c r="D45" t="n">
-        <v>0.316419</v>
+        <v>0.31841</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.575527</v>
+        <v>0.597092</v>
       </c>
       <c r="C46" t="n">
-        <v>0.485949</v>
+        <v>0.491198</v>
       </c>
       <c r="D46" t="n">
-        <v>0.32218</v>
+        <v>0.321406</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.597262</v>
+        <v>0.620026</v>
       </c>
       <c r="C47" t="n">
-        <v>0.505687</v>
+        <v>0.50764</v>
       </c>
       <c r="D47" t="n">
-        <v>0.331032</v>
+        <v>0.331029</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6136740000000001</v>
+        <v>0.636221</v>
       </c>
       <c r="C48" t="n">
-        <v>0.518116</v>
+        <v>0.524064</v>
       </c>
       <c r="D48" t="n">
-        <v>0.341674</v>
+        <v>0.34331</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.625235</v>
+        <v>0.648896</v>
       </c>
       <c r="C49" t="n">
-        <v>0.539699</v>
+        <v>0.546329</v>
       </c>
       <c r="D49" t="n">
-        <v>0.348971</v>
+        <v>0.351343</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.655253</v>
+        <v>0.67748</v>
       </c>
       <c r="C50" t="n">
-        <v>0.556222</v>
+        <v>0.5663629999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359459</v>
+        <v>0.361763</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6800119999999999</v>
+        <v>0.700887</v>
       </c>
       <c r="C51" t="n">
-        <v>0.580522</v>
+        <v>0.5899529999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.369954</v>
+        <v>0.37099</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7067909999999999</v>
+        <v>0.7284</v>
       </c>
       <c r="C52" t="n">
-        <v>0.601983</v>
+        <v>0.616254</v>
       </c>
       <c r="D52" t="n">
-        <v>0.38043</v>
+        <v>0.381687</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7312070000000001</v>
+        <v>0.752677</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6265230000000001</v>
+        <v>0.640085</v>
       </c>
       <c r="D53" t="n">
-        <v>0.391819</v>
+        <v>0.392977</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.758478</v>
+        <v>0.7777770000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.444761</v>
+        <v>0.449434</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313183</v>
+        <v>0.314943</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.785655</v>
+        <v>0.807855</v>
       </c>
       <c r="C55" t="n">
-        <v>0.45423</v>
+        <v>0.457732</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318769</v>
+        <v>0.319982</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.537724</v>
+        <v>0.560503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.469418</v>
+        <v>0.474136</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325064</v>
+        <v>0.324825</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5522899999999999</v>
+        <v>0.574688</v>
       </c>
       <c r="C57" t="n">
-        <v>0.483796</v>
+        <v>0.488006</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332109</v>
+        <v>0.332996</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567705</v>
+        <v>0.59088</v>
       </c>
       <c r="C58" t="n">
-        <v>0.495561</v>
+        <v>0.500656</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336879</v>
+        <v>0.336546</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.581997</v>
+        <v>0.6050489999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.512355</v>
+        <v>0.516358</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346416</v>
+        <v>0.348177</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.590901</v>
+        <v>0.613192</v>
       </c>
       <c r="C60" t="n">
-        <v>0.526739</v>
+        <v>0.533406</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351907</v>
+        <v>0.352869</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.610642</v>
+        <v>0.633301</v>
       </c>
       <c r="C61" t="n">
-        <v>0.542339</v>
+        <v>0.550884</v>
       </c>
       <c r="D61" t="n">
-        <v>0.359021</v>
+        <v>0.359246</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.631456</v>
+        <v>0.653773</v>
       </c>
       <c r="C62" t="n">
-        <v>0.558072</v>
+        <v>0.5653010000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.367007</v>
+        <v>0.369514</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.651388</v>
+        <v>0.673578</v>
       </c>
       <c r="C63" t="n">
-        <v>0.576905</v>
+        <v>0.588772</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375806</v>
+        <v>0.374883</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.671762</v>
+        <v>0.6935249999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.595437</v>
+        <v>0.607551</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386853</v>
+        <v>0.387385</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.700715</v>
+        <v>0.722542</v>
       </c>
       <c r="C65" t="n">
-        <v>0.619802</v>
+        <v>0.634832</v>
       </c>
       <c r="D65" t="n">
-        <v>0.397339</v>
+        <v>0.399513</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.725523</v>
+        <v>0.74717</v>
       </c>
       <c r="C66" t="n">
-        <v>0.635252</v>
+        <v>0.652051</v>
       </c>
       <c r="D66" t="n">
-        <v>0.406727</v>
+        <v>0.408111</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.755529</v>
+        <v>0.776061</v>
       </c>
       <c r="C67" t="n">
-        <v>0.660774</v>
+        <v>0.679947</v>
       </c>
       <c r="D67" t="n">
-        <v>0.420124</v>
+        <v>0.422205</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.777119</v>
+        <v>0.796261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.441693</v>
+        <v>0.441264</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313553</v>
+        <v>0.313822</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.821621</v>
+        <v>0.841711</v>
       </c>
       <c r="C69" t="n">
-        <v>0.459479</v>
+        <v>0.460381</v>
       </c>
       <c r="D69" t="n">
-        <v>0.320768</v>
+        <v>0.323344</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.561007</v>
+        <v>0.579184</v>
       </c>
       <c r="C70" t="n">
-        <v>0.478785</v>
+        <v>0.48</v>
       </c>
       <c r="D70" t="n">
-        <v>0.329723</v>
+        <v>0.332802</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.582176</v>
+        <v>0.602062</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5003339999999999</v>
+        <v>0.500731</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337102</v>
+        <v>0.337391</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.612157</v>
+        <v>0.629788</v>
       </c>
       <c r="C72" t="n">
-        <v>0.520894</v>
+        <v>0.522753</v>
       </c>
       <c r="D72" t="n">
-        <v>0.345564</v>
+        <v>0.346196</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.637992</v>
+        <v>0.65404</v>
       </c>
       <c r="C73" t="n">
-        <v>0.546557</v>
+        <v>0.5479270000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35603</v>
+        <v>0.358099</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.664737</v>
+        <v>0.680038</v>
       </c>
       <c r="C74" t="n">
-        <v>0.566172</v>
+        <v>0.568331</v>
       </c>
       <c r="D74" t="n">
-        <v>0.366237</v>
+        <v>0.368957</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.692622</v>
+        <v>0.7095129999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.594455</v>
+        <v>0.598398</v>
       </c>
       <c r="D75" t="n">
-        <v>0.375263</v>
+        <v>0.376855</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.727479</v>
+        <v>0.744938</v>
       </c>
       <c r="C76" t="n">
-        <v>0.624572</v>
+        <v>0.628181</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385716</v>
+        <v>0.385667</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7608549999999999</v>
+        <v>0.78234</v>
       </c>
       <c r="C77" t="n">
-        <v>0.657525</v>
+        <v>0.6643790000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398991</v>
+        <v>0.399834</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808261</v>
+        <v>0.826717</v>
       </c>
       <c r="C78" t="n">
-        <v>0.691778</v>
+        <v>0.700647</v>
       </c>
       <c r="D78" t="n">
-        <v>0.412603</v>
+        <v>0.41484</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.853849</v>
+        <v>0.887601</v>
       </c>
       <c r="C79" t="n">
-        <v>0.729773</v>
+        <v>0.7527199999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.427262</v>
+        <v>0.429385</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.911927</v>
+        <v>0.949809</v>
       </c>
       <c r="C80" t="n">
-        <v>0.779078</v>
+        <v>0.81223</v>
       </c>
       <c r="D80" t="n">
-        <v>0.440774</v>
+        <v>0.443578</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.984223</v>
+        <v>1.02643</v>
       </c>
       <c r="C81" t="n">
-        <v>0.839001</v>
+        <v>0.880949</v>
       </c>
       <c r="D81" t="n">
-        <v>0.460202</v>
+        <v>0.465713</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05837</v>
+        <v>1.10545</v>
       </c>
       <c r="C82" t="n">
-        <v>0.905474</v>
+        <v>0.95727</v>
       </c>
       <c r="D82" t="n">
-        <v>0.475757</v>
+        <v>0.473821</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14737</v>
+        <v>1.18819</v>
       </c>
       <c r="C83" t="n">
-        <v>0.660359</v>
+        <v>0.672961</v>
       </c>
       <c r="D83" t="n">
-        <v>0.38532</v>
+        <v>0.386626</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25449</v>
+        <v>1.30633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.704665</v>
+        <v>0.720082</v>
       </c>
       <c r="D84" t="n">
-        <v>0.39867</v>
+        <v>0.398914</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.881239</v>
+        <v>0.918687</v>
       </c>
       <c r="C85" t="n">
-        <v>0.758449</v>
+        <v>0.779843</v>
       </c>
       <c r="D85" t="n">
-        <v>0.412721</v>
+        <v>0.41504</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9530380000000001</v>
+        <v>1.00051</v>
       </c>
       <c r="C86" t="n">
-        <v>0.828948</v>
+        <v>0.860658</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433734</v>
+        <v>0.433951</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02795</v>
+        <v>1.08023</v>
       </c>
       <c r="C87" t="n">
-        <v>0.898589</v>
+        <v>0.939883</v>
       </c>
       <c r="D87" t="n">
-        <v>0.454952</v>
+        <v>0.456464</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11452</v>
+        <v>1.18232</v>
       </c>
       <c r="C88" t="n">
-        <v>0.991669</v>
+        <v>1.04732</v>
       </c>
       <c r="D88" t="n">
-        <v>0.480786</v>
+        <v>0.484333</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.20866</v>
+        <v>1.28478</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08044</v>
+        <v>1.152</v>
       </c>
       <c r="D89" t="n">
-        <v>0.51159</v>
+        <v>0.528498</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.31227</v>
+        <v>1.39815</v>
       </c>
       <c r="C90" t="n">
-        <v>1.17988</v>
+        <v>1.26312</v>
       </c>
       <c r="D90" t="n">
-        <v>0.543912</v>
+        <v>0.554046</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.42651</v>
+        <v>1.52263</v>
       </c>
       <c r="C91" t="n">
-        <v>1.28482</v>
+        <v>1.3867</v>
       </c>
       <c r="D91" t="n">
-        <v>0.576431</v>
+        <v>0.588887</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.54241</v>
+        <v>1.65094</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40396</v>
+        <v>1.5204</v>
       </c>
       <c r="D92" t="n">
-        <v>0.627576</v>
+        <v>0.639079</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.66884</v>
+        <v>1.79381</v>
       </c>
       <c r="C93" t="n">
-        <v>1.52683</v>
+        <v>1.66476</v>
       </c>
       <c r="D93" t="n">
-        <v>0.672153</v>
+        <v>0.692792</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.80797</v>
+        <v>1.94568</v>
       </c>
       <c r="C94" t="n">
-        <v>1.65531</v>
+        <v>1.82036</v>
       </c>
       <c r="D94" t="n">
-        <v>0.720879</v>
+        <v>0.749119</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.94687</v>
+        <v>2.10577</v>
       </c>
       <c r="C95" t="n">
-        <v>1.7885</v>
+        <v>1.98599</v>
       </c>
       <c r="D95" t="n">
-        <v>0.772392</v>
+        <v>0.8031430000000001</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.10581</v>
+        <v>2.28249</v>
       </c>
       <c r="C96" t="n">
-        <v>1.95118</v>
+        <v>2.18174</v>
       </c>
       <c r="D96" t="n">
-        <v>0.832599</v>
+        <v>0.869016</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.27402</v>
+        <v>2.46897</v>
       </c>
       <c r="C97" t="n">
-        <v>1.22463</v>
+        <v>1.32112</v>
       </c>
       <c r="D97" t="n">
-        <v>0.63109</v>
+        <v>0.660299</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.43945</v>
+        <v>2.65056</v>
       </c>
       <c r="C98" t="n">
-        <v>1.30852</v>
+        <v>1.41555</v>
       </c>
       <c r="D98" t="n">
-        <v>0.671741</v>
+        <v>0.705581</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.69136</v>
+        <v>1.84612</v>
       </c>
       <c r="C99" t="n">
-        <v>1.38891</v>
+        <v>1.50898</v>
       </c>
       <c r="D99" t="n">
-        <v>0.711233</v>
+        <v>0.751955</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.78314</v>
+        <v>1.94956</v>
       </c>
       <c r="C100" t="n">
-        <v>1.4802</v>
+        <v>1.61426</v>
       </c>
       <c r="D100" t="n">
-        <v>0.748947</v>
+        <v>0.790616</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.87352</v>
+        <v>2.05104</v>
       </c>
       <c r="C101" t="n">
-        <v>1.58014</v>
+        <v>1.73026</v>
       </c>
       <c r="D101" t="n">
-        <v>0.798144</v>
+        <v>0.844231</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.98199</v>
+        <v>2.16701</v>
       </c>
       <c r="C102" t="n">
-        <v>1.67824</v>
+        <v>1.84009</v>
       </c>
       <c r="D102" t="n">
-        <v>0.838588</v>
+        <v>0.889209</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.07827</v>
+        <v>2.27524</v>
       </c>
       <c r="C103" t="n">
-        <v>1.77762</v>
+        <v>2.03528</v>
       </c>
       <c r="D103" t="n">
-        <v>0.880717</v>
+        <v>0.962005</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.19358</v>
+        <v>2.45406</v>
       </c>
       <c r="C104" t="n">
-        <v>1.88918</v>
+        <v>2.12993</v>
       </c>
       <c r="D104" t="n">
-        <v>0.929872</v>
+        <v>1.01224</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.29415</v>
+        <v>2.56231</v>
       </c>
       <c r="C105" t="n">
-        <v>2.00594</v>
+        <v>2.27456</v>
       </c>
       <c r="D105" t="n">
-        <v>0.99495</v>
+        <v>1.0865</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.42378</v>
+        <v>2.6999</v>
       </c>
       <c r="C106" t="n">
-        <v>2.12653</v>
+        <v>2.40983</v>
       </c>
       <c r="D106" t="n">
-        <v>1.03171</v>
+        <v>1.12731</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.54467</v>
+        <v>2.84364</v>
       </c>
       <c r="C107" t="n">
-        <v>2.25043</v>
+        <v>2.54948</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08971</v>
+        <v>1.19304</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68023</v>
+        <v>2.98128</v>
       </c>
       <c r="C108" t="n">
-        <v>2.39221</v>
+        <v>2.7132</v>
       </c>
       <c r="D108" t="n">
-        <v>1.15194</v>
+        <v>1.2672</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.81512</v>
+        <v>3.12088</v>
       </c>
       <c r="C109" t="n">
-        <v>2.53734</v>
+        <v>2.8814</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20728</v>
+        <v>1.32747</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.96491</v>
+        <v>3.2748</v>
       </c>
       <c r="C110" t="n">
-        <v>2.67842</v>
+        <v>3.0485</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27389</v>
+        <v>1.40439</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.13546</v>
+        <v>3.44297</v>
       </c>
       <c r="C111" t="n">
-        <v>1.73024</v>
+        <v>1.92349</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01382</v>
+        <v>1.11856</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.3145</v>
+        <v>3.64036</v>
       </c>
       <c r="C112" t="n">
-        <v>1.81911</v>
+        <v>2.02107</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05428</v>
+        <v>1.16853</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.46791</v>
+        <v>3.83781</v>
       </c>
       <c r="C113" t="n">
-        <v>1.90998</v>
+        <v>2.11804</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07982</v>
+        <v>1.19313</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.32614</v>
+        <v>2.60076</v>
       </c>
       <c r="C114" t="n">
-        <v>1.99996</v>
+        <v>2.21457</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11833</v>
+        <v>1.24006</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.41294</v>
+        <v>2.69429</v>
       </c>
       <c r="C115" t="n">
-        <v>2.09145</v>
+        <v>2.31699</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17539</v>
+        <v>1.30387</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.51537</v>
+        <v>2.79558</v>
       </c>
       <c r="C116" t="n">
-        <v>2.18663</v>
+        <v>2.42547</v>
       </c>
       <c r="D116" t="n">
-        <v>1.20185</v>
+        <v>1.32974</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.61916</v>
+        <v>2.89794</v>
       </c>
       <c r="C117" t="n">
-        <v>2.29522</v>
+        <v>2.55172</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25595</v>
+        <v>1.39731</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.72675</v>
+        <v>3.01392</v>
       </c>
       <c r="C118" t="n">
-        <v>2.41151</v>
+        <v>2.69148</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29406</v>
+        <v>1.43627</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.83244</v>
+        <v>3.12407</v>
       </c>
       <c r="C119" t="n">
-        <v>2.51846</v>
+        <v>2.82099</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34984</v>
+        <v>1.5027</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259205</v>
+        <v>0.257841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191582</v>
+        <v>0.192154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197994</v>
+        <v>0.197779</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.210719</v>
+        <v>0.20655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19217</v>
+        <v>0.194038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200209</v>
+        <v>0.200825</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.21249</v>
+        <v>0.212606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.198918</v>
+        <v>0.200348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.207543</v>
+        <v>0.208813</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.219753</v>
+        <v>0.219164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205352</v>
+        <v>0.205792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212773</v>
+        <v>0.213399</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22586</v>
+        <v>0.224136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209217</v>
+        <v>0.210142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218838</v>
+        <v>0.220241</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.232992</v>
+        <v>0.231771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.172752</v>
+        <v>0.173401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.183479</v>
+        <v>0.182759</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2376</v>
+        <v>0.23552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17727</v>
+        <v>0.179269</v>
       </c>
       <c r="D8" t="n">
-        <v>0.189286</v>
+        <v>0.188884</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.244578</v>
+        <v>0.243905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.181181</v>
+        <v>0.182861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.192835</v>
+        <v>0.193483</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25125</v>
+        <v>0.250444</v>
       </c>
       <c r="C10" t="n">
-        <v>0.185668</v>
+        <v>0.186463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.196728</v>
+        <v>0.19877</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.256286</v>
+        <v>0.255768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.190371</v>
+        <v>0.190228</v>
       </c>
       <c r="D11" t="n">
-        <v>0.20139</v>
+        <v>0.201969</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.264315</v>
+        <v>0.263307</v>
       </c>
       <c r="C12" t="n">
-        <v>0.196424</v>
+        <v>0.197359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.206254</v>
+        <v>0.207938</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.268754</v>
+        <v>0.26892</v>
       </c>
       <c r="C13" t="n">
-        <v>0.199399</v>
+        <v>0.201088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.210679</v>
+        <v>0.212061</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275096</v>
+        <v>0.274699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.203418</v>
+        <v>0.205866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21436</v>
+        <v>0.216658</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283145</v>
+        <v>0.283235</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20826</v>
+        <v>0.210986</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220882</v>
+        <v>0.223441</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.287763</v>
+        <v>0.28806</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21243</v>
+        <v>0.215569</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224602</v>
+        <v>0.226105</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.294601</v>
+        <v>0.296733</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217493</v>
+        <v>0.220698</v>
       </c>
       <c r="D17" t="n">
-        <v>0.229634</v>
+        <v>0.231648</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250006</v>
+        <v>0.251994</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220764</v>
+        <v>0.221687</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232901</v>
+        <v>0.236027</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253939</v>
+        <v>0.256079</v>
       </c>
       <c r="C19" t="n">
-        <v>0.225051</v>
+        <v>0.228023</v>
       </c>
       <c r="D19" t="n">
-        <v>0.238134</v>
+        <v>0.239532</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.258806</v>
+        <v>0.260671</v>
       </c>
       <c r="C20" t="n">
-        <v>0.228501</v>
+        <v>0.232199</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243992</v>
+        <v>0.243545</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263484</v>
+        <v>0.265178</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193573</v>
+        <v>0.196956</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205784</v>
+        <v>0.205975</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.268507</v>
+        <v>0.269907</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197867</v>
+        <v>0.199989</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210121</v>
+        <v>0.21042</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.27339</v>
+        <v>0.274504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201173</v>
+        <v>0.203903</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213729</v>
+        <v>0.214113</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.278049</v>
+        <v>0.279608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.204722</v>
+        <v>0.207074</v>
       </c>
       <c r="D24" t="n">
-        <v>0.217501</v>
+        <v>0.217228</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283219</v>
+        <v>0.284827</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207874</v>
+        <v>0.210335</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221471</v>
+        <v>0.220629</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289884</v>
+        <v>0.290965</v>
       </c>
       <c r="C26" t="n">
-        <v>0.212612</v>
+        <v>0.215134</v>
       </c>
       <c r="D26" t="n">
-        <v>0.225683</v>
+        <v>0.22536</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295352</v>
+        <v>0.296187</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216797</v>
+        <v>0.218923</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229911</v>
+        <v>0.229073</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.30015</v>
+        <v>0.30112</v>
       </c>
       <c r="C28" t="n">
-        <v>0.221941</v>
+        <v>0.224451</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234699</v>
+        <v>0.234429</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305267</v>
+        <v>0.306263</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22714</v>
+        <v>0.22967</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239635</v>
+        <v>0.239644</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.311782</v>
+        <v>0.312694</v>
       </c>
       <c r="C30" t="n">
-        <v>0.231199</v>
+        <v>0.233551</v>
       </c>
       <c r="D30" t="n">
-        <v>0.244005</v>
+        <v>0.243839</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.316497</v>
+        <v>0.317435</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235707</v>
+        <v>0.237842</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248085</v>
+        <v>0.247905</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.265382</v>
+        <v>0.266907</v>
       </c>
       <c r="C32" t="n">
-        <v>0.239436</v>
+        <v>0.241435</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252148</v>
+        <v>0.25193</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.268975</v>
+        <v>0.270211</v>
       </c>
       <c r="C33" t="n">
-        <v>0.244139</v>
+        <v>0.246126</v>
       </c>
       <c r="D33" t="n">
-        <v>0.257355</v>
+        <v>0.257202</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.271913</v>
+        <v>0.27343</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24756</v>
+        <v>0.249832</v>
       </c>
       <c r="D34" t="n">
-        <v>0.26106</v>
+        <v>0.261149</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.275964</v>
+        <v>0.277301</v>
       </c>
       <c r="C35" t="n">
-        <v>0.202706</v>
+        <v>0.206208</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212421</v>
+        <v>0.21226</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.280429</v>
+        <v>0.281578</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205422</v>
+        <v>0.208936</v>
       </c>
       <c r="D36" t="n">
-        <v>0.21552</v>
+        <v>0.2155</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284318</v>
+        <v>0.285396</v>
       </c>
       <c r="C37" t="n">
-        <v>0.208575</v>
+        <v>0.21218</v>
       </c>
       <c r="D37" t="n">
-        <v>0.219043</v>
+        <v>0.219062</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.289112</v>
+        <v>0.290015</v>
       </c>
       <c r="C38" t="n">
-        <v>0.212208</v>
+        <v>0.21581</v>
       </c>
       <c r="D38" t="n">
-        <v>0.223201</v>
+        <v>0.223028</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.293654</v>
+        <v>0.294686</v>
       </c>
       <c r="C39" t="n">
-        <v>0.215887</v>
+        <v>0.219628</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227211</v>
+        <v>0.227066</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.298671</v>
+        <v>0.299465</v>
       </c>
       <c r="C40" t="n">
-        <v>0.220156</v>
+        <v>0.223898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231301</v>
+        <v>0.231059</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303471</v>
+        <v>0.304413</v>
       </c>
       <c r="C41" t="n">
-        <v>0.224567</v>
+        <v>0.228234</v>
       </c>
       <c r="D41" t="n">
-        <v>0.235402</v>
+        <v>0.235399</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.308796</v>
+        <v>0.31012</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228585</v>
+        <v>0.232003</v>
       </c>
       <c r="D42" t="n">
-        <v>0.239085</v>
+        <v>0.239083</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31396</v>
+        <v>0.31496</v>
       </c>
       <c r="C43" t="n">
-        <v>0.233132</v>
+        <v>0.236676</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243368</v>
+        <v>0.243343</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31928</v>
+        <v>0.320074</v>
       </c>
       <c r="C44" t="n">
-        <v>0.238064</v>
+        <v>0.24125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248229</v>
+        <v>0.247844</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.324197</v>
+        <v>0.325031</v>
       </c>
       <c r="C45" t="n">
-        <v>0.242679</v>
+        <v>0.245419</v>
       </c>
       <c r="D45" t="n">
-        <v>0.252295</v>
+        <v>0.251871</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.328953</v>
+        <v>0.329863</v>
       </c>
       <c r="C46" t="n">
-        <v>0.246693</v>
+        <v>0.249465</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25638</v>
+        <v>0.256099</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.275725</v>
+        <v>0.276937</v>
       </c>
       <c r="C47" t="n">
-        <v>0.251058</v>
+        <v>0.254138</v>
       </c>
       <c r="D47" t="n">
-        <v>0.260536</v>
+        <v>0.260732</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.278769</v>
+        <v>0.27982</v>
       </c>
       <c r="C48" t="n">
-        <v>0.255058</v>
+        <v>0.258077</v>
       </c>
       <c r="D48" t="n">
-        <v>0.264287</v>
+        <v>0.264291</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.282416</v>
+        <v>0.283906</v>
       </c>
       <c r="C49" t="n">
-        <v>0.259177</v>
+        <v>0.261728</v>
       </c>
       <c r="D49" t="n">
-        <v>0.268334</v>
+        <v>0.268819</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.286276</v>
+        <v>0.287778</v>
       </c>
       <c r="C50" t="n">
-        <v>0.210667</v>
+        <v>0.214555</v>
       </c>
       <c r="D50" t="n">
-        <v>0.217733</v>
+        <v>0.217973</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.29008</v>
+        <v>0.291623</v>
       </c>
       <c r="C51" t="n">
-        <v>0.213882</v>
+        <v>0.217804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221134</v>
+        <v>0.221274</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294602</v>
+        <v>0.296136</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216935</v>
+        <v>0.220883</v>
       </c>
       <c r="D52" t="n">
-        <v>0.224503</v>
+        <v>0.224685</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.29945</v>
+        <v>0.301322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.220607</v>
+        <v>0.224493</v>
       </c>
       <c r="D53" t="n">
-        <v>0.228103</v>
+        <v>0.228417</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.304009</v>
+        <v>0.305672</v>
       </c>
       <c r="C54" t="n">
-        <v>0.224426</v>
+        <v>0.227969</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231615</v>
+        <v>0.232076</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.308788</v>
+        <v>0.31051</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22824</v>
+        <v>0.231921</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235631</v>
+        <v>0.236049</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.314146</v>
+        <v>0.315626</v>
       </c>
       <c r="C56" t="n">
-        <v>0.232769</v>
+        <v>0.236362</v>
       </c>
       <c r="D56" t="n">
-        <v>0.239876</v>
+        <v>0.23988</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319823</v>
+        <v>0.321129</v>
       </c>
       <c r="C57" t="n">
-        <v>0.237576</v>
+        <v>0.241041</v>
       </c>
       <c r="D57" t="n">
-        <v>0.244047</v>
+        <v>0.244085</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.324023</v>
+        <v>0.325533</v>
       </c>
       <c r="C58" t="n">
-        <v>0.242032</v>
+        <v>0.245594</v>
       </c>
       <c r="D58" t="n">
-        <v>0.248246</v>
+        <v>0.248275</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.328913</v>
+        <v>0.330551</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246957</v>
+        <v>0.250059</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252541</v>
+        <v>0.252705</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.33486</v>
+        <v>0.33618</v>
       </c>
       <c r="C60" t="n">
-        <v>0.251566</v>
+        <v>0.254748</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257178</v>
+        <v>0.257234</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28631</v>
+        <v>0.28705</v>
       </c>
       <c r="C61" t="n">
-        <v>0.256074</v>
+        <v>0.25919</v>
       </c>
       <c r="D61" t="n">
-        <v>0.261089</v>
+        <v>0.261472</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.28788</v>
+        <v>0.290581</v>
       </c>
       <c r="C62" t="n">
-        <v>0.260095</v>
+        <v>0.26288</v>
       </c>
       <c r="D62" t="n">
-        <v>0.265628</v>
+        <v>0.265912</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.298651</v>
+        <v>0.298071</v>
       </c>
       <c r="C63" t="n">
-        <v>0.264412</v>
+        <v>0.266896</v>
       </c>
       <c r="D63" t="n">
-        <v>0.269983</v>
+        <v>0.270315</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.304699</v>
+        <v>0.309595</v>
       </c>
       <c r="C64" t="n">
-        <v>0.219826</v>
+        <v>0.22305</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225698</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.30701</v>
+        <v>0.314117</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223962</v>
+        <v>0.22839</v>
       </c>
       <c r="D65" t="n">
-        <v>0.231051</v>
+        <v>0.231067</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.318453</v>
+        <v>0.315239</v>
       </c>
       <c r="C66" t="n">
-        <v>0.232318</v>
+        <v>0.232675</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235604</v>
+        <v>0.235226</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.325864</v>
+        <v>0.328158</v>
       </c>
       <c r="C67" t="n">
-        <v>0.236649</v>
+        <v>0.236736</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242838</v>
+        <v>0.241737</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.339454</v>
+        <v>0.336289</v>
       </c>
       <c r="C68" t="n">
-        <v>0.243523</v>
+        <v>0.243364</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247242</v>
+        <v>0.24854</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343184</v>
+        <v>0.347085</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249618</v>
+        <v>0.250407</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251842</v>
+        <v>0.251254</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.35735</v>
+        <v>0.353363</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254399</v>
+        <v>0.255095</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258299</v>
+        <v>0.256271</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.36863</v>
+        <v>0.363033</v>
       </c>
       <c r="C71" t="n">
-        <v>0.260649</v>
+        <v>0.261809</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264392</v>
+        <v>0.262773</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.380003</v>
+        <v>0.37432</v>
       </c>
       <c r="C72" t="n">
-        <v>0.268233</v>
+        <v>0.269743</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272424</v>
+        <v>0.270556</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.392363</v>
+        <v>0.391034</v>
       </c>
       <c r="C73" t="n">
-        <v>0.276971</v>
+        <v>0.278666</v>
       </c>
       <c r="D73" t="n">
-        <v>0.280932</v>
+        <v>0.280848</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.408354</v>
+        <v>0.406494</v>
       </c>
       <c r="C74" t="n">
-        <v>0.285835</v>
+        <v>0.288585</v>
       </c>
       <c r="D74" t="n">
-        <v>0.289842</v>
+        <v>0.290296</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.424225</v>
+        <v>0.423798</v>
       </c>
       <c r="C75" t="n">
-        <v>0.294547</v>
+        <v>0.297315</v>
       </c>
       <c r="D75" t="n">
-        <v>0.297986</v>
+        <v>0.297714</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.492224</v>
+        <v>0.49181</v>
       </c>
       <c r="C76" t="n">
-        <v>0.306353</v>
+        <v>0.303414</v>
       </c>
       <c r="D76" t="n">
-        <v>0.307696</v>
+        <v>0.309816</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.50432</v>
+        <v>0.503986</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317283</v>
+        <v>0.315972</v>
       </c>
       <c r="D77" t="n">
-        <v>0.321118</v>
+        <v>0.317517</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.519981</v>
+        <v>0.525955</v>
       </c>
       <c r="C78" t="n">
-        <v>0.311735</v>
+        <v>0.32039</v>
       </c>
       <c r="D78" t="n">
-        <v>0.317253</v>
+        <v>0.317552</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.526932</v>
+        <v>0.541527</v>
       </c>
       <c r="C79" t="n">
-        <v>0.319244</v>
+        <v>0.327268</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324862</v>
+        <v>0.331231</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.552871</v>
+        <v>0.559455</v>
       </c>
       <c r="C80" t="n">
-        <v>0.334574</v>
+        <v>0.342984</v>
       </c>
       <c r="D80" t="n">
-        <v>0.343246</v>
+        <v>0.345125</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.575322</v>
+        <v>0.581233</v>
       </c>
       <c r="C81" t="n">
-        <v>0.34898</v>
+        <v>0.349856</v>
       </c>
       <c r="D81" t="n">
-        <v>0.352998</v>
+        <v>0.356676</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5996629999999999</v>
+        <v>0.5978560000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.360539</v>
+        <v>0.369673</v>
       </c>
       <c r="D82" t="n">
-        <v>0.368939</v>
+        <v>0.37173</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.620528</v>
+        <v>0.625688</v>
       </c>
       <c r="C83" t="n">
-        <v>0.377176</v>
+        <v>0.387907</v>
       </c>
       <c r="D83" t="n">
-        <v>0.384981</v>
+        <v>0.388491</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6433489999999999</v>
+        <v>0.646855</v>
       </c>
       <c r="C84" t="n">
-        <v>0.396716</v>
+        <v>0.39891</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40008</v>
+        <v>0.404348</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6672709999999999</v>
+        <v>0.672123</v>
       </c>
       <c r="C85" t="n">
-        <v>0.416332</v>
+        <v>0.420094</v>
       </c>
       <c r="D85" t="n">
-        <v>0.419015</v>
+        <v>0.425917</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.692954</v>
+        <v>0.694824</v>
       </c>
       <c r="C86" t="n">
-        <v>0.432809</v>
+        <v>0.440294</v>
       </c>
       <c r="D86" t="n">
-        <v>0.437365</v>
+        <v>0.442439</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.714652</v>
+        <v>0.721251</v>
       </c>
       <c r="C87" t="n">
-        <v>0.446849</v>
+        <v>0.455066</v>
       </c>
       <c r="D87" t="n">
-        <v>0.45675</v>
+        <v>0.456529</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.742034</v>
+        <v>0.746968</v>
       </c>
       <c r="C88" t="n">
-        <v>0.46732</v>
+        <v>0.470658</v>
       </c>
       <c r="D88" t="n">
-        <v>0.47733</v>
+        <v>0.479546</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.769325</v>
+        <v>0.772921</v>
       </c>
       <c r="C89" t="n">
-        <v>0.48458</v>
+        <v>0.490268</v>
       </c>
       <c r="D89" t="n">
-        <v>0.495441</v>
+        <v>0.498415</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.862411</v>
+        <v>0.868929</v>
       </c>
       <c r="C90" t="n">
-        <v>0.499236</v>
+        <v>0.508595</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5166230000000001</v>
+        <v>0.519537</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.87216</v>
+        <v>0.876896</v>
       </c>
       <c r="C91" t="n">
-        <v>0.520328</v>
+        <v>0.522381</v>
       </c>
       <c r="D91" t="n">
-        <v>0.524385</v>
+        <v>0.526879</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.881285</v>
+        <v>0.8885150000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.543445</v>
+        <v>0.54965</v>
       </c>
       <c r="D92" t="n">
-        <v>0.542566</v>
+        <v>0.547966</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.892884</v>
+        <v>0.896857</v>
       </c>
       <c r="C93" t="n">
-        <v>0.555571</v>
+        <v>0.562369</v>
       </c>
       <c r="D93" t="n">
-        <v>0.55645</v>
+        <v>0.56104</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.903712</v>
+        <v>0.910282</v>
       </c>
       <c r="C94" t="n">
-        <v>0.567252</v>
+        <v>0.57222</v>
       </c>
       <c r="D94" t="n">
-        <v>0.567566</v>
+        <v>0.569477</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.918849</v>
+        <v>0.922333</v>
       </c>
       <c r="C95" t="n">
-        <v>0.580611</v>
+        <v>0.585565</v>
       </c>
       <c r="D95" t="n">
-        <v>0.583071</v>
+        <v>0.587215</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.930172</v>
+        <v>0.935735</v>
       </c>
       <c r="C96" t="n">
-        <v>0.59256</v>
+        <v>0.599629</v>
       </c>
       <c r="D96" t="n">
-        <v>0.597838</v>
+        <v>0.602573</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.94542</v>
+        <v>0.950813</v>
       </c>
       <c r="C97" t="n">
-        <v>0.606171</v>
+        <v>0.612968</v>
       </c>
       <c r="D97" t="n">
-        <v>0.612198</v>
+        <v>0.617088</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.963291</v>
+        <v>0.966809</v>
       </c>
       <c r="C98" t="n">
-        <v>0.621801</v>
+        <v>0.627663</v>
       </c>
       <c r="D98" t="n">
-        <v>0.628594</v>
+        <v>0.631169</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.979473</v>
+        <v>0.983197</v>
       </c>
       <c r="C99" t="n">
-        <v>0.636215</v>
+        <v>0.642719</v>
       </c>
       <c r="D99" t="n">
-        <v>0.641651</v>
+        <v>0.6454530000000001</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.996938</v>
+        <v>1.00134</v>
       </c>
       <c r="C100" t="n">
-        <v>0.65183</v>
+        <v>0.6573</v>
       </c>
       <c r="D100" t="n">
-        <v>0.656335</v>
+        <v>0.659442</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01404</v>
+        <v>1.01688</v>
       </c>
       <c r="C101" t="n">
-        <v>0.667164</v>
+        <v>0.672776</v>
       </c>
       <c r="D101" t="n">
-        <v>0.672489</v>
+        <v>0.675161</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.03257</v>
+        <v>1.03613</v>
       </c>
       <c r="C102" t="n">
-        <v>0.683667</v>
+        <v>0.688905</v>
       </c>
       <c r="D102" t="n">
-        <v>0.690078</v>
+        <v>0.692404</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.05218</v>
+        <v>1.05589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.699478</v>
+        <v>0.705463</v>
       </c>
       <c r="D103" t="n">
-        <v>0.706499</v>
+        <v>0.710828</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.0734</v>
+        <v>1.07692</v>
       </c>
       <c r="C104" t="n">
-        <v>0.716984</v>
+        <v>0.722979</v>
       </c>
       <c r="D104" t="n">
-        <v>0.722984</v>
+        <v>0.728886</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06116</v>
+        <v>1.06859</v>
       </c>
       <c r="C105" t="n">
-        <v>0.734287</v>
+        <v>0.738984</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7458979999999999</v>
+        <v>0.749841</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06764</v>
+        <v>1.07383</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7519479999999999</v>
+        <v>0.755668</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7672020000000001</v>
+        <v>0.771217</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07534</v>
+        <v>1.08182</v>
       </c>
       <c r="C107" t="n">
-        <v>0.708647</v>
+        <v>0.714493</v>
       </c>
       <c r="D107" t="n">
-        <v>0.707157</v>
+        <v>0.712778</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.08457</v>
+        <v>1.09123</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7194120000000001</v>
+        <v>0.725977</v>
       </c>
       <c r="D108" t="n">
-        <v>0.718919</v>
+        <v>0.723406</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09466</v>
+        <v>1.1015</v>
       </c>
       <c r="C109" t="n">
-        <v>0.731545</v>
+        <v>0.737922</v>
       </c>
       <c r="D109" t="n">
-        <v>0.731621</v>
+        <v>0.736563</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.10514</v>
+        <v>1.11291</v>
       </c>
       <c r="C110" t="n">
-        <v>0.744425</v>
+        <v>0.750799</v>
       </c>
       <c r="D110" t="n">
-        <v>0.744283</v>
+        <v>0.749604</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.11738</v>
+        <v>1.12369</v>
       </c>
       <c r="C111" t="n">
-        <v>0.757211</v>
+        <v>0.7645149999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.756997</v>
+        <v>0.762304</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.13044</v>
+        <v>1.13647</v>
       </c>
       <c r="C112" t="n">
-        <v>0.77073</v>
+        <v>0.777213</v>
       </c>
       <c r="D112" t="n">
-        <v>0.77129</v>
+        <v>0.777026</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14474</v>
+        <v>1.15056</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7836419999999999</v>
+        <v>0.791038</v>
       </c>
       <c r="D113" t="n">
-        <v>0.78551</v>
+        <v>0.790086</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15878</v>
+        <v>1.16453</v>
       </c>
       <c r="C114" t="n">
-        <v>0.798658</v>
+        <v>0.804728</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8016799999999999</v>
+        <v>0.807113</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17412</v>
+        <v>1.18033</v>
       </c>
       <c r="C115" t="n">
-        <v>0.813072</v>
+        <v>0.820371</v>
       </c>
       <c r="D115" t="n">
-        <v>0.818269</v>
+        <v>0.822365</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.19093</v>
+        <v>1.19661</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8295979999999999</v>
+        <v>0.834778</v>
       </c>
       <c r="D116" t="n">
-        <v>0.830844</v>
+        <v>0.83544</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.20879</v>
+        <v>1.21469</v>
       </c>
       <c r="C117" t="n">
-        <v>0.845445</v>
+        <v>0.8505470000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.846228</v>
+        <v>0.851023</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.22692</v>
+        <v>1.23272</v>
       </c>
       <c r="C118" t="n">
-        <v>0.861135</v>
+        <v>0.866812</v>
       </c>
       <c r="D118" t="n">
-        <v>0.866532</v>
+        <v>0.869865</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.16168</v>
+        <v>1.17206</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8784690000000001</v>
+        <v>0.883565</v>
       </c>
       <c r="D119" t="n">
-        <v>0.88173</v>
+        <v>0.885585</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.256307</v>
+        <v>0.256375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164121</v>
+        <v>0.166137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15326</v>
+        <v>0.156318</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.227698</v>
+        <v>0.229939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167737</v>
+        <v>0.16998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.151912</v>
+        <v>0.154701</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232591</v>
+        <v>0.23403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.172648</v>
+        <v>0.174535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158034</v>
+        <v>0.160801</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237747</v>
+        <v>0.239075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.177735</v>
+        <v>0.180246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160687</v>
+        <v>0.164028</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.239017</v>
+        <v>0.241953</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18347</v>
+        <v>0.185248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.165109</v>
+        <v>0.168319</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244197</v>
+        <v>0.2462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16625</v>
+        <v>0.169419</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158758</v>
+        <v>0.16682</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246617</v>
+        <v>0.248261</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170969</v>
+        <v>0.172703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163455</v>
+        <v>0.172305</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.248299</v>
+        <v>0.252245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174135</v>
+        <v>0.177731</v>
       </c>
       <c r="D9" t="n">
-        <v>0.165928</v>
+        <v>0.172571</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25015</v>
+        <v>0.254333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176793</v>
+        <v>0.180828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.165687</v>
+        <v>0.174002</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249877</v>
+        <v>0.252885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.174079</v>
+        <v>0.17769</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164929</v>
+        <v>0.174943</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.264381</v>
+        <v>0.267086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.183869</v>
+        <v>0.191219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.170476</v>
+        <v>0.180835</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.267648</v>
+        <v>0.272058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.183178</v>
+        <v>0.190555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.172666</v>
+        <v>0.183765</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.26761</v>
+        <v>0.272092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.185982</v>
+        <v>0.191744</v>
       </c>
       <c r="D14" t="n">
-        <v>0.172257</v>
+        <v>0.179996</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.277782</v>
+        <v>0.282482</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188747</v>
+        <v>0.195039</v>
       </c>
       <c r="D15" t="n">
-        <v>0.176197</v>
+        <v>0.184575</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.283752</v>
+        <v>0.289311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192486</v>
+        <v>0.198554</v>
       </c>
       <c r="D16" t="n">
-        <v>0.175698</v>
+        <v>0.184751</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.291283</v>
+        <v>0.295931</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19795</v>
+        <v>0.201725</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179888</v>
+        <v>0.190294</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.271494</v>
+        <v>0.280439</v>
       </c>
       <c r="C18" t="n">
-        <v>0.201327</v>
+        <v>0.211071</v>
       </c>
       <c r="D18" t="n">
-        <v>0.179713</v>
+        <v>0.192057</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.27668</v>
+        <v>0.284343</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204089</v>
+        <v>0.210719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.184865</v>
+        <v>0.195783</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.286676</v>
+        <v>0.289373</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215655</v>
+        <v>0.219314</v>
       </c>
       <c r="D20" t="n">
-        <v>0.186561</v>
+        <v>0.196535</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.29405</v>
+        <v>0.296629</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200097</v>
+        <v>0.20367</v>
       </c>
       <c r="D21" t="n">
-        <v>0.187816</v>
+        <v>0.199826</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.295311</v>
+        <v>0.298697</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206526</v>
+        <v>0.210116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190237</v>
+        <v>0.200649</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.300079</v>
+        <v>0.304573</v>
       </c>
       <c r="C23" t="n">
-        <v>0.209584</v>
+        <v>0.213471</v>
       </c>
       <c r="D23" t="n">
-        <v>0.191522</v>
+        <v>0.200017</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.304451</v>
+        <v>0.300871</v>
       </c>
       <c r="C24" t="n">
-        <v>0.218368</v>
+        <v>0.221903</v>
       </c>
       <c r="D24" t="n">
-        <v>0.196687</v>
+        <v>0.204976</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.307647</v>
+        <v>0.310544</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227336</v>
+        <v>0.230755</v>
       </c>
       <c r="D25" t="n">
-        <v>0.199783</v>
+        <v>0.207181</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.316923</v>
+        <v>0.319575</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22816</v>
+        <v>0.231924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.20362</v>
+        <v>0.212577</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.318958</v>
+        <v>0.322123</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236772</v>
+        <v>0.24047</v>
       </c>
       <c r="D27" t="n">
-        <v>0.207247</v>
+        <v>0.214097</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321697</v>
+        <v>0.325506</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238767</v>
+        <v>0.24288</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20931</v>
+        <v>0.215608</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.331462</v>
+        <v>0.334035</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244104</v>
+        <v>0.247755</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211603</v>
+        <v>0.218835</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.335145</v>
+        <v>0.33799</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255852</v>
+        <v>0.259112</v>
       </c>
       <c r="D30" t="n">
-        <v>0.216381</v>
+        <v>0.223817</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.339195</v>
+        <v>0.34143</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253541</v>
+        <v>0.256478</v>
       </c>
       <c r="D31" t="n">
-        <v>0.218703</v>
+        <v>0.226137</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.309053</v>
+        <v>0.310878</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262227</v>
+        <v>0.265325</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222677</v>
+        <v>0.229644</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.314551</v>
+        <v>0.317083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272077</v>
+        <v>0.274574</v>
       </c>
       <c r="D33" t="n">
-        <v>0.227102</v>
+        <v>0.234361</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.319639</v>
+        <v>0.322441</v>
       </c>
       <c r="C34" t="n">
-        <v>0.275975</v>
+        <v>0.278905</v>
       </c>
       <c r="D34" t="n">
-        <v>0.230486</v>
+        <v>0.237369</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.320114</v>
+        <v>0.322813</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220418</v>
+        <v>0.223753</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208082</v>
+        <v>0.212525</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.324521</v>
+        <v>0.327686</v>
       </c>
       <c r="C36" t="n">
-        <v>0.225828</v>
+        <v>0.228605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209382</v>
+        <v>0.214234</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.330773</v>
+        <v>0.333826</v>
       </c>
       <c r="C37" t="n">
-        <v>0.229683</v>
+        <v>0.233247</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212097</v>
+        <v>0.21623</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.333103</v>
+        <v>0.336713</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233148</v>
+        <v>0.236426</v>
       </c>
       <c r="D38" t="n">
-        <v>0.213855</v>
+        <v>0.21887</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339486</v>
+        <v>0.343541</v>
       </c>
       <c r="C39" t="n">
-        <v>0.238555</v>
+        <v>0.241678</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217408</v>
+        <v>0.221399</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.348611</v>
+        <v>0.352022</v>
       </c>
       <c r="C40" t="n">
-        <v>0.241796</v>
+        <v>0.244728</v>
       </c>
       <c r="D40" t="n">
-        <v>0.219198</v>
+        <v>0.223551</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.353318</v>
+        <v>0.356438</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245029</v>
+        <v>0.248472</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220843</v>
+        <v>0.226005</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.356732</v>
+        <v>0.360913</v>
       </c>
       <c r="C42" t="n">
-        <v>0.246314</v>
+        <v>0.249972</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222844</v>
+        <v>0.2274</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.36302</v>
+        <v>0.366819</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251574</v>
+        <v>0.254536</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225661</v>
+        <v>0.23038</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.364892</v>
+        <v>0.36916</v>
       </c>
       <c r="C44" t="n">
-        <v>0.255192</v>
+        <v>0.259178</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227073</v>
+        <v>0.231692</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.373248</v>
+        <v>0.376854</v>
       </c>
       <c r="C45" t="n">
-        <v>0.257668</v>
+        <v>0.262126</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229129</v>
+        <v>0.234076</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.373706</v>
+        <v>0.377983</v>
       </c>
       <c r="C46" t="n">
-        <v>0.258924</v>
+        <v>0.26186</v>
       </c>
       <c r="D46" t="n">
-        <v>0.231457</v>
+        <v>0.236448</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.312752</v>
+        <v>0.320378</v>
       </c>
       <c r="C47" t="n">
-        <v>0.264881</v>
+        <v>0.268387</v>
       </c>
       <c r="D47" t="n">
-        <v>0.232958</v>
+        <v>0.237802</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.320734</v>
+        <v>0.324534</v>
       </c>
       <c r="C48" t="n">
-        <v>0.270427</v>
+        <v>0.273981</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234086</v>
+        <v>0.239683</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.324356</v>
+        <v>0.328451</v>
       </c>
       <c r="C49" t="n">
-        <v>0.272978</v>
+        <v>0.276943</v>
       </c>
       <c r="D49" t="n">
-        <v>0.237741</v>
+        <v>0.242854</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.32697</v>
+        <v>0.331376</v>
       </c>
       <c r="C50" t="n">
-        <v>0.244856</v>
+        <v>0.245153</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223713</v>
+        <v>0.228082</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.329801</v>
+        <v>0.33484</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247322</v>
+        <v>0.247418</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221976</v>
+        <v>0.229468</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.330041</v>
+        <v>0.337132</v>
       </c>
       <c r="C52" t="n">
-        <v>0.25047</v>
+        <v>0.254423</v>
       </c>
       <c r="D52" t="n">
-        <v>0.226361</v>
+        <v>0.230785</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.336655</v>
+        <v>0.341096</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255018</v>
+        <v>0.258662</v>
       </c>
       <c r="D53" t="n">
-        <v>0.228919</v>
+        <v>0.23326</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339159</v>
+        <v>0.344643</v>
       </c>
       <c r="C54" t="n">
-        <v>0.258692</v>
+        <v>0.262427</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231228</v>
+        <v>0.235627</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.345576</v>
+        <v>0.350214</v>
       </c>
       <c r="C55" t="n">
-        <v>0.264418</v>
+        <v>0.268115</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233721</v>
+        <v>0.238064</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.349867</v>
+        <v>0.354795</v>
       </c>
       <c r="C56" t="n">
-        <v>0.263399</v>
+        <v>0.267398</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233743</v>
+        <v>0.238474</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.356803</v>
+        <v>0.361623</v>
       </c>
       <c r="C57" t="n">
-        <v>0.27132</v>
+        <v>0.277179</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236433</v>
+        <v>0.241768</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3579</v>
+        <v>0.362935</v>
       </c>
       <c r="C58" t="n">
-        <v>0.278113</v>
+        <v>0.282341</v>
       </c>
       <c r="D58" t="n">
-        <v>0.239455</v>
+        <v>0.245172</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.36474</v>
+        <v>0.370102</v>
       </c>
       <c r="C59" t="n">
-        <v>0.284667</v>
+        <v>0.288825</v>
       </c>
       <c r="D59" t="n">
-        <v>0.242857</v>
+        <v>0.249792</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.370009</v>
+        <v>0.374944</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287941</v>
+        <v>0.292001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24757</v>
+        <v>0.252143</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.328574</v>
+        <v>0.334331</v>
       </c>
       <c r="C61" t="n">
-        <v>0.29385</v>
+        <v>0.297772</v>
       </c>
       <c r="D61" t="n">
-        <v>0.247813</v>
+        <v>0.253126</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.335121</v>
+        <v>0.341109</v>
       </c>
       <c r="C62" t="n">
-        <v>0.297975</v>
+        <v>0.302466</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249549</v>
+        <v>0.254397</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.338489</v>
+        <v>0.347701</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302964</v>
+        <v>0.307477</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253596</v>
+        <v>0.258785</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.346601</v>
+        <v>0.352117</v>
       </c>
       <c r="C64" t="n">
-        <v>0.268653</v>
+        <v>0.273394</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242464</v>
+        <v>0.247161</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.353533</v>
+        <v>0.357793</v>
       </c>
       <c r="C65" t="n">
-        <v>0.272888</v>
+        <v>0.277133</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240192</v>
+        <v>0.245321</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.357825</v>
+        <v>0.363572</v>
       </c>
       <c r="C66" t="n">
-        <v>0.275342</v>
+        <v>0.28003</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241689</v>
+        <v>0.247122</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.369577</v>
+        <v>0.369948</v>
       </c>
       <c r="C67" t="n">
-        <v>0.282315</v>
+        <v>0.287397</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242952</v>
+        <v>0.250456</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.371848</v>
+        <v>0.382277</v>
       </c>
       <c r="C68" t="n">
-        <v>0.286519</v>
+        <v>0.291731</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247318</v>
+        <v>0.252679</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.38278</v>
+        <v>0.386524</v>
       </c>
       <c r="C69" t="n">
-        <v>0.289961</v>
+        <v>0.295649</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250736</v>
+        <v>0.25668</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.386034</v>
+        <v>0.394611</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297322</v>
+        <v>0.302012</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254788</v>
+        <v>0.260511</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.398236</v>
+        <v>0.405283</v>
       </c>
       <c r="C71" t="n">
-        <v>0.304884</v>
+        <v>0.309353</v>
       </c>
       <c r="D71" t="n">
-        <v>0.257731</v>
+        <v>0.263099</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.408002</v>
+        <v>0.414984</v>
       </c>
       <c r="C72" t="n">
-        <v>0.311783</v>
+        <v>0.315974</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262096</v>
+        <v>0.267216</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.420425</v>
+        <v>0.427273</v>
       </c>
       <c r="C73" t="n">
-        <v>0.31939</v>
+        <v>0.324753</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267423</v>
+        <v>0.272794</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.431132</v>
+        <v>0.437546</v>
       </c>
       <c r="C74" t="n">
-        <v>0.324947</v>
+        <v>0.329539</v>
       </c>
       <c r="D74" t="n">
-        <v>0.26658</v>
+        <v>0.272824</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.453336</v>
+        <v>0.452915</v>
       </c>
       <c r="C75" t="n">
-        <v>0.331817</v>
+        <v>0.33758</v>
       </c>
       <c r="D75" t="n">
-        <v>0.270571</v>
+        <v>0.276001</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.461975</v>
+        <v>0.466616</v>
       </c>
       <c r="C76" t="n">
-        <v>0.34131</v>
+        <v>0.345593</v>
       </c>
       <c r="D76" t="n">
-        <v>0.279288</v>
+        <v>0.28331</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.478514</v>
+        <v>0.491941</v>
       </c>
       <c r="C77" t="n">
-        <v>0.351905</v>
+        <v>0.362531</v>
       </c>
       <c r="D77" t="n">
-        <v>0.281237</v>
+        <v>0.286349</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.505615</v>
+        <v>0.510063</v>
       </c>
       <c r="C78" t="n">
-        <v>0.328573</v>
+        <v>0.325101</v>
       </c>
       <c r="D78" t="n">
-        <v>0.280378</v>
+        <v>0.281654</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.538451</v>
+        <v>0.532747</v>
       </c>
       <c r="C79" t="n">
-        <v>0.336314</v>
+        <v>0.327398</v>
       </c>
       <c r="D79" t="n">
-        <v>0.280995</v>
+        <v>0.284983</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.562136</v>
+        <v>0.566201</v>
       </c>
       <c r="C80" t="n">
-        <v>0.365967</v>
+        <v>0.352719</v>
       </c>
       <c r="D80" t="n">
-        <v>0.297596</v>
+        <v>0.296324</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.601086</v>
+        <v>0.592028</v>
       </c>
       <c r="C81" t="n">
-        <v>0.372211</v>
+        <v>0.357718</v>
       </c>
       <c r="D81" t="n">
-        <v>0.298845</v>
+        <v>0.301725</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6257470000000001</v>
+        <v>0.630422</v>
       </c>
       <c r="C82" t="n">
-        <v>0.397848</v>
+        <v>0.383109</v>
       </c>
       <c r="D82" t="n">
-        <v>0.309183</v>
+        <v>0.314757</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.665191</v>
+        <v>0.682377</v>
       </c>
       <c r="C83" t="n">
-        <v>0.416529</v>
+        <v>0.403447</v>
       </c>
       <c r="D83" t="n">
-        <v>0.320156</v>
+        <v>0.333839</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.712527</v>
+        <v>0.733456</v>
       </c>
       <c r="C84" t="n">
-        <v>0.437568</v>
+        <v>0.429535</v>
       </c>
       <c r="D84" t="n">
-        <v>0.326433</v>
+        <v>0.343252</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.756815</v>
+        <v>0.768462</v>
       </c>
       <c r="C85" t="n">
-        <v>0.465742</v>
+        <v>0.459271</v>
       </c>
       <c r="D85" t="n">
-        <v>0.342007</v>
+        <v>0.348845</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.796704</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.48371</v>
+        <v>0.482949</v>
       </c>
       <c r="D86" t="n">
-        <v>0.355519</v>
+        <v>0.360451</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.842391</v>
+        <v>0.859381</v>
       </c>
       <c r="C87" t="n">
-        <v>0.509274</v>
+        <v>0.511081</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367831</v>
+        <v>0.374739</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8885150000000001</v>
+        <v>0.909891</v>
       </c>
       <c r="C88" t="n">
-        <v>0.540412</v>
+        <v>0.5389429999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.385708</v>
+        <v>0.390279</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.951176</v>
+        <v>0.969612</v>
       </c>
       <c r="C89" t="n">
-        <v>0.573477</v>
+        <v>0.576188</v>
       </c>
       <c r="D89" t="n">
-        <v>0.40298</v>
+        <v>0.412176</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.957412</v>
+        <v>0.9847860000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.61106</v>
+        <v>0.602201</v>
       </c>
       <c r="D90" t="n">
-        <v>0.417024</v>
+        <v>0.429945</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.996336</v>
+        <v>1.02652</v>
       </c>
       <c r="C91" t="n">
-        <v>0.648024</v>
+        <v>0.645617</v>
       </c>
       <c r="D91" t="n">
-        <v>0.442379</v>
+        <v>0.448108</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03272</v>
+        <v>1.06194</v>
       </c>
       <c r="C92" t="n">
-        <v>0.661196</v>
+        <v>0.67308</v>
       </c>
       <c r="D92" t="n">
-        <v>0.532749</v>
+        <v>0.542427</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0694</v>
+        <v>1.10236</v>
       </c>
       <c r="C93" t="n">
-        <v>0.687383</v>
+        <v>0.700636</v>
       </c>
       <c r="D93" t="n">
-        <v>0.551634</v>
+        <v>0.565594</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.11099</v>
+        <v>1.14046</v>
       </c>
       <c r="C94" t="n">
-        <v>0.720967</v>
+        <v>0.73344</v>
       </c>
       <c r="D94" t="n">
-        <v>0.570781</v>
+        <v>0.584017</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.14825</v>
+        <v>1.18518</v>
       </c>
       <c r="C95" t="n">
-        <v>0.747434</v>
+        <v>0.764723</v>
       </c>
       <c r="D95" t="n">
-        <v>0.589658</v>
+        <v>0.60499</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18842</v>
+        <v>1.22559</v>
       </c>
       <c r="C96" t="n">
-        <v>0.779824</v>
+        <v>0.7952360000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.609859</v>
+        <v>0.628648</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.23093</v>
+        <v>1.26833</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8122740000000001</v>
+        <v>0.829197</v>
       </c>
       <c r="D97" t="n">
-        <v>0.634261</v>
+        <v>0.6538929999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.26833</v>
+        <v>1.30515</v>
       </c>
       <c r="C98" t="n">
-        <v>0.843608</v>
+        <v>0.860955</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6573909999999999</v>
+        <v>0.680806</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.30773</v>
+        <v>1.34971</v>
       </c>
       <c r="C99" t="n">
-        <v>0.87982</v>
+        <v>0.899553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.678582</v>
+        <v>0.699202</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.34886</v>
+        <v>1.38841</v>
       </c>
       <c r="C100" t="n">
-        <v>0.911572</v>
+        <v>0.931759</v>
       </c>
       <c r="D100" t="n">
-        <v>0.704377</v>
+        <v>0.726792</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.38901</v>
+        <v>1.43031</v>
       </c>
       <c r="C101" t="n">
-        <v>0.941127</v>
+        <v>0.962568</v>
       </c>
       <c r="D101" t="n">
-        <v>0.726039</v>
+        <v>0.74697</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.43065</v>
+        <v>1.47594</v>
       </c>
       <c r="C102" t="n">
-        <v>0.978484</v>
+        <v>1.00383</v>
       </c>
       <c r="D102" t="n">
-        <v>0.75017</v>
+        <v>0.774783</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.47273</v>
+        <v>1.51926</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00897</v>
+        <v>1.03595</v>
       </c>
       <c r="D103" t="n">
-        <v>0.769519</v>
+        <v>0.7927959999999999</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.51254</v>
+        <v>1.56304</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0402</v>
+        <v>1.06856</v>
       </c>
       <c r="D104" t="n">
-        <v>0.794847</v>
+        <v>0.818532</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.3931</v>
+        <v>1.4376</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07985</v>
+        <v>1.11074</v>
       </c>
       <c r="D105" t="n">
-        <v>0.812835</v>
+        <v>0.836914</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.41836</v>
+        <v>1.46441</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11287</v>
+        <v>1.14475</v>
       </c>
       <c r="D106" t="n">
-        <v>0.83971</v>
+        <v>0.866549</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.44448</v>
+        <v>1.49342</v>
       </c>
       <c r="C107" t="n">
-        <v>1.00293</v>
+        <v>1.03384</v>
       </c>
       <c r="D107" t="n">
-        <v>0.853122</v>
+        <v>0.8832989999999999</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.47098</v>
+        <v>1.51892</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0245</v>
+        <v>1.05688</v>
       </c>
       <c r="D108" t="n">
-        <v>0.869739</v>
+        <v>0.898197</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.49797</v>
+        <v>1.55096</v>
       </c>
       <c r="C109" t="n">
-        <v>1.05241</v>
+        <v>1.08682</v>
       </c>
       <c r="D109" t="n">
-        <v>0.890087</v>
+        <v>0.920665</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.52684</v>
+        <v>1.57846</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07568</v>
+        <v>1.11268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.907148</v>
+        <v>0.935225</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.55488</v>
+        <v>1.60937</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09868</v>
+        <v>1.13437</v>
       </c>
       <c r="D111" t="n">
-        <v>0.923038</v>
+        <v>0.953763</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.58819</v>
+        <v>1.64201</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12836</v>
+        <v>1.1692</v>
       </c>
       <c r="D112" t="n">
-        <v>0.939877</v>
+        <v>0.970742</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.62017</v>
+        <v>1.67624</v>
       </c>
       <c r="C113" t="n">
-        <v>1.15622</v>
+        <v>1.19799</v>
       </c>
       <c r="D113" t="n">
-        <v>0.957726</v>
+        <v>0.989344</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.65278</v>
+        <v>1.70949</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18382</v>
+        <v>1.22461</v>
       </c>
       <c r="D114" t="n">
-        <v>0.970309</v>
+        <v>1.00482</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.68681</v>
+        <v>1.74452</v>
       </c>
       <c r="C115" t="n">
-        <v>1.21311</v>
+        <v>1.25744</v>
       </c>
       <c r="D115" t="n">
-        <v>0.985086</v>
+        <v>1.0189</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.72065</v>
+        <v>1.78284</v>
       </c>
       <c r="C116" t="n">
-        <v>1.24253</v>
+        <v>1.28967</v>
       </c>
       <c r="D116" t="n">
-        <v>1.00496</v>
+        <v>1.04001</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.75522</v>
+        <v>1.8202</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27166</v>
+        <v>1.32105</v>
       </c>
       <c r="D117" t="n">
-        <v>1.02286</v>
+        <v>1.06179</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.79248</v>
+        <v>1.85982</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3092</v>
+        <v>1.3579</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04062</v>
+        <v>1.07875</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.59832</v>
+        <v>1.65067</v>
       </c>
       <c r="C119" t="n">
-        <v>1.34461</v>
+        <v>1.39269</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05704</v>
+        <v>1.0941</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401255</v>
+        <v>0.401227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.290547</v>
+        <v>0.291394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219325</v>
+        <v>0.220709</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.412052</v>
+        <v>0.412558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292227</v>
+        <v>0.292577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221025</v>
+        <v>0.222575</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.424733</v>
+        <v>0.424418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308273</v>
+        <v>0.308641</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230604</v>
+        <v>0.232255</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428375</v>
+        <v>0.428534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.314719</v>
+        <v>0.31663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235928</v>
+        <v>0.237316</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.447089</v>
+        <v>0.448176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.315298</v>
+        <v>0.316954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23971</v>
+        <v>0.241283</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.459246</v>
+        <v>0.460038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.334907</v>
+        <v>0.335947</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248414</v>
+        <v>0.249778</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.473604</v>
+        <v>0.473656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347169</v>
+        <v>0.357561</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257249</v>
+        <v>0.259455</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.492142</v>
+        <v>0.499171</v>
       </c>
       <c r="C9" t="n">
-        <v>0.365203</v>
+        <v>0.368357</v>
       </c>
       <c r="D9" t="n">
-        <v>0.266737</v>
+        <v>0.26867</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.508877</v>
+        <v>0.513621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.381555</v>
+        <v>0.388437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.276843</v>
+        <v>0.277804</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.52547</v>
+        <v>0.52827</v>
       </c>
       <c r="C11" t="n">
-        <v>0.289338</v>
+        <v>0.291335</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218918</v>
+        <v>0.219905</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.396485</v>
+        <v>0.396481</v>
       </c>
       <c r="C12" t="n">
-        <v>0.293566</v>
+        <v>0.294974</v>
       </c>
       <c r="D12" t="n">
-        <v>0.221638</v>
+        <v>0.223485</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.409927</v>
+        <v>0.410255</v>
       </c>
       <c r="C13" t="n">
-        <v>0.305217</v>
+        <v>0.308171</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22896</v>
+        <v>0.231001</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.423351</v>
+        <v>0.420878</v>
       </c>
       <c r="C14" t="n">
-        <v>0.320174</v>
+        <v>0.326327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.231931</v>
+        <v>0.233568</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.445342</v>
+        <v>0.444392</v>
       </c>
       <c r="C15" t="n">
-        <v>0.333745</v>
+        <v>0.336924</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239787</v>
+        <v>0.239881</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.457725</v>
+        <v>0.452301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.343751</v>
+        <v>0.35323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245612</v>
+        <v>0.246679</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.461985</v>
+        <v>0.464776</v>
       </c>
       <c r="C17" t="n">
-        <v>0.363344</v>
+        <v>0.367223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252244</v>
+        <v>0.252976</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.484561</v>
+        <v>0.486391</v>
       </c>
       <c r="C18" t="n">
-        <v>0.372122</v>
+        <v>0.373948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253535</v>
+        <v>0.253906</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.501607</v>
+        <v>0.501236</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3915</v>
+        <v>0.394116</v>
       </c>
       <c r="D19" t="n">
-        <v>0.267367</v>
+        <v>0.265839</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5236499999999999</v>
+        <v>0.522108</v>
       </c>
       <c r="C20" t="n">
-        <v>0.419567</v>
+        <v>0.418256</v>
       </c>
       <c r="D20" t="n">
-        <v>0.275893</v>
+        <v>0.277885</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.535197</v>
+        <v>0.538171</v>
       </c>
       <c r="C21" t="n">
-        <v>0.43496</v>
+        <v>0.435854</v>
       </c>
       <c r="D21" t="n">
-        <v>0.286664</v>
+        <v>0.288128</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.558794</v>
+        <v>0.562368</v>
       </c>
       <c r="C22" t="n">
-        <v>0.457713</v>
+        <v>0.459317</v>
       </c>
       <c r="D22" t="n">
-        <v>0.293516</v>
+        <v>0.296859</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.57551</v>
+        <v>0.57836</v>
       </c>
       <c r="C23" t="n">
-        <v>0.482885</v>
+        <v>0.485359</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309416</v>
+        <v>0.310379</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.611739</v>
+        <v>0.613009</v>
       </c>
       <c r="C24" t="n">
-        <v>0.502966</v>
+        <v>0.506078</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318092</v>
+        <v>0.318491</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6477850000000001</v>
+        <v>0.647926</v>
       </c>
       <c r="C25" t="n">
-        <v>0.528763</v>
+        <v>0.530539</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325688</v>
+        <v>0.32724</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.673191</v>
+        <v>0.675028</v>
       </c>
       <c r="C26" t="n">
-        <v>0.335116</v>
+        <v>0.337436</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241236</v>
+        <v>0.243052</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.455689</v>
+        <v>0.454975</v>
       </c>
       <c r="C27" t="n">
-        <v>0.338602</v>
+        <v>0.341493</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243382</v>
+        <v>0.244356</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.469987</v>
+        <v>0.470785</v>
       </c>
       <c r="C28" t="n">
-        <v>0.353566</v>
+        <v>0.355226</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248464</v>
+        <v>0.251028</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.485851</v>
+        <v>0.486559</v>
       </c>
       <c r="C29" t="n">
-        <v>0.363848</v>
+        <v>0.361292</v>
       </c>
       <c r="D29" t="n">
-        <v>0.254443</v>
+        <v>0.256775</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.502333</v>
+        <v>0.504139</v>
       </c>
       <c r="C30" t="n">
-        <v>0.378799</v>
+        <v>0.382812</v>
       </c>
       <c r="D30" t="n">
-        <v>0.258228</v>
+        <v>0.262656</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.520066</v>
+        <v>0.520281</v>
       </c>
       <c r="C31" t="n">
-        <v>0.392655</v>
+        <v>0.395565</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267262</v>
+        <v>0.269938</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.535448</v>
+        <v>0.536358</v>
       </c>
       <c r="C32" t="n">
-        <v>0.410902</v>
+        <v>0.413778</v>
       </c>
       <c r="D32" t="n">
-        <v>0.276788</v>
+        <v>0.27968</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.56388</v>
+        <v>0.565683</v>
       </c>
       <c r="C33" t="n">
-        <v>0.429899</v>
+        <v>0.430067</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284672</v>
+        <v>0.288299</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.579363</v>
+        <v>0.579882</v>
       </c>
       <c r="C34" t="n">
-        <v>0.448846</v>
+        <v>0.45045</v>
       </c>
       <c r="D34" t="n">
-        <v>0.292897</v>
+        <v>0.295985</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.602264</v>
+        <v>0.603895</v>
       </c>
       <c r="C35" t="n">
-        <v>0.469815</v>
+        <v>0.470133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.300766</v>
+        <v>0.304938</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.621047</v>
+        <v>0.6232529999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.49447</v>
+        <v>0.494763</v>
       </c>
       <c r="D36" t="n">
-        <v>0.315375</v>
+        <v>0.318334</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.635757</v>
+        <v>0.637946</v>
       </c>
       <c r="C37" t="n">
-        <v>0.518499</v>
+        <v>0.519999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.326467</v>
+        <v>0.330096</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.662497</v>
+        <v>0.664226</v>
       </c>
       <c r="C38" t="n">
-        <v>0.540798</v>
+        <v>0.542063</v>
       </c>
       <c r="D38" t="n">
-        <v>0.334565</v>
+        <v>0.337799</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.697511</v>
+        <v>0.698448</v>
       </c>
       <c r="C39" t="n">
-        <v>0.572299</v>
+        <v>0.570418</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347648</v>
+        <v>0.352103</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.715475</v>
+        <v>0.71687</v>
       </c>
       <c r="C40" t="n">
-        <v>0.396428</v>
+        <v>0.398257</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281275</v>
+        <v>0.286144</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.526083</v>
+        <v>0.528856</v>
       </c>
       <c r="C41" t="n">
-        <v>0.407635</v>
+        <v>0.409308</v>
       </c>
       <c r="D41" t="n">
-        <v>0.287676</v>
+        <v>0.292742</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.538429</v>
+        <v>0.54103</v>
       </c>
       <c r="C42" t="n">
-        <v>0.424124</v>
+        <v>0.426534</v>
       </c>
       <c r="D42" t="n">
-        <v>0.29355</v>
+        <v>0.299625</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.55155</v>
+        <v>0.5535600000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.436908</v>
+        <v>0.438276</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298761</v>
+        <v>0.304584</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.567897</v>
+        <v>0.569333</v>
       </c>
       <c r="C44" t="n">
-        <v>0.460047</v>
+        <v>0.460599</v>
       </c>
       <c r="D44" t="n">
-        <v>0.310751</v>
+        <v>0.316589</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.584948</v>
+        <v>0.5868100000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.472922</v>
+        <v>0.473852</v>
       </c>
       <c r="D45" t="n">
-        <v>0.31841</v>
+        <v>0.322987</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.597092</v>
+        <v>0.599193</v>
       </c>
       <c r="C46" t="n">
-        <v>0.491198</v>
+        <v>0.491699</v>
       </c>
       <c r="D46" t="n">
-        <v>0.321406</v>
+        <v>0.326604</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.620026</v>
+        <v>0.621588</v>
       </c>
       <c r="C47" t="n">
-        <v>0.50764</v>
+        <v>0.509505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.331029</v>
+        <v>0.336391</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.636221</v>
+        <v>0.636686</v>
       </c>
       <c r="C48" t="n">
-        <v>0.524064</v>
+        <v>0.524985</v>
       </c>
       <c r="D48" t="n">
-        <v>0.34331</v>
+        <v>0.348114</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.648896</v>
+        <v>0.650753</v>
       </c>
       <c r="C49" t="n">
-        <v>0.546329</v>
+        <v>0.546929</v>
       </c>
       <c r="D49" t="n">
-        <v>0.351343</v>
+        <v>0.356318</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.67748</v>
+        <v>0.679377</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5663629999999999</v>
+        <v>0.567822</v>
       </c>
       <c r="D50" t="n">
-        <v>0.361763</v>
+        <v>0.366567</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.700887</v>
+        <v>0.70247</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5899529999999999</v>
+        <v>0.59137</v>
       </c>
       <c r="D51" t="n">
-        <v>0.37099</v>
+        <v>0.376346</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7284</v>
+        <v>0.729545</v>
       </c>
       <c r="C52" t="n">
-        <v>0.616254</v>
+        <v>0.616959</v>
       </c>
       <c r="D52" t="n">
-        <v>0.381687</v>
+        <v>0.386529</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.752677</v>
+        <v>0.754141</v>
       </c>
       <c r="C53" t="n">
-        <v>0.640085</v>
+        <v>0.6411520000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.392977</v>
+        <v>0.397528</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7777770000000001</v>
+        <v>0.7796149999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.449434</v>
+        <v>0.451673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.314943</v>
+        <v>0.320493</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.807855</v>
+        <v>0.809793</v>
       </c>
       <c r="C55" t="n">
-        <v>0.457732</v>
+        <v>0.460435</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319982</v>
+        <v>0.325271</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.560503</v>
+        <v>0.562592</v>
       </c>
       <c r="C56" t="n">
-        <v>0.474136</v>
+        <v>0.476508</v>
       </c>
       <c r="D56" t="n">
-        <v>0.324825</v>
+        <v>0.330533</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.574688</v>
+        <v>0.576467</v>
       </c>
       <c r="C57" t="n">
-        <v>0.488006</v>
+        <v>0.490738</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332996</v>
+        <v>0.338834</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.59088</v>
+        <v>0.592182</v>
       </c>
       <c r="C58" t="n">
-        <v>0.500656</v>
+        <v>0.504136</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336546</v>
+        <v>0.341988</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6050489999999999</v>
+        <v>0.60633</v>
       </c>
       <c r="C59" t="n">
-        <v>0.516358</v>
+        <v>0.519703</v>
       </c>
       <c r="D59" t="n">
-        <v>0.348177</v>
+        <v>0.353038</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.613192</v>
+        <v>0.6154500000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.533406</v>
+        <v>0.5365</v>
       </c>
       <c r="D60" t="n">
-        <v>0.352869</v>
+        <v>0.358077</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.633301</v>
+        <v>0.635446</v>
       </c>
       <c r="C61" t="n">
-        <v>0.550884</v>
+        <v>0.553106</v>
       </c>
       <c r="D61" t="n">
-        <v>0.359246</v>
+        <v>0.364655</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.653773</v>
+        <v>0.655722</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5653010000000001</v>
+        <v>0.567242</v>
       </c>
       <c r="D62" t="n">
-        <v>0.369514</v>
+        <v>0.374248</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.673578</v>
+        <v>0.674334</v>
       </c>
       <c r="C63" t="n">
-        <v>0.588772</v>
+        <v>0.591321</v>
       </c>
       <c r="D63" t="n">
-        <v>0.374883</v>
+        <v>0.379854</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6935249999999999</v>
+        <v>0.695601</v>
       </c>
       <c r="C64" t="n">
-        <v>0.607551</v>
+        <v>0.609697</v>
       </c>
       <c r="D64" t="n">
-        <v>0.387385</v>
+        <v>0.392607</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.722542</v>
+        <v>0.724244</v>
       </c>
       <c r="C65" t="n">
-        <v>0.634832</v>
+        <v>0.636114</v>
       </c>
       <c r="D65" t="n">
-        <v>0.399513</v>
+        <v>0.403625</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.74717</v>
+        <v>0.748258</v>
       </c>
       <c r="C66" t="n">
-        <v>0.652051</v>
+        <v>0.654081</v>
       </c>
       <c r="D66" t="n">
-        <v>0.408111</v>
+        <v>0.412489</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.776061</v>
+        <v>0.777408</v>
       </c>
       <c r="C67" t="n">
-        <v>0.679947</v>
+        <v>0.68153</v>
       </c>
       <c r="D67" t="n">
-        <v>0.422205</v>
+        <v>0.426345</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.796261</v>
+        <v>0.800002</v>
       </c>
       <c r="C68" t="n">
-        <v>0.441264</v>
+        <v>0.444942</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313822</v>
+        <v>0.319613</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.841711</v>
+        <v>0.8456399999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.460381</v>
+        <v>0.463483</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323344</v>
+        <v>0.328341</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.579184</v>
+        <v>0.583708</v>
       </c>
       <c r="C70" t="n">
-        <v>0.48</v>
+        <v>0.484171</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332802</v>
+        <v>0.337851</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.602062</v>
+        <v>0.61102</v>
       </c>
       <c r="C71" t="n">
-        <v>0.500731</v>
+        <v>0.506371</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337391</v>
+        <v>0.343436</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.629788</v>
+        <v>0.644607</v>
       </c>
       <c r="C72" t="n">
-        <v>0.522753</v>
+        <v>0.530147</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346196</v>
+        <v>0.352017</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.65404</v>
+        <v>0.674366</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5479270000000001</v>
+        <v>0.560347</v>
       </c>
       <c r="D73" t="n">
-        <v>0.358099</v>
+        <v>0.362888</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.680038</v>
+        <v>0.7003200000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.568331</v>
+        <v>0.582441</v>
       </c>
       <c r="D74" t="n">
-        <v>0.368957</v>
+        <v>0.373857</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7095129999999999</v>
+        <v>0.741426</v>
       </c>
       <c r="C75" t="n">
-        <v>0.598398</v>
+        <v>0.619686</v>
       </c>
       <c r="D75" t="n">
-        <v>0.376855</v>
+        <v>0.381151</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.744938</v>
+        <v>0.777994</v>
       </c>
       <c r="C76" t="n">
-        <v>0.628181</v>
+        <v>0.65242</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385667</v>
+        <v>0.391526</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.78234</v>
+        <v>0.819358</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6643790000000001</v>
+        <v>0.692715</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399834</v>
+        <v>0.406543</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.826717</v>
+        <v>0.866641</v>
       </c>
       <c r="C78" t="n">
-        <v>0.700647</v>
+        <v>0.732163</v>
       </c>
       <c r="D78" t="n">
-        <v>0.41484</v>
+        <v>0.424336</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.887601</v>
+        <v>0.90915</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7527199999999999</v>
+        <v>0.769448</v>
       </c>
       <c r="D79" t="n">
-        <v>0.429385</v>
+        <v>0.439014</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.949809</v>
+        <v>0.967037</v>
       </c>
       <c r="C80" t="n">
-        <v>0.81223</v>
+        <v>0.826605</v>
       </c>
       <c r="D80" t="n">
-        <v>0.443578</v>
+        <v>0.452971</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02643</v>
+        <v>1.04535</v>
       </c>
       <c r="C81" t="n">
-        <v>0.880949</v>
+        <v>0.889551</v>
       </c>
       <c r="D81" t="n">
-        <v>0.465713</v>
+        <v>0.475982</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10545</v>
+        <v>1.12094</v>
       </c>
       <c r="C82" t="n">
-        <v>0.95727</v>
+        <v>0.962342</v>
       </c>
       <c r="D82" t="n">
-        <v>0.473821</v>
+        <v>0.48779</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.18819</v>
+        <v>1.20143</v>
       </c>
       <c r="C83" t="n">
-        <v>0.672961</v>
+        <v>0.663408</v>
       </c>
       <c r="D83" t="n">
-        <v>0.386626</v>
+        <v>0.39231</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.30633</v>
+        <v>1.31357</v>
       </c>
       <c r="C84" t="n">
-        <v>0.720082</v>
+        <v>0.718535</v>
       </c>
       <c r="D84" t="n">
-        <v>0.398914</v>
+        <v>0.409248</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.918687</v>
+        <v>0.931432</v>
       </c>
       <c r="C85" t="n">
-        <v>0.779843</v>
+        <v>0.7702</v>
       </c>
       <c r="D85" t="n">
-        <v>0.41504</v>
+        <v>0.42795</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00051</v>
+        <v>1.01847</v>
       </c>
       <c r="C86" t="n">
-        <v>0.860658</v>
+        <v>0.854012</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433951</v>
+        <v>0.447258</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08023</v>
+        <v>1.09239</v>
       </c>
       <c r="C87" t="n">
-        <v>0.939883</v>
+        <v>0.933696</v>
       </c>
       <c r="D87" t="n">
-        <v>0.456464</v>
+        <v>0.46728</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.18232</v>
+        <v>1.19137</v>
       </c>
       <c r="C88" t="n">
-        <v>1.04732</v>
+        <v>1.04398</v>
       </c>
       <c r="D88" t="n">
-        <v>0.484333</v>
+        <v>0.488986</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.28478</v>
+        <v>1.29536</v>
       </c>
       <c r="C89" t="n">
-        <v>1.152</v>
+        <v>1.14853</v>
       </c>
       <c r="D89" t="n">
-        <v>0.528498</v>
+        <v>0.525962</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.39815</v>
+        <v>1.41871</v>
       </c>
       <c r="C90" t="n">
-        <v>1.26312</v>
+        <v>1.27106</v>
       </c>
       <c r="D90" t="n">
-        <v>0.554046</v>
+        <v>0.555263</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.52263</v>
+        <v>1.55339</v>
       </c>
       <c r="C91" t="n">
-        <v>1.3867</v>
+        <v>1.40442</v>
       </c>
       <c r="D91" t="n">
-        <v>0.588887</v>
+        <v>0.591803</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.65094</v>
+        <v>1.68539</v>
       </c>
       <c r="C92" t="n">
-        <v>1.5204</v>
+        <v>1.54702</v>
       </c>
       <c r="D92" t="n">
-        <v>0.639079</v>
+        <v>0.652994</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.79381</v>
+        <v>1.8319</v>
       </c>
       <c r="C93" t="n">
-        <v>1.66476</v>
+        <v>1.69592</v>
       </c>
       <c r="D93" t="n">
-        <v>0.692792</v>
+        <v>0.704463</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.94568</v>
+        <v>1.99127</v>
       </c>
       <c r="C94" t="n">
-        <v>1.82036</v>
+        <v>1.85954</v>
       </c>
       <c r="D94" t="n">
-        <v>0.749119</v>
+        <v>0.768068</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.10577</v>
+        <v>2.15697</v>
       </c>
       <c r="C95" t="n">
-        <v>1.98599</v>
+        <v>2.03462</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8031430000000001</v>
+        <v>0.829237</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.28249</v>
+        <v>2.33881</v>
       </c>
       <c r="C96" t="n">
-        <v>2.18174</v>
+        <v>2.23404</v>
       </c>
       <c r="D96" t="n">
-        <v>0.869016</v>
+        <v>0.89766</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.46897</v>
+        <v>2.52874</v>
       </c>
       <c r="C97" t="n">
-        <v>1.32112</v>
+        <v>1.34888</v>
       </c>
       <c r="D97" t="n">
-        <v>0.660299</v>
+        <v>0.6805639999999999</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.65056</v>
+        <v>2.71363</v>
       </c>
       <c r="C98" t="n">
-        <v>1.41555</v>
+        <v>1.44705</v>
       </c>
       <c r="D98" t="n">
-        <v>0.705581</v>
+        <v>0.7267479999999999</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.84612</v>
+        <v>1.89277</v>
       </c>
       <c r="C99" t="n">
-        <v>1.50898</v>
+        <v>1.54337</v>
       </c>
       <c r="D99" t="n">
-        <v>0.751955</v>
+        <v>0.773783</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.94956</v>
+        <v>1.99956</v>
       </c>
       <c r="C100" t="n">
-        <v>1.61426</v>
+        <v>1.65398</v>
       </c>
       <c r="D100" t="n">
-        <v>0.790616</v>
+        <v>0.809275</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.05104</v>
+        <v>2.10422</v>
       </c>
       <c r="C101" t="n">
-        <v>1.73026</v>
+        <v>1.76838</v>
       </c>
       <c r="D101" t="n">
-        <v>0.844231</v>
+        <v>0.87027</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.16701</v>
+        <v>2.22599</v>
       </c>
       <c r="C102" t="n">
-        <v>1.84009</v>
+        <v>1.88553</v>
       </c>
       <c r="D102" t="n">
-        <v>0.889209</v>
+        <v>0.913848</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.27524</v>
+        <v>2.33478</v>
       </c>
       <c r="C103" t="n">
-        <v>2.03528</v>
+        <v>2.01488</v>
       </c>
       <c r="D103" t="n">
-        <v>0.962005</v>
+        <v>0.966106</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.45406</v>
+        <v>2.46552</v>
       </c>
       <c r="C104" t="n">
-        <v>2.12993</v>
+        <v>2.15244</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01224</v>
+        <v>1.02456</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.56231</v>
+        <v>2.59572</v>
       </c>
       <c r="C105" t="n">
-        <v>2.27456</v>
+        <v>2.29332</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0865</v>
+        <v>1.09762</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.6999</v>
+        <v>2.73666</v>
       </c>
       <c r="C106" t="n">
-        <v>2.40983</v>
+        <v>2.43333</v>
       </c>
       <c r="D106" t="n">
-        <v>1.12731</v>
+        <v>1.13776</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.84364</v>
+        <v>2.8635</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54948</v>
+        <v>2.57073</v>
       </c>
       <c r="D107" t="n">
-        <v>1.19304</v>
+        <v>1.20917</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.98128</v>
+        <v>3.00217</v>
       </c>
       <c r="C108" t="n">
-        <v>2.7132</v>
+        <v>2.73903</v>
       </c>
       <c r="D108" t="n">
-        <v>1.2672</v>
+        <v>1.28307</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.12088</v>
+        <v>3.14589</v>
       </c>
       <c r="C109" t="n">
-        <v>2.8814</v>
+        <v>2.90924</v>
       </c>
       <c r="D109" t="n">
-        <v>1.32747</v>
+        <v>1.34524</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.2748</v>
+        <v>3.30424</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0485</v>
+        <v>3.08593</v>
       </c>
       <c r="D110" t="n">
-        <v>1.40439</v>
+        <v>1.41924</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.44297</v>
+        <v>3.48293</v>
       </c>
       <c r="C111" t="n">
-        <v>1.92349</v>
+        <v>1.94408</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11856</v>
+        <v>1.13264</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.64036</v>
+        <v>3.68475</v>
       </c>
       <c r="C112" t="n">
-        <v>2.02107</v>
+        <v>2.04688</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16853</v>
+        <v>1.18278</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.83781</v>
+        <v>3.88801</v>
       </c>
       <c r="C113" t="n">
-        <v>2.11804</v>
+        <v>2.14288</v>
       </c>
       <c r="D113" t="n">
-        <v>1.19313</v>
+        <v>1.20952</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.60076</v>
+        <v>2.61693</v>
       </c>
       <c r="C114" t="n">
-        <v>2.21457</v>
+        <v>2.24485</v>
       </c>
       <c r="D114" t="n">
-        <v>1.24006</v>
+        <v>1.25702</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.69429</v>
+        <v>2.69871</v>
       </c>
       <c r="C115" t="n">
-        <v>2.31699</v>
+        <v>2.34859</v>
       </c>
       <c r="D115" t="n">
-        <v>1.30387</v>
+        <v>1.3221</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.79558</v>
+        <v>2.81389</v>
       </c>
       <c r="C116" t="n">
-        <v>2.42547</v>
+        <v>2.46267</v>
       </c>
       <c r="D116" t="n">
-        <v>1.32974</v>
+        <v>1.35242</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.89794</v>
+        <v>2.92964</v>
       </c>
       <c r="C117" t="n">
-        <v>2.55172</v>
+        <v>2.59227</v>
       </c>
       <c r="D117" t="n">
-        <v>1.39731</v>
+        <v>1.41878</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.01392</v>
+        <v>3.03638</v>
       </c>
       <c r="C118" t="n">
-        <v>2.69148</v>
+        <v>2.72497</v>
       </c>
       <c r="D118" t="n">
-        <v>1.43627</v>
+        <v>1.46078</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.12407</v>
+        <v>3.15496</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82099</v>
+        <v>2.86455</v>
       </c>
       <c r="D119" t="n">
-        <v>1.5027</v>
+        <v>1.52486</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered successful looukp.xlsx
+++ b/gcc/scattered successful looukp.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>25.9976</v>
+        <v>26.5385</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4283</v>
+        <v>19.266</v>
       </c>
       <c r="D2" t="n">
-        <v>19.9415</v>
+        <v>19.7925</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>21.5461</v>
+        <v>21.5733</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4779</v>
+        <v>19.1573</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1401</v>
+        <v>19.8989</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>21.9964</v>
+        <v>21.8109</v>
       </c>
       <c r="C4" t="n">
-        <v>20.134</v>
+        <v>19.7388</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9839</v>
+        <v>20.5286</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>22.5039</v>
+        <v>22.4862</v>
       </c>
       <c r="C5" t="n">
-        <v>20.7575</v>
+        <v>20.1981</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4918</v>
+        <v>21.0563</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>22.8077</v>
+        <v>23.0957</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2948</v>
+        <v>20.6952</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1052</v>
+        <v>21.6239</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>23.5787</v>
+        <v>23.7945</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5915</v>
+        <v>17.3708</v>
       </c>
       <c r="D7" t="n">
-        <v>18.5373</v>
+        <v>18.5777</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0281</v>
+        <v>24.1198</v>
       </c>
       <c r="C8" t="n">
-        <v>17.8154</v>
+        <v>17.5256</v>
       </c>
       <c r="D8" t="n">
-        <v>18.8646</v>
+        <v>18.7652</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>24.7117</v>
+        <v>24.5012</v>
       </c>
       <c r="C9" t="n">
-        <v>18.242</v>
+        <v>17.9884</v>
       </c>
       <c r="D9" t="n">
-        <v>19.2956</v>
+        <v>19.1139</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3089</v>
+        <v>25.1307</v>
       </c>
       <c r="C10" t="n">
-        <v>18.7053</v>
+        <v>18.3806</v>
       </c>
       <c r="D10" t="n">
-        <v>19.6387</v>
+        <v>19.4502</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>25.6429</v>
+        <v>25.6491</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1273</v>
+        <v>18.774</v>
       </c>
       <c r="D11" t="n">
-        <v>20.16</v>
+        <v>19.7994</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4281</v>
+        <v>26.6243</v>
       </c>
       <c r="C12" t="n">
-        <v>19.6772</v>
+        <v>19.3465</v>
       </c>
       <c r="D12" t="n">
-        <v>20.6809</v>
+        <v>20.3199</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9221</v>
+        <v>27.1946</v>
       </c>
       <c r="C13" t="n">
-        <v>19.96</v>
+        <v>19.609</v>
       </c>
       <c r="D13" t="n">
-        <v>21.0277</v>
+        <v>20.719</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>27.5451</v>
+        <v>27.584</v>
       </c>
       <c r="C14" t="n">
-        <v>20.4154</v>
+        <v>20.0298</v>
       </c>
       <c r="D14" t="n">
-        <v>21.5264</v>
+        <v>21.0397</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3265</v>
+        <v>28.5326</v>
       </c>
       <c r="C15" t="n">
-        <v>20.9038</v>
+        <v>20.5334</v>
       </c>
       <c r="D15" t="n">
-        <v>22.104</v>
+        <v>21.6277</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>28.7753</v>
+        <v>29.0629</v>
       </c>
       <c r="C16" t="n">
-        <v>21.2883</v>
+        <v>20.8946</v>
       </c>
       <c r="D16" t="n">
-        <v>22.5009</v>
+        <v>22.051</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>29.5315</v>
+        <v>29.8073</v>
       </c>
       <c r="C17" t="n">
-        <v>21.8516</v>
+        <v>21.4266</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0115</v>
+        <v>22.6275</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>24.6883</v>
+        <v>25.2212</v>
       </c>
       <c r="C18" t="n">
-        <v>22.1259</v>
+        <v>21.7884</v>
       </c>
       <c r="D18" t="n">
-        <v>23.3901</v>
+        <v>22.9289</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>25.4531</v>
+        <v>25.6754</v>
       </c>
       <c r="C19" t="n">
-        <v>22.5314</v>
+        <v>22.1555</v>
       </c>
       <c r="D19" t="n">
-        <v>23.807</v>
+        <v>23.3934</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>25.707</v>
+        <v>26.1471</v>
       </c>
       <c r="C20" t="n">
-        <v>22.8923</v>
+        <v>22.5332</v>
       </c>
       <c r="D20" t="n">
-        <v>24.3154</v>
+        <v>23.8771</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>26.2949</v>
+        <v>26.5058</v>
       </c>
       <c r="C21" t="n">
-        <v>19.4011</v>
+        <v>19.1325</v>
       </c>
       <c r="D21" t="n">
-        <v>20.4843</v>
+        <v>20.3501</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>26.8416</v>
+        <v>27.116</v>
       </c>
       <c r="C22" t="n">
-        <v>19.7844</v>
+        <v>19.5479</v>
       </c>
       <c r="D22" t="n">
-        <v>20.9465</v>
+        <v>20.7297</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>27.2974</v>
+        <v>27.5947</v>
       </c>
       <c r="C23" t="n">
-        <v>20.1432</v>
+        <v>19.899</v>
       </c>
       <c r="D23" t="n">
-        <v>21.2933</v>
+        <v>21.0771</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>27.7873</v>
+        <v>27.9267</v>
       </c>
       <c r="C24" t="n">
-        <v>20.5069</v>
+        <v>20.2647</v>
       </c>
       <c r="D24" t="n">
-        <v>21.7085</v>
+        <v>21.4335</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>28.3812</v>
+        <v>28.596</v>
       </c>
       <c r="C25" t="n">
-        <v>20.8548</v>
+        <v>20.5974</v>
       </c>
       <c r="D25" t="n">
-        <v>22.0513</v>
+        <v>21.8055</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>29.0019</v>
+        <v>29.2666</v>
       </c>
       <c r="C26" t="n">
-        <v>21.2757</v>
+        <v>21.0347</v>
       </c>
       <c r="D26" t="n">
-        <v>22.4913</v>
+        <v>22.2527</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>29.5183</v>
+        <v>29.7848</v>
       </c>
       <c r="C27" t="n">
-        <v>21.7494</v>
+        <v>21.4032</v>
       </c>
       <c r="D27" t="n">
-        <v>22.8951</v>
+        <v>22.6348</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>30.0397</v>
+        <v>30.3585</v>
       </c>
       <c r="C28" t="n">
-        <v>22.2474</v>
+        <v>21.9407</v>
       </c>
       <c r="D28" t="n">
-        <v>23.4154</v>
+        <v>23.1608</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>30.516</v>
+        <v>30.8346</v>
       </c>
       <c r="C29" t="n">
-        <v>22.7396</v>
+        <v>22.4211</v>
       </c>
       <c r="D29" t="n">
-        <v>23.9524</v>
+        <v>23.6528</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>31.1407</v>
+        <v>31.4492</v>
       </c>
       <c r="C30" t="n">
-        <v>23.1462</v>
+        <v>22.8309</v>
       </c>
       <c r="D30" t="n">
-        <v>24.369</v>
+        <v>24.0371</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>31.6282</v>
+        <v>31.9783</v>
       </c>
       <c r="C31" t="n">
-        <v>23.616</v>
+        <v>23.2965</v>
       </c>
       <c r="D31" t="n">
-        <v>24.7803</v>
+        <v>24.4603</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>26.5097</v>
+        <v>26.6021</v>
       </c>
       <c r="C32" t="n">
-        <v>23.9662</v>
+        <v>23.6719</v>
       </c>
       <c r="D32" t="n">
-        <v>25.1848</v>
+        <v>24.8146</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>26.9343</v>
+        <v>26.9613</v>
       </c>
       <c r="C33" t="n">
-        <v>24.4833</v>
+        <v>24.1777</v>
       </c>
       <c r="D33" t="n">
-        <v>25.722</v>
+        <v>25.3411</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>27.251</v>
+        <v>27.2888</v>
       </c>
       <c r="C34" t="n">
-        <v>24.8098</v>
+        <v>24.4926</v>
       </c>
       <c r="D34" t="n">
-        <v>26.1034</v>
+        <v>25.7032</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>27.623</v>
+        <v>27.6993</v>
       </c>
       <c r="C35" t="n">
-        <v>20.301</v>
+        <v>20.0219</v>
       </c>
       <c r="D35" t="n">
-        <v>21.1924</v>
+        <v>20.9684</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>28.0713</v>
+        <v>28.0914</v>
       </c>
       <c r="C36" t="n">
-        <v>20.5843</v>
+        <v>20.2752</v>
       </c>
       <c r="D36" t="n">
-        <v>21.5136</v>
+        <v>21.2829</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>28.4593</v>
+        <v>28.6043</v>
       </c>
       <c r="C37" t="n">
-        <v>20.9104</v>
+        <v>20.6042</v>
       </c>
       <c r="D37" t="n">
-        <v>21.8729</v>
+        <v>21.5921</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>28.9305</v>
+        <v>28.9682</v>
       </c>
       <c r="C38" t="n">
-        <v>21.2665</v>
+        <v>20.9738</v>
       </c>
       <c r="D38" t="n">
-        <v>22.2546</v>
+        <v>21.9526</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>29.3595</v>
+        <v>29.4098</v>
       </c>
       <c r="C39" t="n">
-        <v>21.682</v>
+        <v>21.345</v>
       </c>
       <c r="D39" t="n">
-        <v>22.6753</v>
+        <v>22.3621</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>29.8269</v>
+        <v>29.9228</v>
       </c>
       <c r="C40" t="n">
-        <v>22.0889</v>
+        <v>21.7769</v>
       </c>
       <c r="D40" t="n">
-        <v>23.0818</v>
+        <v>22.7581</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>30.3395</v>
+        <v>30.4557</v>
       </c>
       <c r="C41" t="n">
-        <v>22.5169</v>
+        <v>22.1919</v>
       </c>
       <c r="D41" t="n">
-        <v>23.5035</v>
+        <v>23.1769</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>30.8763</v>
+        <v>31.1448</v>
       </c>
       <c r="C42" t="n">
-        <v>22.9107</v>
+        <v>22.5843</v>
       </c>
       <c r="D42" t="n">
-        <v>23.87</v>
+        <v>23.5317</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>31.3713</v>
+        <v>31.6587</v>
       </c>
       <c r="C43" t="n">
-        <v>23.37</v>
+        <v>23.0389</v>
       </c>
       <c r="D43" t="n">
-        <v>24.3066</v>
+        <v>23.9502</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>31.9305</v>
+        <v>32.2028</v>
       </c>
       <c r="C44" t="n">
-        <v>23.8524</v>
+        <v>23.5282</v>
       </c>
       <c r="D44" t="n">
-        <v>24.7757</v>
+        <v>24.4478</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>32.4502</v>
+        <v>32.7239</v>
       </c>
       <c r="C45" t="n">
-        <v>24.3228</v>
+        <v>23.9761</v>
       </c>
       <c r="D45" t="n">
-        <v>25.1698</v>
+        <v>24.8393</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>32.9071</v>
+        <v>33.2341</v>
       </c>
       <c r="C46" t="n">
-        <v>24.7313</v>
+        <v>24.3706</v>
       </c>
       <c r="D46" t="n">
-        <v>25.6188</v>
+        <v>25.2867</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>27.5911</v>
+        <v>27.778</v>
       </c>
       <c r="C47" t="n">
-        <v>25.1937</v>
+        <v>24.8419</v>
       </c>
       <c r="D47" t="n">
-        <v>26.0394</v>
+        <v>25.6889</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>27.9187</v>
+        <v>28.1045</v>
       </c>
       <c r="C48" t="n">
-        <v>25.609</v>
+        <v>25.2415</v>
       </c>
       <c r="D48" t="n">
-        <v>26.4242</v>
+        <v>26.0684</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>28.2784</v>
+        <v>28.4175</v>
       </c>
       <c r="C49" t="n">
-        <v>25.9355</v>
+        <v>25.6068</v>
       </c>
       <c r="D49" t="n">
-        <v>26.7943</v>
+        <v>26.4563</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>28.6511</v>
+        <v>28.718</v>
       </c>
       <c r="C50" t="n">
-        <v>21.1115</v>
+        <v>20.8363</v>
       </c>
       <c r="D50" t="n">
-        <v>21.6957</v>
+        <v>21.5099</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>29.0316</v>
+        <v>29.096</v>
       </c>
       <c r="C51" t="n">
-        <v>21.3947</v>
+        <v>21.1361</v>
       </c>
       <c r="D51" t="n">
-        <v>22.0087</v>
+        <v>21.8127</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>29.4807</v>
+        <v>29.5575</v>
       </c>
       <c r="C52" t="n">
-        <v>21.7228</v>
+        <v>21.4589</v>
       </c>
       <c r="D52" t="n">
-        <v>22.4173</v>
+        <v>22.1745</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>29.9243</v>
+        <v>30.1415</v>
       </c>
       <c r="C53" t="n">
-        <v>22.1252</v>
+        <v>21.8222</v>
       </c>
       <c r="D53" t="n">
-        <v>22.7357</v>
+        <v>22.4969</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>30.4446</v>
+        <v>30.7117</v>
       </c>
       <c r="C54" t="n">
-        <v>22.4651</v>
+        <v>22.1828</v>
       </c>
       <c r="D54" t="n">
-        <v>23.1206</v>
+        <v>22.9006</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>30.9201</v>
+        <v>31.0246</v>
       </c>
       <c r="C55" t="n">
-        <v>22.9097</v>
+        <v>22.5791</v>
       </c>
       <c r="D55" t="n">
-        <v>23.5013</v>
+        <v>23.2484</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>31.4241</v>
+        <v>31.5739</v>
       </c>
       <c r="C56" t="n">
-        <v>23.3092</v>
+        <v>23.0264</v>
       </c>
       <c r="D56" t="n">
-        <v>23.9452</v>
+        <v>23.7041</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>31.9952</v>
+        <v>32.2856</v>
       </c>
       <c r="C57" t="n">
-        <v>23.7907</v>
+        <v>23.4675</v>
       </c>
       <c r="D57" t="n">
-        <v>24.3529</v>
+        <v>24.1023</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>32.4358</v>
+        <v>32.7302</v>
       </c>
       <c r="C58" t="n">
-        <v>24.2463</v>
+        <v>23.9408</v>
       </c>
       <c r="D58" t="n">
-        <v>24.7743</v>
+        <v>24.4835</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>32.9045</v>
+        <v>33.2003</v>
       </c>
       <c r="C59" t="n">
-        <v>24.7399</v>
+        <v>24.4157</v>
       </c>
       <c r="D59" t="n">
-        <v>25.2257</v>
+        <v>24.9372</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>33.4998</v>
+        <v>33.7743</v>
       </c>
       <c r="C60" t="n">
-        <v>25.2004</v>
+        <v>24.8685</v>
       </c>
       <c r="D60" t="n">
-        <v>25.6385</v>
+        <v>25.3468</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>28.4811</v>
+        <v>28.5794</v>
       </c>
       <c r="C61" t="n">
-        <v>25.6464</v>
+        <v>25.3068</v>
       </c>
       <c r="D61" t="n">
-        <v>26.0863</v>
+        <v>25.8255</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>28.7349</v>
+        <v>29.0242</v>
       </c>
       <c r="C62" t="n">
-        <v>26.043</v>
+        <v>25.7123</v>
       </c>
       <c r="D62" t="n">
-        <v>26.5004</v>
+        <v>26.2108</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>29.6523</v>
+        <v>29.7617</v>
       </c>
       <c r="C63" t="n">
-        <v>26.4822</v>
+        <v>26.1383</v>
       </c>
       <c r="D63" t="n">
-        <v>26.9784</v>
+        <v>26.6542</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>29.5832</v>
+        <v>30.6271</v>
       </c>
       <c r="C64" t="n">
-        <v>21.8706</v>
+        <v>21.7576</v>
       </c>
       <c r="D64" t="n">
-        <v>22.4647</v>
+        <v>22.2926</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>30.3498</v>
+        <v>31.0062</v>
       </c>
       <c r="C65" t="n">
-        <v>22.414</v>
+        <v>22.3081</v>
       </c>
       <c r="D65" t="n">
-        <v>22.9736</v>
+        <v>22.8193</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>31.3088</v>
+        <v>31.8364</v>
       </c>
       <c r="C66" t="n">
-        <v>22.9056</v>
+        <v>22.687</v>
       </c>
       <c r="D66" t="n">
-        <v>23.422</v>
+        <v>23.2789</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>31.94</v>
+        <v>33.1102</v>
       </c>
       <c r="C67" t="n">
-        <v>23.2961</v>
+        <v>23.4147</v>
       </c>
       <c r="D67" t="n">
-        <v>24.0113</v>
+        <v>23.8446</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>32.4898</v>
+        <v>33.7244</v>
       </c>
       <c r="C68" t="n">
-        <v>23.919</v>
+        <v>23.8585</v>
       </c>
       <c r="D68" t="n">
-        <v>24.7472</v>
+        <v>24.3507</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>34.7064</v>
+        <v>34.8043</v>
       </c>
       <c r="C69" t="n">
-        <v>24.4685</v>
+        <v>24.4559</v>
       </c>
       <c r="D69" t="n">
-        <v>24.7641</v>
+        <v>24.6981</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>34.1555</v>
+        <v>35.4541</v>
       </c>
       <c r="C70" t="n">
-        <v>24.8587</v>
+        <v>24.8881</v>
       </c>
       <c r="D70" t="n">
-        <v>25.2957</v>
+        <v>25.2524</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>35.289</v>
+        <v>36.5822</v>
       </c>
       <c r="C71" t="n">
-        <v>25.6519</v>
+        <v>25.7338</v>
       </c>
       <c r="D71" t="n">
-        <v>26.068</v>
+        <v>25.9776</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>36.7636</v>
+        <v>38.128</v>
       </c>
       <c r="C72" t="n">
-        <v>26.4809</v>
+        <v>26.4817</v>
       </c>
       <c r="D72" t="n">
-        <v>26.9244</v>
+        <v>26.8093</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>38.2041</v>
+        <v>39.5984</v>
       </c>
       <c r="C73" t="n">
-        <v>27.3868</v>
+        <v>27.2638</v>
       </c>
       <c r="D73" t="n">
-        <v>27.8304</v>
+        <v>27.6609</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>39.9724</v>
+        <v>41.0055</v>
       </c>
       <c r="C74" t="n">
-        <v>28.2847</v>
+        <v>28.1698</v>
       </c>
       <c r="D74" t="n">
-        <v>28.6764</v>
+        <v>28.4838</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>41.4461</v>
+        <v>42.7243</v>
       </c>
       <c r="C75" t="n">
-        <v>29.2893</v>
+        <v>29.1551</v>
       </c>
       <c r="D75" t="n">
-        <v>29.5283</v>
+        <v>29.3233</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>49.0198</v>
+        <v>49.6879</v>
       </c>
       <c r="C76" t="n">
-        <v>30.1649</v>
+        <v>30.7583</v>
       </c>
       <c r="D76" t="n">
-        <v>30.4857</v>
+        <v>30.3124</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>50.0877</v>
+        <v>50.8831</v>
       </c>
       <c r="C77" t="n">
-        <v>32.2478</v>
+        <v>31.4974</v>
       </c>
       <c r="D77" t="n">
-        <v>32.3312</v>
+        <v>31.5806</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>51.9295</v>
+        <v>52.5052</v>
       </c>
       <c r="C78" t="n">
-        <v>31.6126</v>
+        <v>31.1113</v>
       </c>
       <c r="D78" t="n">
-        <v>31.9641</v>
+        <v>31.3787</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>53.4485</v>
+        <v>54.0147</v>
       </c>
       <c r="C79" t="n">
-        <v>32.4493</v>
+        <v>31.9114</v>
       </c>
       <c r="D79" t="n">
-        <v>32.8971</v>
+        <v>32.9057</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>55.3395</v>
+        <v>56.353</v>
       </c>
       <c r="C80" t="n">
-        <v>33.9778</v>
+        <v>33.2557</v>
       </c>
       <c r="D80" t="n">
-        <v>33.8565</v>
+        <v>34.2749</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>57.6728</v>
+        <v>58.4766</v>
       </c>
       <c r="C81" t="n">
-        <v>35.2749</v>
+        <v>34.9816</v>
       </c>
       <c r="D81" t="n">
-        <v>35.6162</v>
+        <v>35.2363</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>59.5815</v>
+        <v>60.7014</v>
       </c>
       <c r="C82" t="n">
-        <v>37.0532</v>
+        <v>36.4238</v>
       </c>
       <c r="D82" t="n">
-        <v>36.7331</v>
+        <v>36.8905</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>62.2987</v>
+        <v>62.3128</v>
       </c>
       <c r="C83" t="n">
-        <v>38.3009</v>
+        <v>38.0924</v>
       </c>
       <c r="D83" t="n">
-        <v>38.7437</v>
+        <v>38.4115</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>64.7467</v>
+        <v>64.7069</v>
       </c>
       <c r="C84" t="n">
-        <v>39.9024</v>
+        <v>39.4236</v>
       </c>
       <c r="D84" t="n">
-        <v>40.366</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>67.16500000000001</v>
+        <v>67.32510000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>41.3706</v>
+        <v>41.1795</v>
       </c>
       <c r="D85" t="n">
-        <v>41.9757</v>
+        <v>42.0831</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>69.6803</v>
+        <v>69.8711</v>
       </c>
       <c r="C86" t="n">
-        <v>43.5064</v>
+        <v>43.3566</v>
       </c>
       <c r="D86" t="n">
-        <v>43.5487</v>
+        <v>43.3304</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>72.2534</v>
+        <v>72.202</v>
       </c>
       <c r="C87" t="n">
-        <v>44.8323</v>
+        <v>44.7152</v>
       </c>
       <c r="D87" t="n">
-        <v>45.9831</v>
+        <v>45.5132</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>74.92489999999999</v>
+        <v>75.086</v>
       </c>
       <c r="C88" t="n">
-        <v>47.0167</v>
+        <v>46.6707</v>
       </c>
       <c r="D88" t="n">
-        <v>47.9139</v>
+        <v>47.4552</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>77.46899999999999</v>
+        <v>77.6031</v>
       </c>
       <c r="C89" t="n">
-        <v>48.7118</v>
+        <v>48.4239</v>
       </c>
       <c r="D89" t="n">
-        <v>49.8843</v>
+        <v>49.3791</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>87.87779999999999</v>
+        <v>87.0641</v>
       </c>
       <c r="C90" t="n">
-        <v>50.5746</v>
+        <v>50.2334</v>
       </c>
       <c r="D90" t="n">
-        <v>51.981</v>
+        <v>51.5311</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>88.38079999999999</v>
+        <v>88.0256</v>
       </c>
       <c r="C91" t="n">
-        <v>52.7128</v>
+        <v>51.9556</v>
       </c>
       <c r="D91" t="n">
-        <v>53.2365</v>
+        <v>52.32</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>89.57299999999999</v>
+        <v>88.9556</v>
       </c>
       <c r="C92" t="n">
-        <v>54.1937</v>
+        <v>54.6694</v>
       </c>
       <c r="D92" t="n">
-        <v>54.2317</v>
+        <v>54.5117</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>90.47199999999999</v>
+        <v>90.012</v>
       </c>
       <c r="C93" t="n">
-        <v>56.2851</v>
+        <v>55.8363</v>
       </c>
       <c r="D93" t="n">
-        <v>56.3815</v>
+        <v>55.7998</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>91.84480000000001</v>
+        <v>91.2479</v>
       </c>
       <c r="C94" t="n">
-        <v>57.494</v>
+        <v>56.997</v>
       </c>
       <c r="D94" t="n">
-        <v>57.3582</v>
+        <v>56.8452</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>93.06870000000001</v>
+        <v>92.6178</v>
       </c>
       <c r="C95" t="n">
-        <v>58.8046</v>
+        <v>58.3075</v>
       </c>
       <c r="D95" t="n">
-        <v>59.069</v>
+        <v>58.4365</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>94.7118</v>
+        <v>93.9644</v>
       </c>
       <c r="C96" t="n">
-        <v>60.4402</v>
+        <v>59.5271</v>
       </c>
       <c r="D96" t="n">
-        <v>60.5509</v>
+        <v>59.9012</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>95.88979999999999</v>
+        <v>95.4066</v>
       </c>
       <c r="C97" t="n">
-        <v>61.6755</v>
+        <v>60.9141</v>
       </c>
       <c r="D97" t="n">
-        <v>61.9535</v>
+        <v>61.2833</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>97.425</v>
+        <v>97.0384</v>
       </c>
       <c r="C98" t="n">
-        <v>63.0372</v>
+        <v>62.3723</v>
       </c>
       <c r="D98" t="n">
-        <v>63.6079</v>
+        <v>62.7619</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>99.0457</v>
+        <v>98.6508</v>
       </c>
       <c r="C99" t="n">
-        <v>64.6553</v>
+        <v>63.8626</v>
       </c>
       <c r="D99" t="n">
-        <v>64.9991</v>
+        <v>64.17319999999999</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>100.987</v>
+        <v>100.404</v>
       </c>
       <c r="C100" t="n">
-        <v>66.21129999999999</v>
+        <v>65.4024</v>
       </c>
       <c r="D100" t="n">
-        <v>66.62649999999999</v>
+        <v>65.76949999999999</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>102.655</v>
+        <v>102.166</v>
       </c>
       <c r="C101" t="n">
-        <v>67.73520000000001</v>
+        <v>66.88939999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>68.2109</v>
+        <v>67.30240000000001</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>104.64</v>
+        <v>104.018</v>
       </c>
       <c r="C102" t="n">
-        <v>69.4282</v>
+        <v>68.5553</v>
       </c>
       <c r="D102" t="n">
-        <v>69.8028</v>
+        <v>69.111</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>106.532</v>
+        <v>106.064</v>
       </c>
       <c r="C103" t="n">
-        <v>70.9875</v>
+        <v>70.21250000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>71.4937</v>
+        <v>70.81959999999999</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>108.667</v>
+        <v>108.17</v>
       </c>
       <c r="C104" t="n">
-        <v>72.6431</v>
+        <v>71.9555</v>
       </c>
       <c r="D104" t="n">
-        <v>73.2076</v>
+        <v>72.5732</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>108.01</v>
+        <v>107.024</v>
       </c>
       <c r="C105" t="n">
-        <v>74.4954</v>
+        <v>73.53270000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>75.4714</v>
+        <v>74.5603</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>108.144</v>
+        <v>107.591</v>
       </c>
       <c r="C106" t="n">
-        <v>76.6347</v>
+        <v>75.59269999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>77.97110000000001</v>
+        <v>76.6058</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>109.369</v>
+        <v>108.542</v>
       </c>
       <c r="C107" t="n">
-        <v>72.0244</v>
+        <v>71.051</v>
       </c>
       <c r="D107" t="n">
-        <v>71.70010000000001</v>
+        <v>71.0487</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>110.249</v>
+        <v>109.357</v>
       </c>
       <c r="C108" t="n">
-        <v>72.7975</v>
+        <v>72.25920000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>72.7107</v>
+        <v>72.2246</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>110.361</v>
+        <v>110.416</v>
       </c>
       <c r="C109" t="n">
-        <v>74.3395</v>
+        <v>73.4277</v>
       </c>
       <c r="D109" t="n">
-        <v>73.2732</v>
+        <v>73.49760000000001</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>111.32</v>
+        <v>111.526</v>
       </c>
       <c r="C110" t="n">
-        <v>75.73050000000001</v>
+        <v>74.8219</v>
       </c>
       <c r="D110" t="n">
-        <v>74.45399999999999</v>
+        <v>74.7658</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>113.686</v>
+        <v>112.848</v>
       </c>
       <c r="C111" t="n">
-        <v>75.5008</v>
+        <v>76.03870000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>76.88809999999999</v>
+        <v>76.0672</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>114.916</v>
+        <v>114.14</v>
       </c>
       <c r="C112" t="n">
-        <v>78.0098</v>
+        <v>77.43519999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>78.0177</v>
+        <v>77.5196</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>116.399</v>
+        <v>115.533</v>
       </c>
       <c r="C113" t="n">
-        <v>79.3733</v>
+        <v>78.8257</v>
       </c>
       <c r="D113" t="n">
-        <v>79.5227</v>
+        <v>78.92749999999999</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>117.796</v>
+        <v>116.953</v>
       </c>
       <c r="C114" t="n">
-        <v>80.8501</v>
+        <v>80.27290000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>81.16160000000001</v>
+        <v>80.5684</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>119.368</v>
+        <v>118.534</v>
       </c>
       <c r="C115" t="n">
-        <v>82.3621</v>
+        <v>81.6678</v>
       </c>
       <c r="D115" t="n">
-        <v>82.0431</v>
+        <v>82.19880000000001</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>120.55</v>
+        <v>120.236</v>
       </c>
       <c r="C116" t="n">
-        <v>83.29349999999999</v>
+        <v>83.3186</v>
       </c>
       <c r="D116" t="n">
-        <v>84.2402</v>
+        <v>83.42700000000001</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>122.729</v>
+        <v>122.039</v>
       </c>
       <c r="C117" t="n">
-        <v>84.836</v>
+        <v>84.8237</v>
       </c>
       <c r="D117" t="n">
-        <v>85.8113</v>
+        <v>84.9752</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>124.755</v>
+        <v>123.861</v>
       </c>
       <c r="C118" t="n">
-        <v>86.50660000000001</v>
+        <v>86.4254</v>
       </c>
       <c r="D118" t="n">
-        <v>87.9054</v>
+        <v>86.89700000000001</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>118.605</v>
+        <v>117.016</v>
       </c>
       <c r="C119" t="n">
-        <v>88.47450000000001</v>
+        <v>88.27719999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>89.23609999999999</v>
+        <v>88.5228</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>25.7358</v>
+        <v>25.6655</v>
       </c>
       <c r="C2" t="n">
-        <v>16.4256</v>
+        <v>16.4377</v>
       </c>
       <c r="D2" t="n">
-        <v>15.439</v>
+        <v>15.3594</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>22.9883</v>
+        <v>22.831</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7335</v>
+        <v>16.8303</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2152</v>
+        <v>15.2167</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4569</v>
+        <v>23.3386</v>
       </c>
       <c r="C4" t="n">
-        <v>17.2998</v>
+        <v>17.3306</v>
       </c>
       <c r="D4" t="n">
-        <v>15.8612</v>
+        <v>15.8057</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>24.1156</v>
+        <v>23.9219</v>
       </c>
       <c r="C5" t="n">
-        <v>17.873</v>
+        <v>17.7769</v>
       </c>
       <c r="D5" t="n">
-        <v>16.0743</v>
+        <v>16.0956</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>24.2384</v>
+        <v>24.0579</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3286</v>
+        <v>18.4361</v>
       </c>
       <c r="D6" t="n">
-        <v>16.6743</v>
+        <v>16.5175</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>24.7053</v>
+        <v>24.4656</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6793</v>
+        <v>16.8479</v>
       </c>
       <c r="D7" t="n">
-        <v>15.9348</v>
+        <v>15.8862</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6617</v>
+        <v>24.571</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1292</v>
+        <v>17.1059</v>
       </c>
       <c r="D8" t="n">
-        <v>16.3149</v>
+        <v>16.2888</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>24.77</v>
+        <v>24.8189</v>
       </c>
       <c r="C9" t="n">
-        <v>17.4549</v>
+        <v>17.4186</v>
       </c>
       <c r="D9" t="n">
-        <v>16.5945</v>
+        <v>16.4599</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>25.2317</v>
+        <v>25.0216</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6946</v>
+        <v>17.8191</v>
       </c>
       <c r="D10" t="n">
-        <v>16.6115</v>
+        <v>16.7211</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0841</v>
+        <v>25.0395</v>
       </c>
       <c r="C11" t="n">
-        <v>17.709</v>
+        <v>17.5514</v>
       </c>
       <c r="D11" t="n">
-        <v>16.5903</v>
+        <v>16.6033</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>26.5464</v>
+        <v>26.3395</v>
       </c>
       <c r="C12" t="n">
-        <v>18.6545</v>
+        <v>18.4286</v>
       </c>
       <c r="D12" t="n">
-        <v>17.1819</v>
+        <v>17.0778</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>26.8307</v>
+        <v>26.6114</v>
       </c>
       <c r="C13" t="n">
-        <v>18.3529</v>
+        <v>18.2982</v>
       </c>
       <c r="D13" t="n">
-        <v>17.5209</v>
+        <v>17.3033</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>26.896</v>
+        <v>26.8068</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8508</v>
+        <v>18.5021</v>
       </c>
       <c r="D14" t="n">
-        <v>17.2516</v>
+        <v>17.1845</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9876</v>
+        <v>27.6229</v>
       </c>
       <c r="C15" t="n">
-        <v>19.1617</v>
+        <v>19.0122</v>
       </c>
       <c r="D15" t="n">
-        <v>17.6787</v>
+        <v>17.5664</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>28.5197</v>
+        <v>28.1667</v>
       </c>
       <c r="C16" t="n">
-        <v>19.5326</v>
+        <v>19.3943</v>
       </c>
       <c r="D16" t="n">
-        <v>17.4511</v>
+        <v>17.5371</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>28.9971</v>
+        <v>28.7278</v>
       </c>
       <c r="C17" t="n">
-        <v>19.6557</v>
+        <v>19.5185</v>
       </c>
       <c r="D17" t="n">
-        <v>18.0813</v>
+        <v>17.9251</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>27.6638</v>
+        <v>27.0649</v>
       </c>
       <c r="C18" t="n">
-        <v>20.8681</v>
+        <v>20.2636</v>
       </c>
       <c r="D18" t="n">
-        <v>18.5881</v>
+        <v>18.3729</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>28.1616</v>
+        <v>27.4965</v>
       </c>
       <c r="C19" t="n">
-        <v>20.8507</v>
+        <v>20.5395</v>
       </c>
       <c r="D19" t="n">
-        <v>18.7318</v>
+        <v>18.489</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>28.6724</v>
+        <v>28.0268</v>
       </c>
       <c r="C20" t="n">
-        <v>21.6782</v>
+        <v>21.4008</v>
       </c>
       <c r="D20" t="n">
-        <v>18.8414</v>
+        <v>18.7596</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>29.505</v>
+        <v>28.8425</v>
       </c>
       <c r="C21" t="n">
-        <v>20.3105</v>
+        <v>19.5957</v>
       </c>
       <c r="D21" t="n">
-        <v>19.0004</v>
+        <v>18.9937</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>29.5795</v>
+        <v>28.9781</v>
       </c>
       <c r="C22" t="n">
-        <v>20.7139</v>
+        <v>20.1589</v>
       </c>
       <c r="D22" t="n">
-        <v>19.1109</v>
+        <v>18.7147</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>30.0759</v>
+        <v>29.4987</v>
       </c>
       <c r="C23" t="n">
-        <v>21.171</v>
+        <v>20.5183</v>
       </c>
       <c r="D23" t="n">
-        <v>19.2708</v>
+        <v>18.8051</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>30.4529</v>
+        <v>29.8899</v>
       </c>
       <c r="C24" t="n">
-        <v>21.9957</v>
+        <v>21.3239</v>
       </c>
       <c r="D24" t="n">
-        <v>19.6304</v>
+        <v>19.253</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>30.778</v>
+        <v>30.2458</v>
       </c>
       <c r="C25" t="n">
-        <v>23.0158</v>
+        <v>22.0621</v>
       </c>
       <c r="D25" t="n">
-        <v>19.9693</v>
+        <v>19.616</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>31.7482</v>
+        <v>31.1251</v>
       </c>
       <c r="C26" t="n">
-        <v>23.0184</v>
+        <v>22.236</v>
       </c>
       <c r="D26" t="n">
-        <v>20.5634</v>
+        <v>19.9546</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>31.9718</v>
+        <v>31.329</v>
       </c>
       <c r="C27" t="n">
-        <v>23.8341</v>
+        <v>23.0405</v>
       </c>
       <c r="D27" t="n">
-        <v>20.6314</v>
+        <v>20.1406</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>32.2126</v>
+        <v>31.6179</v>
       </c>
       <c r="C28" t="n">
-        <v>24.0208</v>
+        <v>23.8923</v>
       </c>
       <c r="D28" t="n">
-        <v>20.97</v>
+        <v>20.5309</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>33.0935</v>
+        <v>32.4945</v>
       </c>
       <c r="C29" t="n">
-        <v>24.5506</v>
+        <v>24.4001</v>
       </c>
       <c r="D29" t="n">
-        <v>21.2554</v>
+        <v>20.949</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>33.5783</v>
+        <v>33.1436</v>
       </c>
       <c r="C30" t="n">
-        <v>25.6844</v>
+        <v>25.554</v>
       </c>
       <c r="D30" t="n">
-        <v>21.7339</v>
+        <v>21.2546</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>33.9126</v>
+        <v>33.3379</v>
       </c>
       <c r="C31" t="n">
-        <v>25.3754</v>
+        <v>24.6719</v>
       </c>
       <c r="D31" t="n">
-        <v>21.8028</v>
+        <v>21.4403</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>30.4417</v>
+        <v>30.3142</v>
       </c>
       <c r="C32" t="n">
-        <v>26.2641</v>
+        <v>26.1884</v>
       </c>
       <c r="D32" t="n">
-        <v>22.2032</v>
+        <v>22.1812</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>31.3874</v>
+        <v>30.835</v>
       </c>
       <c r="C33" t="n">
-        <v>27.2239</v>
+        <v>27.0294</v>
       </c>
       <c r="D33" t="n">
-        <v>22.7288</v>
+        <v>22.2142</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>31.9556</v>
+        <v>31.6328</v>
       </c>
       <c r="C34" t="n">
-        <v>27.6217</v>
+        <v>27.5561</v>
       </c>
       <c r="D34" t="n">
-        <v>22.981</v>
+        <v>23.1923</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>32.012</v>
+        <v>31.7822</v>
       </c>
       <c r="C35" t="n">
-        <v>21.3398</v>
+        <v>21.5599</v>
       </c>
       <c r="D35" t="n">
-        <v>20.8049</v>
+        <v>20.9075</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>32.4305</v>
+        <v>32.1156</v>
       </c>
       <c r="C36" t="n">
-        <v>22.5464</v>
+        <v>22.578</v>
       </c>
       <c r="D36" t="n">
-        <v>20.9525</v>
+        <v>20.9951</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>33.0643</v>
+        <v>32.9771</v>
       </c>
       <c r="C37" t="n">
-        <v>22.997</v>
+        <v>23.0102</v>
       </c>
       <c r="D37" t="n">
-        <v>21.157</v>
+        <v>21.2777</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>33.3118</v>
+        <v>33.2751</v>
       </c>
       <c r="C38" t="n">
-        <v>23.2954</v>
+        <v>22.9181</v>
       </c>
       <c r="D38" t="n">
-        <v>21.3831</v>
+        <v>21.3462</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>33.9608</v>
+        <v>33.9139</v>
       </c>
       <c r="C39" t="n">
-        <v>23.851</v>
+        <v>23.4693</v>
       </c>
       <c r="D39" t="n">
-        <v>21.7501</v>
+        <v>21.8263</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>34.8413</v>
+        <v>34.7816</v>
       </c>
       <c r="C40" t="n">
-        <v>24.118</v>
+        <v>23.6774</v>
       </c>
       <c r="D40" t="n">
-        <v>21.831</v>
+        <v>21.9163</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>35.346</v>
+        <v>34.8828</v>
       </c>
       <c r="C41" t="n">
-        <v>24.4803</v>
+        <v>23.9787</v>
       </c>
       <c r="D41" t="n">
-        <v>22.0978</v>
+        <v>21.8782</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>35.727</v>
+        <v>35.6451</v>
       </c>
       <c r="C42" t="n">
-        <v>24.6243</v>
+        <v>24.6295</v>
       </c>
       <c r="D42" t="n">
-        <v>22.2666</v>
+        <v>22.2898</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>36.3242</v>
+        <v>36.3367</v>
       </c>
       <c r="C43" t="n">
-        <v>25.1274</v>
+        <v>24.7026</v>
       </c>
       <c r="D43" t="n">
-        <v>22.5578</v>
+        <v>22.6021</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>36.5216</v>
+        <v>36.3804</v>
       </c>
       <c r="C44" t="n">
-        <v>25.5374</v>
+        <v>25.5761</v>
       </c>
       <c r="D44" t="n">
-        <v>22.7201</v>
+        <v>22.7471</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>37.3368</v>
+        <v>37.2722</v>
       </c>
       <c r="C45" t="n">
-        <v>25.8065</v>
+        <v>25.8069</v>
       </c>
       <c r="D45" t="n">
-        <v>22.8848</v>
+        <v>22.953</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>37.3513</v>
+        <v>37.3147</v>
       </c>
       <c r="C46" t="n">
-        <v>25.8508</v>
+        <v>25.8832</v>
       </c>
       <c r="D46" t="n">
-        <v>23.1295</v>
+        <v>23.1585</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>31.4179</v>
+        <v>31.3076</v>
       </c>
       <c r="C47" t="n">
-        <v>26.4923</v>
+        <v>26.4323</v>
       </c>
       <c r="D47" t="n">
-        <v>23.2689</v>
+        <v>23.314</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>31.8291</v>
+        <v>32.0247</v>
       </c>
       <c r="C48" t="n">
-        <v>26.6309</v>
+        <v>26.6142</v>
       </c>
       <c r="D48" t="n">
-        <v>23.3705</v>
+        <v>23.3881</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>32.1956</v>
+        <v>32.3633</v>
       </c>
       <c r="C49" t="n">
-        <v>27.3147</v>
+        <v>27.3454</v>
       </c>
       <c r="D49" t="n">
-        <v>23.719</v>
+        <v>23.8107</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>32.7274</v>
+        <v>32.708</v>
       </c>
       <c r="C50" t="n">
-        <v>24.1228</v>
+        <v>24.4792</v>
       </c>
       <c r="D50" t="n">
-        <v>22.0998</v>
+        <v>22.1145</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>33.0845</v>
+        <v>32.9828</v>
       </c>
       <c r="C51" t="n">
-        <v>24.4036</v>
+        <v>24.7323</v>
       </c>
       <c r="D51" t="n">
-        <v>22.5083</v>
+        <v>22.4773</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>33.2475</v>
+        <v>33.0578</v>
       </c>
       <c r="C52" t="n">
-        <v>25.0313</v>
+        <v>24.9744</v>
       </c>
       <c r="D52" t="n">
-        <v>22.6211</v>
+        <v>22.614</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>33.6648</v>
+        <v>33.5568</v>
       </c>
       <c r="C53" t="n">
-        <v>25.2096</v>
+        <v>25.3543</v>
       </c>
       <c r="D53" t="n">
-        <v>22.7512</v>
+        <v>22.6653</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>33.8923</v>
+        <v>33.931</v>
       </c>
       <c r="C54" t="n">
-        <v>25.8877</v>
+        <v>25.8647</v>
       </c>
       <c r="D54" t="n">
-        <v>23.0864</v>
+        <v>22.7825</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>34.5712</v>
+        <v>34.5302</v>
       </c>
       <c r="C55" t="n">
-        <v>26.4112</v>
+        <v>26.469</v>
       </c>
       <c r="D55" t="n">
-        <v>23.214</v>
+        <v>23.3509</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>34.7994</v>
+        <v>34.9554</v>
       </c>
       <c r="C56" t="n">
-        <v>26.3497</v>
+        <v>26.3385</v>
       </c>
       <c r="D56" t="n">
-        <v>23.3744</v>
+        <v>23.1592</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>35.5098</v>
+        <v>35.5018</v>
       </c>
       <c r="C57" t="n">
-        <v>27.1688</v>
+        <v>27.1035</v>
       </c>
       <c r="D57" t="n">
-        <v>23.6394</v>
+        <v>23.6403</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>35.7998</v>
+        <v>35.734</v>
       </c>
       <c r="C58" t="n">
-        <v>27.8185</v>
+        <v>27.8105</v>
       </c>
       <c r="D58" t="n">
-        <v>23.9766</v>
+        <v>23.8102</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>36.5252</v>
+        <v>36.4731</v>
       </c>
       <c r="C59" t="n">
-        <v>28.5031</v>
+        <v>28.4962</v>
       </c>
       <c r="D59" t="n">
-        <v>24.2979</v>
+        <v>24.3084</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>36.9852</v>
+        <v>36.9104</v>
       </c>
       <c r="C60" t="n">
-        <v>28.8201</v>
+        <v>28.8274</v>
       </c>
       <c r="D60" t="n">
-        <v>24.7245</v>
+        <v>24.7045</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>32.9003</v>
+        <v>32.8979</v>
       </c>
       <c r="C61" t="n">
-        <v>29.4241</v>
+        <v>29.1871</v>
       </c>
       <c r="D61" t="n">
-        <v>24.7935</v>
+        <v>24.7889</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>33.5897</v>
+        <v>33.6013</v>
       </c>
       <c r="C62" t="n">
-        <v>29.7305</v>
+        <v>29.5721</v>
       </c>
       <c r="D62" t="n">
-        <v>24.9725</v>
+        <v>24.946</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>34.1926</v>
+        <v>34.2339</v>
       </c>
       <c r="C63" t="n">
-        <v>30.0588</v>
+        <v>30.0597</v>
       </c>
       <c r="D63" t="n">
-        <v>25.3089</v>
+        <v>25.308</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>34.7932</v>
+        <v>34.7534</v>
       </c>
       <c r="C64" t="n">
-        <v>26.8667</v>
+        <v>26.9462</v>
       </c>
       <c r="D64" t="n">
-        <v>24.272</v>
+        <v>24.2445</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>35.1571</v>
+        <v>35.4128</v>
       </c>
       <c r="C65" t="n">
-        <v>27.3249</v>
+        <v>27.2803</v>
       </c>
       <c r="D65" t="n">
-        <v>24.056</v>
+        <v>24.0592</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>36.0738</v>
+        <v>35.8322</v>
       </c>
       <c r="C66" t="n">
-        <v>27.5521</v>
+        <v>27.5877</v>
       </c>
       <c r="D66" t="n">
-        <v>24.1948</v>
+        <v>24.2464</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>36.7496</v>
+        <v>36.5211</v>
       </c>
       <c r="C67" t="n">
-        <v>28.2947</v>
+        <v>28.2995</v>
       </c>
       <c r="D67" t="n">
-        <v>24.5064</v>
+        <v>24.5732</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>37.1634</v>
+        <v>37.4398</v>
       </c>
       <c r="C68" t="n">
-        <v>28.7296</v>
+        <v>28.6999</v>
       </c>
       <c r="D68" t="n">
-        <v>24.763</v>
+        <v>24.8341</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>38.1369</v>
+        <v>38.0947</v>
       </c>
       <c r="C69" t="n">
-        <v>29.0667</v>
+        <v>29.032</v>
       </c>
       <c r="D69" t="n">
-        <v>25.1072</v>
+        <v>25.1644</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>39.0703</v>
+        <v>39.113</v>
       </c>
       <c r="C70" t="n">
-        <v>29.8071</v>
+        <v>29.8422</v>
       </c>
       <c r="D70" t="n">
-        <v>25.5135</v>
+        <v>25.5657</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>40.1718</v>
+        <v>40.5402</v>
       </c>
       <c r="C71" t="n">
-        <v>30.5592</v>
+        <v>30.581</v>
       </c>
       <c r="D71" t="n">
-        <v>25.8115</v>
+        <v>25.8795</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>41.0551</v>
+        <v>41.2893</v>
       </c>
       <c r="C72" t="n">
-        <v>31.2707</v>
+        <v>31.2553</v>
       </c>
       <c r="D72" t="n">
-        <v>26.2895</v>
+        <v>26.2871</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>42.379</v>
+        <v>42.6954</v>
       </c>
       <c r="C73" t="n">
-        <v>32.0591</v>
+        <v>32.0593</v>
       </c>
       <c r="D73" t="n">
-        <v>26.8128</v>
+        <v>26.8666</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>43.1447</v>
+        <v>43.584</v>
       </c>
       <c r="C74" t="n">
-        <v>32.7301</v>
+        <v>32.7177</v>
       </c>
       <c r="D74" t="n">
-        <v>26.811</v>
+        <v>26.8829</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>45.0617</v>
+        <v>45.4954</v>
       </c>
       <c r="C75" t="n">
-        <v>33.2946</v>
+        <v>33.4673</v>
       </c>
       <c r="D75" t="n">
-        <v>27.1281</v>
+        <v>27.1758</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>45.0022</v>
+        <v>45.9219</v>
       </c>
       <c r="C76" t="n">
-        <v>34.0332</v>
+        <v>34.6227</v>
       </c>
       <c r="D76" t="n">
-        <v>27.5827</v>
+        <v>28.1229</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>48.7559</v>
+        <v>48.4139</v>
       </c>
       <c r="C77" t="n">
-        <v>35.6426</v>
+        <v>35.5738</v>
       </c>
       <c r="D77" t="n">
-        <v>28.1758</v>
+        <v>28.2759</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>51.5026</v>
+        <v>50.7225</v>
       </c>
       <c r="C78" t="n">
-        <v>31.5052</v>
+        <v>31.8618</v>
       </c>
       <c r="D78" t="n">
-        <v>27.4864</v>
+        <v>27.5381</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>53.9413</v>
+        <v>53.7991</v>
       </c>
       <c r="C79" t="n">
-        <v>34.0642</v>
+        <v>33.2287</v>
       </c>
       <c r="D79" t="n">
-        <v>28.249</v>
+        <v>28.3595</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>56.3402</v>
+        <v>57.1203</v>
       </c>
       <c r="C80" t="n">
-        <v>34.2048</v>
+        <v>33.8704</v>
       </c>
       <c r="D80" t="n">
-        <v>28.4447</v>
+        <v>29.056</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>58.6477</v>
+        <v>59.0869</v>
       </c>
       <c r="C81" t="n">
-        <v>36.5294</v>
+        <v>36.2546</v>
       </c>
       <c r="D81" t="n">
-        <v>29.9476</v>
+        <v>29.5182</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>62.5417</v>
+        <v>62.9038</v>
       </c>
       <c r="C82" t="n">
-        <v>38.3523</v>
+        <v>38.7832</v>
       </c>
       <c r="D82" t="n">
-        <v>30.5911</v>
+        <v>30.9932</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>67.3627</v>
+        <v>67.1806</v>
       </c>
       <c r="C83" t="n">
-        <v>40.6214</v>
+        <v>41.0963</v>
       </c>
       <c r="D83" t="n">
-        <v>30.9275</v>
+        <v>31.7075</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>71.06100000000001</v>
+        <v>72.592</v>
       </c>
       <c r="C84" t="n">
-        <v>42.9591</v>
+        <v>43.308</v>
       </c>
       <c r="D84" t="n">
-        <v>32.0824</v>
+        <v>32.9721</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>75.4432</v>
+        <v>75.87479999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>46.0182</v>
+        <v>46.0489</v>
       </c>
       <c r="D85" t="n">
-        <v>33.9362</v>
+        <v>34.225</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>81.0861</v>
+        <v>80.2406</v>
       </c>
       <c r="C86" t="n">
-        <v>48.2218</v>
+        <v>48.0529</v>
       </c>
       <c r="D86" t="n">
-        <v>35.7205</v>
+        <v>35.266</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>85.07940000000001</v>
+        <v>84.7871</v>
       </c>
       <c r="C87" t="n">
-        <v>51.2169</v>
+        <v>51.1675</v>
       </c>
       <c r="D87" t="n">
-        <v>37.3409</v>
+        <v>37.6501</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>90.0142</v>
+        <v>89.4247</v>
       </c>
       <c r="C88" t="n">
-        <v>54.1384</v>
+        <v>53.8584</v>
       </c>
       <c r="D88" t="n">
-        <v>39.5009</v>
+        <v>38.6384</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>95.696</v>
+        <v>95.4614</v>
       </c>
       <c r="C89" t="n">
-        <v>57.805</v>
+        <v>57.6144</v>
       </c>
       <c r="D89" t="n">
-        <v>41.0323</v>
+        <v>40.5554</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>96.5954</v>
+        <v>96.6207</v>
       </c>
       <c r="C90" t="n">
-        <v>61.0358</v>
+        <v>61.1909</v>
       </c>
       <c r="D90" t="n">
-        <v>42.7462</v>
+        <v>42.5562</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>100.015</v>
+        <v>100.515</v>
       </c>
       <c r="C91" t="n">
-        <v>64.7927</v>
+        <v>64.7294</v>
       </c>
       <c r="D91" t="n">
-        <v>44.4669</v>
+        <v>44.2873</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>102.887</v>
+        <v>104.042</v>
       </c>
       <c r="C92" t="n">
-        <v>66.41549999999999</v>
+        <v>66.87520000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>53.3969</v>
+        <v>53.6032</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>107.58</v>
+        <v>107.762</v>
       </c>
       <c r="C93" t="n">
-        <v>69.40089999999999</v>
+        <v>69.4301</v>
       </c>
       <c r="D93" t="n">
-        <v>55.7802</v>
+        <v>55.6906</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>111.646</v>
+        <v>111.916</v>
       </c>
       <c r="C94" t="n">
-        <v>72.3815</v>
+        <v>72.5214</v>
       </c>
       <c r="D94" t="n">
-        <v>57.7477</v>
+        <v>57.7929</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>115.408</v>
+        <v>115.78</v>
       </c>
       <c r="C95" t="n">
-        <v>75.61320000000001</v>
+        <v>75.37220000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>59.5799</v>
+        <v>59.6209</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>119.937</v>
+        <v>119.895</v>
       </c>
       <c r="C96" t="n">
-        <v>78.376</v>
+        <v>78.6066</v>
       </c>
       <c r="D96" t="n">
-        <v>62.0253</v>
+        <v>61.7275</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>123.735</v>
+        <v>124.023</v>
       </c>
       <c r="C97" t="n">
-        <v>81.974</v>
+        <v>81.7957</v>
       </c>
       <c r="D97" t="n">
-        <v>64.1443</v>
+        <v>64.68819999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>127.46</v>
+        <v>127.703</v>
       </c>
       <c r="C98" t="n">
-        <v>84.87560000000001</v>
+        <v>84.9278</v>
       </c>
       <c r="D98" t="n">
-        <v>66.4768</v>
+        <v>66.7692</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>131.927</v>
+        <v>131.544</v>
       </c>
       <c r="C99" t="n">
-        <v>88.5895</v>
+        <v>88.5793</v>
       </c>
       <c r="D99" t="n">
-        <v>68.76090000000001</v>
+        <v>68.8437</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>136.018</v>
+        <v>135.851</v>
       </c>
       <c r="C100" t="n">
-        <v>91.95829999999999</v>
+        <v>92.0714</v>
       </c>
       <c r="D100" t="n">
-        <v>71.1858</v>
+        <v>71.21420000000001</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>140.019</v>
+        <v>139.954</v>
       </c>
       <c r="C101" t="n">
-        <v>94.9812</v>
+        <v>94.7531</v>
       </c>
       <c r="D101" t="n">
-        <v>72.99290000000001</v>
+        <v>73.404</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>143.596</v>
+        <v>144.083</v>
       </c>
       <c r="C102" t="n">
-        <v>98.55110000000001</v>
+        <v>98.8091</v>
       </c>
       <c r="D102" t="n">
-        <v>75.55629999999999</v>
+        <v>75.89879999999999</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>147.825</v>
+        <v>148.553</v>
       </c>
       <c r="C103" t="n">
-        <v>101.658</v>
+        <v>101.857</v>
       </c>
       <c r="D103" t="n">
-        <v>77.6797</v>
+        <v>77.7931</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>152.195</v>
+        <v>152.554</v>
       </c>
       <c r="C104" t="n">
-        <v>104.816</v>
+        <v>105.231</v>
       </c>
       <c r="D104" t="n">
-        <v>79.852</v>
+        <v>80.29300000000001</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>139.015</v>
+        <v>140.805</v>
       </c>
       <c r="C105" t="n">
-        <v>108.952</v>
+        <v>108.856</v>
       </c>
       <c r="D105" t="n">
-        <v>81.85980000000001</v>
+        <v>82.1972</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>142.775</v>
+        <v>142.937</v>
       </c>
       <c r="C106" t="n">
-        <v>111.21</v>
+        <v>112.699</v>
       </c>
       <c r="D106" t="n">
-        <v>83.8974</v>
+        <v>85.0934</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>145.431</v>
+        <v>145.718</v>
       </c>
       <c r="C107" t="n">
-        <v>99.8442</v>
+        <v>101.587</v>
       </c>
       <c r="D107" t="n">
-        <v>85.1318</v>
+        <v>86.15779999999999</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>148.157</v>
+        <v>148.625</v>
       </c>
       <c r="C108" t="n">
-        <v>103.212</v>
+        <v>103.598</v>
       </c>
       <c r="D108" t="n">
-        <v>87.75700000000001</v>
+        <v>87.83750000000001</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>151.049</v>
+        <v>151.429</v>
       </c>
       <c r="C109" t="n">
-        <v>105.986</v>
+        <v>106.387</v>
       </c>
       <c r="D109" t="n">
-        <v>89.7306</v>
+        <v>89.8638</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>153.884</v>
+        <v>153.965</v>
       </c>
       <c r="C110" t="n">
-        <v>108.485</v>
+        <v>108.649</v>
       </c>
       <c r="D110" t="n">
-        <v>91.3014</v>
+        <v>91.4254</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>156.137</v>
+        <v>157.142</v>
       </c>
       <c r="C111" t="n">
-        <v>110.384</v>
+        <v>110.668</v>
       </c>
       <c r="D111" t="n">
-        <v>91.8199</v>
+        <v>93.0283</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>158.839</v>
+        <v>160.016</v>
       </c>
       <c r="C112" t="n">
-        <v>112.518</v>
+        <v>114.017</v>
       </c>
       <c r="D112" t="n">
-        <v>94.9012</v>
+        <v>94.8169</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>163.286</v>
+        <v>163.555</v>
       </c>
       <c r="C113" t="n">
-        <v>116.705</v>
+        <v>116.991</v>
       </c>
       <c r="D113" t="n">
-        <v>96.54170000000001</v>
+        <v>96.7051</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>166.647</v>
+        <v>166.842</v>
       </c>
       <c r="C114" t="n">
-        <v>119.289</v>
+        <v>119.666</v>
       </c>
       <c r="D114" t="n">
-        <v>96.94499999999999</v>
+        <v>98.1174</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>169.578</v>
+        <v>170.066</v>
       </c>
       <c r="C115" t="n">
-        <v>121.509</v>
+        <v>122.618</v>
       </c>
       <c r="D115" t="n">
-        <v>98.78700000000001</v>
+        <v>99.5544</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>172.929</v>
+        <v>173.686</v>
       </c>
       <c r="C116" t="n">
-        <v>124.706</v>
+        <v>125.649</v>
       </c>
       <c r="D116" t="n">
-        <v>100.467</v>
+        <v>101.346</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>176.388</v>
+        <v>177.312</v>
       </c>
       <c r="C117" t="n">
-        <v>127.496</v>
+        <v>128.749</v>
       </c>
       <c r="D117" t="n">
-        <v>102.306</v>
+        <v>103.479</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>180.382</v>
+        <v>180.993</v>
       </c>
       <c r="C118" t="n">
-        <v>131.319</v>
+        <v>132.504</v>
       </c>
       <c r="D118" t="n">
-        <v>104.099</v>
+        <v>105.175</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>160.098</v>
+        <v>161.352</v>
       </c>
       <c r="C119" t="n">
-        <v>135.476</v>
+        <v>136.155</v>
       </c>
       <c r="D119" t="n">
-        <v>106.349</v>
+        <v>106.896</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>40.0527</v>
+        <v>40.2135</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0473</v>
+        <v>29.122</v>
       </c>
       <c r="D2" t="n">
-        <v>21.8978</v>
+        <v>21.7979</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>41.2356</v>
+        <v>41.2265</v>
       </c>
       <c r="C3" t="n">
-        <v>29.1996</v>
+        <v>29.4211</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0318</v>
+        <v>22.0041</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>42.5443</v>
+        <v>42.5145</v>
       </c>
       <c r="C4" t="n">
-        <v>30.984</v>
+        <v>30.9018</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0833</v>
+        <v>22.9947</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>42.994</v>
+        <v>42.9618</v>
       </c>
       <c r="C5" t="n">
-        <v>31.6728</v>
+        <v>31.8438</v>
       </c>
       <c r="D5" t="n">
-        <v>23.591</v>
+        <v>23.6325</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>44.8161</v>
+        <v>44.8629</v>
       </c>
       <c r="C6" t="n">
-        <v>31.9676</v>
+        <v>31.9061</v>
       </c>
       <c r="D6" t="n">
-        <v>23.9976</v>
+        <v>23.9502</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>46.1968</v>
+        <v>46.1048</v>
       </c>
       <c r="C7" t="n">
-        <v>33.7118</v>
+        <v>33.8704</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8557</v>
+        <v>24.7946</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>47.6765</v>
+        <v>47.4595</v>
       </c>
       <c r="C8" t="n">
-        <v>35.3904</v>
+        <v>35.3853</v>
       </c>
       <c r="D8" t="n">
-        <v>25.7289</v>
+        <v>25.729</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>49.8487</v>
+        <v>49.5454</v>
       </c>
       <c r="C9" t="n">
-        <v>36.7499</v>
+        <v>36.9905</v>
       </c>
       <c r="D9" t="n">
-        <v>26.656</v>
+        <v>26.583</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>51.2087</v>
+        <v>50.947</v>
       </c>
       <c r="C10" t="n">
-        <v>38.3659</v>
+        <v>38.5219</v>
       </c>
       <c r="D10" t="n">
-        <v>27.6922</v>
+        <v>27.6521</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>52.9408</v>
+        <v>52.7534</v>
       </c>
       <c r="C11" t="n">
-        <v>29.3449</v>
+        <v>29.0944</v>
       </c>
       <c r="D11" t="n">
-        <v>21.9483</v>
+        <v>21.8579</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>39.7214</v>
+        <v>39.7549</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4697</v>
+        <v>29.7341</v>
       </c>
       <c r="D12" t="n">
-        <v>22.1712</v>
+        <v>22.2044</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>40.6864</v>
+        <v>40.6338</v>
       </c>
       <c r="C13" t="n">
-        <v>30.6425</v>
+        <v>30.739</v>
       </c>
       <c r="D13" t="n">
-        <v>22.9795</v>
+        <v>23.0109</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>41.6877</v>
+        <v>41.9271</v>
       </c>
       <c r="C14" t="n">
-        <v>31.7781</v>
+        <v>31.8148</v>
       </c>
       <c r="D14" t="n">
-        <v>23.0166</v>
+        <v>23.0944</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>44.1371</v>
+        <v>44.0354</v>
       </c>
       <c r="C15" t="n">
-        <v>33.189</v>
+        <v>33.6629</v>
       </c>
       <c r="D15" t="n">
-        <v>23.8655</v>
+        <v>23.8097</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>45.0363</v>
+        <v>45.2791</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4902</v>
+        <v>34.5749</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4435</v>
+        <v>24.5128</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>46.2749</v>
+        <v>46.2069</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1862</v>
+        <v>36.2599</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0949</v>
+        <v>25.2046</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>48.4158</v>
+        <v>48.3996</v>
       </c>
       <c r="C18" t="n">
-        <v>37.0171</v>
+        <v>37.0108</v>
       </c>
       <c r="D18" t="n">
-        <v>25.2032</v>
+        <v>25.2183</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>49.8447</v>
+        <v>49.7413</v>
       </c>
       <c r="C19" t="n">
-        <v>39.1263</v>
+        <v>39.2782</v>
       </c>
       <c r="D19" t="n">
-        <v>26.3186</v>
+        <v>26.6043</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>51.2504</v>
+        <v>51.9307</v>
       </c>
       <c r="C20" t="n">
-        <v>41.3056</v>
+        <v>41.1668</v>
       </c>
       <c r="D20" t="n">
-        <v>27.171</v>
+        <v>27.6393</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>53.479</v>
+        <v>53.4239</v>
       </c>
       <c r="C21" t="n">
-        <v>43.1295</v>
+        <v>43.171</v>
       </c>
       <c r="D21" t="n">
-        <v>28.5725</v>
+        <v>28.732</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>55.7364</v>
+        <v>55.8413</v>
       </c>
       <c r="C22" t="n">
-        <v>45.8097</v>
+        <v>45.3977</v>
       </c>
       <c r="D22" t="n">
-        <v>29.6304</v>
+        <v>29.5442</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>57.8319</v>
+        <v>57.2711</v>
       </c>
       <c r="C23" t="n">
-        <v>48.0529</v>
+        <v>47.9265</v>
       </c>
       <c r="D23" t="n">
-        <v>30.8359</v>
+        <v>30.9484</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>60.9482</v>
+        <v>61.0656</v>
       </c>
       <c r="C24" t="n">
-        <v>50.203</v>
+        <v>50.0236</v>
       </c>
       <c r="D24" t="n">
-        <v>31.898</v>
+        <v>31.8296</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>64.70399999999999</v>
+        <v>64.5986</v>
       </c>
       <c r="C25" t="n">
-        <v>52.719</v>
+        <v>53.311</v>
       </c>
       <c r="D25" t="n">
-        <v>32.5623</v>
+        <v>32.5958</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>67.404</v>
+        <v>67.09</v>
       </c>
       <c r="C26" t="n">
-        <v>33.1165</v>
+        <v>33.2844</v>
       </c>
       <c r="D26" t="n">
-        <v>23.5924</v>
+        <v>23.65</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>45.2128</v>
+        <v>45.1672</v>
       </c>
       <c r="C27" t="n">
-        <v>33.6008</v>
+        <v>33.5779</v>
       </c>
       <c r="D27" t="n">
-        <v>23.795</v>
+        <v>24.0638</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>46.8897</v>
+        <v>46.9322</v>
       </c>
       <c r="C28" t="n">
-        <v>35.1286</v>
+        <v>35.0902</v>
       </c>
       <c r="D28" t="n">
-        <v>24.3829</v>
+        <v>24.5454</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>48.4277</v>
+        <v>48.3977</v>
       </c>
       <c r="C29" t="n">
-        <v>35.8345</v>
+        <v>35.6717</v>
       </c>
       <c r="D29" t="n">
-        <v>25.1524</v>
+        <v>25.229</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>50.1929</v>
+        <v>50.1661</v>
       </c>
       <c r="C30" t="n">
-        <v>38.0001</v>
+        <v>37.848</v>
       </c>
       <c r="D30" t="n">
-        <v>25.969</v>
+        <v>25.9698</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>51.8947</v>
+        <v>51.8303</v>
       </c>
       <c r="C31" t="n">
-        <v>39.3824</v>
+        <v>39.1134</v>
       </c>
       <c r="D31" t="n">
-        <v>26.5211</v>
+        <v>26.5671</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>53.42</v>
+        <v>53.5359</v>
       </c>
       <c r="C32" t="n">
-        <v>41.1757</v>
+        <v>40.907</v>
       </c>
       <c r="D32" t="n">
-        <v>27.3982</v>
+        <v>27.545</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>56.2608</v>
+        <v>56.3825</v>
       </c>
       <c r="C33" t="n">
-        <v>42.8824</v>
+        <v>42.9792</v>
       </c>
       <c r="D33" t="n">
-        <v>28.4492</v>
+        <v>28.612</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>57.7745</v>
+        <v>57.7018</v>
       </c>
       <c r="C34" t="n">
-        <v>44.871</v>
+        <v>44.8114</v>
       </c>
       <c r="D34" t="n">
-        <v>29.0882</v>
+        <v>29.2983</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>60.41</v>
+        <v>60.1421</v>
       </c>
       <c r="C35" t="n">
-        <v>46.9923</v>
+        <v>46.8907</v>
       </c>
       <c r="D35" t="n">
-        <v>30.1604</v>
+        <v>30.2168</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>61.9905</v>
+        <v>62.0855</v>
       </c>
       <c r="C36" t="n">
-        <v>49.5408</v>
+        <v>49.3775</v>
       </c>
       <c r="D36" t="n">
-        <v>31.6036</v>
+        <v>31.6688</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>63.3855</v>
+        <v>63.4888</v>
       </c>
       <c r="C37" t="n">
-        <v>52.0145</v>
+        <v>51.738</v>
       </c>
       <c r="D37" t="n">
-        <v>32.6073</v>
+        <v>32.8409</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>66.1728</v>
+        <v>66.1771</v>
       </c>
       <c r="C38" t="n">
-        <v>54.1505</v>
+        <v>53.9027</v>
       </c>
       <c r="D38" t="n">
-        <v>33.342</v>
+        <v>33.5657</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>69.6058</v>
+        <v>69.65479999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>57.2146</v>
+        <v>56.9281</v>
       </c>
       <c r="D39" t="n">
-        <v>34.8417</v>
+        <v>34.9652</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>71.43689999999999</v>
+        <v>71.4902</v>
       </c>
       <c r="C40" t="n">
-        <v>39.5273</v>
+        <v>39.4273</v>
       </c>
       <c r="D40" t="n">
-        <v>27.9992</v>
+        <v>28.0766</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>52.6316</v>
+        <v>52.5667</v>
       </c>
       <c r="C41" t="n">
-        <v>40.864</v>
+        <v>40.6746</v>
       </c>
       <c r="D41" t="n">
-        <v>28.6316</v>
+        <v>28.7627</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>53.7349</v>
+        <v>53.8775</v>
       </c>
       <c r="C42" t="n">
-        <v>42.4727</v>
+        <v>42.295</v>
       </c>
       <c r="D42" t="n">
-        <v>29.3629</v>
+        <v>29.4454</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>55.1041</v>
+        <v>55.1419</v>
       </c>
       <c r="C43" t="n">
-        <v>43.6844</v>
+        <v>43.5865</v>
       </c>
       <c r="D43" t="n">
-        <v>29.7956</v>
+        <v>29.9659</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>56.7189</v>
+        <v>56.7387</v>
       </c>
       <c r="C44" t="n">
-        <v>45.9335</v>
+        <v>45.803</v>
       </c>
       <c r="D44" t="n">
-        <v>31.1332</v>
+        <v>31.2663</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>58.4266</v>
+        <v>58.4304</v>
       </c>
       <c r="C45" t="n">
-        <v>47.2159</v>
+        <v>46.9346</v>
       </c>
       <c r="D45" t="n">
-        <v>31.7136</v>
+        <v>31.8231</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>59.6326</v>
+        <v>59.7449</v>
       </c>
       <c r="C46" t="n">
-        <v>49.0671</v>
+        <v>48.8972</v>
       </c>
       <c r="D46" t="n">
-        <v>32.0894</v>
+        <v>32.2177</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>61.8862</v>
+        <v>61.8945</v>
       </c>
       <c r="C47" t="n">
-        <v>50.8401</v>
+        <v>50.6351</v>
       </c>
       <c r="D47" t="n">
-        <v>33.0664</v>
+        <v>33.2188</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>63.3805</v>
+        <v>63.502</v>
       </c>
       <c r="C48" t="n">
-        <v>52.3728</v>
+        <v>52.0293</v>
       </c>
       <c r="D48" t="n">
-        <v>34.2501</v>
+        <v>34.4256</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>64.8351</v>
+        <v>64.7852</v>
       </c>
       <c r="C49" t="n">
-        <v>54.7737</v>
+        <v>54.3929</v>
       </c>
       <c r="D49" t="n">
-        <v>35.0183</v>
+        <v>35.2155</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>67.62869999999999</v>
+        <v>67.6683</v>
       </c>
       <c r="C50" t="n">
-        <v>56.5536</v>
+        <v>56.386</v>
       </c>
       <c r="D50" t="n">
-        <v>36.2271</v>
+        <v>36.2806</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>70</v>
+        <v>70.0089</v>
       </c>
       <c r="C51" t="n">
-        <v>59.1021</v>
+        <v>58.7736</v>
       </c>
       <c r="D51" t="n">
-        <v>37.0885</v>
+        <v>37.2265</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>72.6073</v>
+        <v>72.5506</v>
       </c>
       <c r="C52" t="n">
-        <v>61.545</v>
+        <v>61.4968</v>
       </c>
       <c r="D52" t="n">
-        <v>38.1773</v>
+        <v>38.4062</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>75.0684</v>
+        <v>75.06359999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>63.9928</v>
+        <v>63.9052</v>
       </c>
       <c r="D53" t="n">
-        <v>39.3472</v>
+        <v>39.4975</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>77.67230000000001</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>44.974</v>
+        <v>44.8195</v>
       </c>
       <c r="D54" t="n">
-        <v>31.4702</v>
+        <v>31.5909</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>80.55929999999999</v>
+        <v>80.7902</v>
       </c>
       <c r="C55" t="n">
-        <v>45.8334</v>
+        <v>45.7088</v>
       </c>
       <c r="D55" t="n">
-        <v>31.9913</v>
+        <v>32.0836</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>55.8733</v>
+        <v>55.9687</v>
       </c>
       <c r="C56" t="n">
-        <v>47.3659</v>
+        <v>47.2956</v>
       </c>
       <c r="D56" t="n">
-        <v>32.4538</v>
+        <v>32.5816</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>57.3389</v>
+        <v>57.3572</v>
       </c>
       <c r="C57" t="n">
-        <v>48.8332</v>
+        <v>48.7416</v>
       </c>
       <c r="D57" t="n">
-        <v>33.3043</v>
+        <v>33.4043</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>58.9383</v>
+        <v>58.9953</v>
       </c>
       <c r="C58" t="n">
-        <v>50.0979</v>
+        <v>50.0842</v>
       </c>
       <c r="D58" t="n">
-        <v>33.6161</v>
+        <v>33.7275</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>60.4188</v>
+        <v>60.421</v>
       </c>
       <c r="C59" t="n">
-        <v>51.5626</v>
+        <v>51.4598</v>
       </c>
       <c r="D59" t="n">
-        <v>34.7304</v>
+        <v>34.8871</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>61.2867</v>
+        <v>61.2812</v>
       </c>
       <c r="C60" t="n">
-        <v>53.2601</v>
+        <v>53.1822</v>
       </c>
       <c r="D60" t="n">
-        <v>35.27</v>
+        <v>35.4145</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>63.2697</v>
+        <v>63.2188</v>
       </c>
       <c r="C61" t="n">
-        <v>54.9898</v>
+        <v>54.9135</v>
       </c>
       <c r="D61" t="n">
-        <v>35.8657</v>
+        <v>36.0568</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>65.2457</v>
+        <v>65.2855</v>
       </c>
       <c r="C62" t="n">
-        <v>56.5519</v>
+        <v>56.3568</v>
       </c>
       <c r="D62" t="n">
-        <v>36.8981</v>
+        <v>37.0411</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>67.2333</v>
+        <v>67.17749999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>59.075</v>
+        <v>58.8067</v>
       </c>
       <c r="D63" t="n">
-        <v>37.5152</v>
+        <v>37.6786</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>69.32729999999999</v>
+        <v>69.32210000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>60.7391</v>
+        <v>60.5934</v>
       </c>
       <c r="D64" t="n">
-        <v>38.7591</v>
+        <v>38.911</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>72.0971</v>
+        <v>72.19119999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>63.4116</v>
+        <v>63.1704</v>
       </c>
       <c r="D65" t="n">
-        <v>39.9044</v>
+        <v>40.0342</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>74.65260000000001</v>
+        <v>74.6549</v>
       </c>
       <c r="C66" t="n">
-        <v>65.3129</v>
+        <v>65.1354</v>
       </c>
       <c r="D66" t="n">
-        <v>40.8041</v>
+        <v>40.9482</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>77.4845</v>
+        <v>77.49760000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>68.0303</v>
+        <v>67.89579999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>42.1374</v>
+        <v>42.3329</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>79.62649999999999</v>
+        <v>79.7411</v>
       </c>
       <c r="C68" t="n">
-        <v>44.0534</v>
+        <v>44.0695</v>
       </c>
       <c r="D68" t="n">
-        <v>31.4621</v>
+        <v>31.6157</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>84.0582</v>
+        <v>84.37179999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>45.9299</v>
+        <v>45.9022</v>
       </c>
       <c r="D69" t="n">
-        <v>32.2684</v>
+        <v>32.4326</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>57.8725</v>
+        <v>58.3635</v>
       </c>
       <c r="C70" t="n">
-        <v>48.0271</v>
+        <v>47.9252</v>
       </c>
       <c r="D70" t="n">
-        <v>33.2651</v>
+        <v>33.4415</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>59.9511</v>
+        <v>60.5725</v>
       </c>
       <c r="C71" t="n">
-        <v>50.1222</v>
+        <v>50.1843</v>
       </c>
       <c r="D71" t="n">
-        <v>33.8058</v>
+        <v>34.0319</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>62.8148</v>
+        <v>63.8174</v>
       </c>
       <c r="C72" t="n">
-        <v>52.2449</v>
+        <v>52.2723</v>
       </c>
       <c r="D72" t="n">
-        <v>34.6546</v>
+        <v>34.8465</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>65.2576</v>
+        <v>66.82980000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>54.7984</v>
+        <v>54.9886</v>
       </c>
       <c r="D73" t="n">
-        <v>35.7619</v>
+        <v>36.0304</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>67.61750000000001</v>
+        <v>69.3942</v>
       </c>
       <c r="C74" t="n">
-        <v>56.7491</v>
+        <v>57.3709</v>
       </c>
       <c r="D74" t="n">
-        <v>36.7913</v>
+        <v>37.0016</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>70.52070000000001</v>
+        <v>72.7662</v>
       </c>
       <c r="C75" t="n">
-        <v>59.8039</v>
+        <v>60.8791</v>
       </c>
       <c r="D75" t="n">
-        <v>37.5298</v>
+        <v>37.9143</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>74.19199999999999</v>
+        <v>77.0274</v>
       </c>
       <c r="C76" t="n">
-        <v>62.8457</v>
+        <v>64.2582</v>
       </c>
       <c r="D76" t="n">
-        <v>38.5519</v>
+        <v>38.9688</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>78.5382</v>
+        <v>81.1263</v>
       </c>
       <c r="C77" t="n">
-        <v>66.5904</v>
+        <v>67.7871</v>
       </c>
       <c r="D77" t="n">
-        <v>39.9183</v>
+        <v>40.4246</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>83.2428</v>
+        <v>85.7842</v>
       </c>
       <c r="C78" t="n">
-        <v>70.57989999999999</v>
+        <v>72.1748</v>
       </c>
       <c r="D78" t="n">
-        <v>41.337</v>
+        <v>42.0215</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>88.4913</v>
+        <v>90.96210000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>74.73390000000001</v>
+        <v>76.4774</v>
       </c>
       <c r="D79" t="n">
-        <v>42.9439</v>
+        <v>43.2748</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>95.3699</v>
+        <v>96.93899999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>81.0312</v>
+        <v>82.5809</v>
       </c>
       <c r="D80" t="n">
-        <v>44.3077</v>
+        <v>45.1476</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>103.161</v>
+        <v>104.619</v>
       </c>
       <c r="C81" t="n">
-        <v>87.91030000000001</v>
+        <v>89.6054</v>
       </c>
       <c r="D81" t="n">
-        <v>46.3543</v>
+        <v>47.8191</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>112.199</v>
+        <v>113.601</v>
       </c>
       <c r="C82" t="n">
-        <v>96.1846</v>
+        <v>97.63249999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>47.6911</v>
+        <v>48.6377</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>121.681</v>
+        <v>123.42</v>
       </c>
       <c r="C83" t="n">
-        <v>67.71299999999999</v>
+        <v>67.9562</v>
       </c>
       <c r="D83" t="n">
-        <v>38.9966</v>
+        <v>39.1691</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>133.847</v>
+        <v>134.764</v>
       </c>
       <c r="C84" t="n">
-        <v>73.52589999999999</v>
+        <v>73.63890000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>40.119</v>
+        <v>40.6293</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>95.0698</v>
+        <v>94.0658</v>
       </c>
       <c r="C85" t="n">
-        <v>79.47709999999999</v>
+        <v>79.295</v>
       </c>
       <c r="D85" t="n">
-        <v>42.1406</v>
+        <v>42.3984</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>102.147</v>
+        <v>102.682</v>
       </c>
       <c r="C86" t="n">
-        <v>87.5633</v>
+        <v>87.7406</v>
       </c>
       <c r="D86" t="n">
-        <v>43.8707</v>
+        <v>44.5166</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>109.765</v>
+        <v>111.178</v>
       </c>
       <c r="C87" t="n">
-        <v>95.5063</v>
+        <v>96.2283</v>
       </c>
       <c r="D87" t="n">
-        <v>46.4891</v>
+        <v>47.431</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>119.857</v>
+        <v>120.218</v>
       </c>
       <c r="C88" t="n">
-        <v>106.446</v>
+        <v>107.206</v>
       </c>
       <c r="D88" t="n">
-        <v>50.2218</v>
+        <v>49.8481</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>129.7</v>
+        <v>129.997</v>
       </c>
       <c r="C89" t="n">
-        <v>116.489</v>
+        <v>116.981</v>
       </c>
       <c r="D89" t="n">
-        <v>52.8699</v>
+        <v>52.8277</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>140.918</v>
+        <v>141.29</v>
       </c>
       <c r="C90" t="n">
-        <v>127.509</v>
+        <v>127.974</v>
       </c>
       <c r="D90" t="n">
-        <v>56.1699</v>
+        <v>56.4395</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>153.002</v>
+        <v>154.512</v>
       </c>
       <c r="C91" t="n">
-        <v>139.98</v>
+        <v>141.108</v>
       </c>
       <c r="D91" t="n">
-        <v>60.22</v>
+        <v>60.1196</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>165.934</v>
+        <v>167.211</v>
       </c>
       <c r="C92" t="n">
-        <v>153.291</v>
+        <v>154.921</v>
       </c>
       <c r="D92" t="n">
-        <v>63.9638</v>
+        <v>65.64060000000001</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>179.443</v>
+        <v>180.915</v>
       </c>
       <c r="C93" t="n">
-        <v>167.219</v>
+        <v>168.868</v>
       </c>
       <c r="D93" t="n">
-        <v>67.9207</v>
+        <v>70.1463</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>195.07</v>
+        <v>196.574</v>
       </c>
       <c r="C94" t="n">
-        <v>183.157</v>
+        <v>184.795</v>
       </c>
       <c r="D94" t="n">
-        <v>74.39570000000001</v>
+        <v>76.31480000000001</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>211.537</v>
+        <v>212.403</v>
       </c>
       <c r="C95" t="n">
-        <v>199.967</v>
+        <v>201.584</v>
       </c>
       <c r="D95" t="n">
-        <v>80.1981</v>
+        <v>81.56399999999999</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>229.743</v>
+        <v>230.477</v>
       </c>
       <c r="C96" t="n">
-        <v>219.86</v>
+        <v>221.023</v>
       </c>
       <c r="D96" t="n">
-        <v>88.29989999999999</v>
+        <v>88.27079999999999</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>248.934</v>
+        <v>249.225</v>
       </c>
       <c r="C97" t="n">
-        <v>132.928</v>
+        <v>133.249</v>
       </c>
       <c r="D97" t="n">
-        <v>66.74979999999999</v>
+        <v>67.0453</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>267.19</v>
+        <v>267.489</v>
       </c>
       <c r="C98" t="n">
-        <v>142.529</v>
+        <v>142.735</v>
       </c>
       <c r="D98" t="n">
-        <v>70.6901</v>
+        <v>71.2047</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>185.936</v>
+        <v>185.998</v>
       </c>
       <c r="C99" t="n">
-        <v>152.235</v>
+        <v>152.411</v>
       </c>
       <c r="D99" t="n">
-        <v>75.80249999999999</v>
+        <v>76.277</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>195.986</v>
+        <v>196.528</v>
       </c>
       <c r="C100" t="n">
-        <v>162.8</v>
+        <v>163.044</v>
       </c>
       <c r="D100" t="n">
-        <v>78.70610000000001</v>
+        <v>80.0275</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>206.6</v>
+        <v>206.86</v>
       </c>
       <c r="C101" t="n">
-        <v>173.849</v>
+        <v>174.132</v>
       </c>
       <c r="D101" t="n">
-        <v>85.2517</v>
+        <v>85.7889</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>218.488</v>
+        <v>218.516</v>
       </c>
       <c r="C102" t="n">
-        <v>185.674</v>
+        <v>185.766</v>
       </c>
       <c r="D102" t="n">
-        <v>89.2377</v>
+        <v>90.1602</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>229.674</v>
+        <v>229.304</v>
       </c>
       <c r="C103" t="n">
-        <v>198.228</v>
+        <v>197.889</v>
       </c>
       <c r="D103" t="n">
-        <v>94.6335</v>
+        <v>95.02119999999999</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>242.64</v>
+        <v>242.025</v>
       </c>
       <c r="C104" t="n">
-        <v>211.722</v>
+        <v>211.267</v>
       </c>
       <c r="D104" t="n">
-        <v>101.209</v>
+        <v>100.413</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>253.887</v>
+        <v>253.77</v>
       </c>
       <c r="C105" t="n">
-        <v>225.467</v>
+        <v>225.577</v>
       </c>
       <c r="D105" t="n">
-        <v>107.409</v>
+        <v>107.634</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>268.294</v>
+        <v>267.848</v>
       </c>
       <c r="C106" t="n">
-        <v>239.303</v>
+        <v>238.474</v>
       </c>
       <c r="D106" t="n">
-        <v>110.523</v>
+        <v>111.841</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>281.098</v>
+        <v>280.685</v>
       </c>
       <c r="C107" t="n">
-        <v>252.524</v>
+        <v>252.025</v>
       </c>
       <c r="D107" t="n">
-        <v>118.299</v>
+        <v>118.514</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>294.691</v>
+        <v>293.763</v>
       </c>
       <c r="C108" t="n">
-        <v>268.289</v>
+        <v>267.586</v>
       </c>
       <c r="D108" t="n">
-        <v>125.766</v>
+        <v>125.433</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>308.111</v>
+        <v>306.897</v>
       </c>
       <c r="C109" t="n">
-        <v>285.249</v>
+        <v>285.17</v>
       </c>
       <c r="D109" t="n">
-        <v>131.429</v>
+        <v>132.073</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>324.252</v>
+        <v>323.987</v>
       </c>
       <c r="C110" t="n">
-        <v>301.527</v>
+        <v>300.689</v>
       </c>
       <c r="D110" t="n">
-        <v>137.45</v>
+        <v>139.001</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>341.119</v>
+        <v>339.358</v>
       </c>
       <c r="C111" t="n">
-        <v>191.23</v>
+        <v>191.004</v>
       </c>
       <c r="D111" t="n">
-        <v>110.803</v>
+        <v>111.208</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>360.811</v>
+        <v>360.651</v>
       </c>
       <c r="C112" t="n">
-        <v>201.034</v>
+        <v>199.839</v>
       </c>
       <c r="D112" t="n">
-        <v>115.353</v>
+        <v>115.797</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>379.65</v>
+        <v>379.879</v>
       </c>
       <c r="C113" t="n">
-        <v>210.083</v>
+        <v>209.663</v>
       </c>
       <c r="D113" t="n">
-        <v>118.302</v>
+        <v>118.512</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>256.819</v>
+        <v>256.259</v>
       </c>
       <c r="C114" t="n">
-        <v>219.484</v>
+        <v>218.476</v>
       </c>
       <c r="D114" t="n">
-        <v>122.496</v>
+        <v>122.668</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>265.82</v>
+        <v>264.862</v>
       </c>
       <c r="C115" t="n">
-        <v>229.616</v>
+        <v>228.683</v>
       </c>
       <c r="D115" t="n">
-        <v>128.603</v>
+        <v>129.115</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>275.747</v>
+        <v>274.631</v>
       </c>
       <c r="C116" t="n">
-        <v>240.056</v>
+        <v>239.538</v>
       </c>
       <c r="D116" t="n">
-        <v>131.638</v>
+        <v>131.982</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>286.499</v>
+        <v>285.312</v>
       </c>
       <c r="C117" t="n">
-        <v>252.787</v>
+        <v>252</v>
       </c>
       <c r="D117" t="n">
-        <v>138.38</v>
+        <v>138.297</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>297.117</v>
+        <v>296.023</v>
       </c>
       <c r="C118" t="n">
-        <v>266.066</v>
+        <v>265.62</v>
       </c>
       <c r="D118" t="n">
-        <v>142.123</v>
+        <v>142.639</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>308.453</v>
+        <v>307.413</v>
       </c>
       <c r="C119" t="n">
-        <v>279.079</v>
+        <v>278.937</v>
       </c>
       <c r="D119" t="n">
-        <v>147.915</v>
+        <v>148.873</v>
       </c>
     </row>
   </sheetData>
